--- a/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26393600</v>
+        <v>24708900</v>
       </c>
       <c r="E8" s="3">
-        <v>22005600</v>
+        <v>25408000</v>
       </c>
       <c r="F8" s="3">
-        <v>19155500</v>
+        <v>21242600</v>
       </c>
       <c r="G8" s="3">
-        <v>20181500</v>
+        <v>18491400</v>
       </c>
       <c r="H8" s="3">
-        <v>27431700</v>
+        <v>19481800</v>
       </c>
       <c r="I8" s="3">
-        <v>24698300</v>
+        <v>26480600</v>
       </c>
       <c r="J8" s="3">
+        <v>23842000</v>
+      </c>
+      <c r="K8" s="3">
         <v>23478000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23595400</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20823700</v>
+        <v>19959300</v>
       </c>
       <c r="E9" s="3">
-        <v>17948800</v>
+        <v>20101700</v>
       </c>
       <c r="F9" s="3">
-        <v>15314800</v>
+        <v>17326500</v>
       </c>
       <c r="G9" s="3">
-        <v>15596300</v>
+        <v>14783800</v>
       </c>
       <c r="H9" s="3">
-        <v>21184300</v>
+        <v>15055600</v>
       </c>
       <c r="I9" s="3">
-        <v>19153200</v>
+        <v>20449800</v>
       </c>
       <c r="J9" s="3">
+        <v>18489200</v>
+      </c>
+      <c r="K9" s="3">
         <v>17263700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17639300</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5569900</v>
+        <v>4749600</v>
       </c>
       <c r="E10" s="3">
-        <v>4056800</v>
+        <v>5306300</v>
       </c>
       <c r="F10" s="3">
-        <v>3840700</v>
+        <v>3916100</v>
       </c>
       <c r="G10" s="3">
-        <v>4585200</v>
+        <v>3707600</v>
       </c>
       <c r="H10" s="3">
-        <v>6247400</v>
+        <v>4426300</v>
       </c>
       <c r="I10" s="3">
-        <v>5545100</v>
+        <v>6030800</v>
       </c>
       <c r="J10" s="3">
+        <v>5352800</v>
+      </c>
+      <c r="K10" s="3">
         <v>6214300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5956100</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14300</v>
+        <v>34200</v>
       </c>
       <c r="E12" s="3">
-        <v>137800</v>
+        <v>13800</v>
       </c>
       <c r="F12" s="3">
-        <v>70800</v>
+        <v>133000</v>
       </c>
       <c r="G12" s="3">
-        <v>55000</v>
+        <v>68300</v>
       </c>
       <c r="H12" s="3">
-        <v>50400</v>
+        <v>53000</v>
       </c>
       <c r="I12" s="3">
-        <v>92600</v>
+        <v>48700</v>
       </c>
       <c r="J12" s="3">
+        <v>89400</v>
+      </c>
+      <c r="K12" s="3">
         <v>62500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>70700</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -901,39 +920,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1170600</v>
+        <v>1161300</v>
       </c>
       <c r="E15" s="3">
-        <v>1635100</v>
+        <v>1130000</v>
       </c>
       <c r="F15" s="3">
-        <v>1225500</v>
+        <v>1578400</v>
       </c>
       <c r="G15" s="3">
-        <v>1091500</v>
+        <v>1183100</v>
       </c>
       <c r="H15" s="3">
-        <v>825100</v>
+        <v>1053700</v>
       </c>
       <c r="I15" s="3">
-        <v>835600</v>
+        <v>796500</v>
       </c>
       <c r="J15" s="3">
+        <v>806600</v>
+      </c>
+      <c r="K15" s="3">
         <v>572900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>586900</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>24027600</v>
+        <v>23226500</v>
       </c>
       <c r="E17" s="3">
-        <v>21653300</v>
+        <v>23194500</v>
       </c>
       <c r="F17" s="3">
-        <v>18703100</v>
+        <v>20902500</v>
       </c>
       <c r="G17" s="3">
-        <v>18764000</v>
+        <v>18054600</v>
       </c>
       <c r="H17" s="3">
-        <v>24044900</v>
+        <v>18113500</v>
       </c>
       <c r="I17" s="3">
-        <v>21885100</v>
+        <v>23211200</v>
       </c>
       <c r="J17" s="3">
+        <v>21126300</v>
+      </c>
+      <c r="K17" s="3">
         <v>19720100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20208300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2366000</v>
+        <v>1482400</v>
       </c>
       <c r="E18" s="3">
-        <v>352300</v>
+        <v>2213500</v>
       </c>
       <c r="F18" s="3">
-        <v>452400</v>
+        <v>340100</v>
       </c>
       <c r="G18" s="3">
-        <v>1417500</v>
+        <v>436700</v>
       </c>
       <c r="H18" s="3">
-        <v>3386800</v>
+        <v>1368400</v>
       </c>
       <c r="I18" s="3">
-        <v>2813200</v>
+        <v>3269400</v>
       </c>
       <c r="J18" s="3">
+        <v>2715600</v>
+      </c>
+      <c r="K18" s="3">
         <v>3757900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3387100</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>26300</v>
+        <v>69800</v>
       </c>
       <c r="E20" s="3">
-        <v>134700</v>
+        <v>95900</v>
       </c>
       <c r="F20" s="3">
-        <v>1441600</v>
+        <v>130100</v>
       </c>
       <c r="G20" s="3">
-        <v>55700</v>
+        <v>1391600</v>
       </c>
       <c r="H20" s="3">
-        <v>393000</v>
+        <v>53800</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>379300</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3528800</v>
+        <v>2714400</v>
       </c>
       <c r="E21" s="3">
-        <v>2122900</v>
+        <v>3406900</v>
       </c>
       <c r="F21" s="3">
-        <v>3120100</v>
+        <v>2049800</v>
       </c>
       <c r="G21" s="3">
-        <v>2565200</v>
+        <v>3012300</v>
       </c>
       <c r="H21" s="3">
-        <v>4605200</v>
+        <v>2476700</v>
       </c>
       <c r="I21" s="3">
-        <v>3649200</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>4445800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3522900</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3974600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>79000</v>
+        <v>65400</v>
       </c>
       <c r="E22" s="3">
-        <v>48900</v>
+        <v>76300</v>
       </c>
       <c r="F22" s="3">
-        <v>54200</v>
+        <v>47200</v>
       </c>
       <c r="G22" s="3">
-        <v>25600</v>
+        <v>52300</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
+        <v>24700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2313300</v>
+        <v>1486800</v>
       </c>
       <c r="E23" s="3">
-        <v>438100</v>
+        <v>2233100</v>
       </c>
       <c r="F23" s="3">
-        <v>1839800</v>
+        <v>422900</v>
       </c>
       <c r="G23" s="3">
-        <v>1447600</v>
+        <v>1776000</v>
       </c>
       <c r="H23" s="3">
-        <v>3779800</v>
+        <v>1397400</v>
       </c>
       <c r="I23" s="3">
-        <v>2813200</v>
+        <v>3648700</v>
       </c>
       <c r="J23" s="3">
+        <v>2715600</v>
+      </c>
+      <c r="K23" s="3">
         <v>3758700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3384800</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>571400</v>
+        <v>-111900</v>
       </c>
       <c r="E24" s="3">
-        <v>69300</v>
+        <v>551600</v>
       </c>
       <c r="F24" s="3">
-        <v>210000</v>
+        <v>66900</v>
       </c>
       <c r="G24" s="3">
-        <v>603000</v>
+        <v>202700</v>
       </c>
       <c r="H24" s="3">
-        <v>930400</v>
+        <v>582100</v>
       </c>
       <c r="I24" s="3">
-        <v>684300</v>
+        <v>898200</v>
       </c>
       <c r="J24" s="3">
+        <v>660600</v>
+      </c>
+      <c r="K24" s="3">
         <v>923700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>795100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1742000</v>
+        <v>1598700</v>
       </c>
       <c r="E26" s="3">
-        <v>368900</v>
+        <v>1681600</v>
       </c>
       <c r="F26" s="3">
-        <v>1629800</v>
+        <v>356100</v>
       </c>
       <c r="G26" s="3">
-        <v>844600</v>
+        <v>1573300</v>
       </c>
       <c r="H26" s="3">
-        <v>2849300</v>
+        <v>815300</v>
       </c>
       <c r="I26" s="3">
-        <v>2128900</v>
+        <v>2750500</v>
       </c>
       <c r="J26" s="3">
+        <v>2055100</v>
+      </c>
+      <c r="K26" s="3">
         <v>2835000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2589700</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1742000</v>
+        <v>1598700</v>
       </c>
       <c r="E27" s="3">
-        <v>368900</v>
+        <v>1681600</v>
       </c>
       <c r="F27" s="3">
-        <v>1629800</v>
+        <v>356100</v>
       </c>
       <c r="G27" s="3">
-        <v>844600</v>
+        <v>1573300</v>
       </c>
       <c r="H27" s="3">
-        <v>2849300</v>
+        <v>815300</v>
       </c>
       <c r="I27" s="3">
-        <v>2128900</v>
+        <v>2750500</v>
       </c>
       <c r="J27" s="3">
+        <v>2055100</v>
+      </c>
+      <c r="K27" s="3">
         <v>2835000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2589700</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-26300</v>
+        <v>-69800</v>
       </c>
       <c r="E32" s="3">
-        <v>-134700</v>
+        <v>-95900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1441600</v>
+        <v>-130100</v>
       </c>
       <c r="G32" s="3">
-        <v>-55700</v>
+        <v>-1391600</v>
       </c>
       <c r="H32" s="3">
-        <v>-393000</v>
+        <v>-53800</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-379300</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1742000</v>
+        <v>1598700</v>
       </c>
       <c r="E33" s="3">
-        <v>368900</v>
+        <v>1681600</v>
       </c>
       <c r="F33" s="3">
-        <v>1629800</v>
+        <v>356100</v>
       </c>
       <c r="G33" s="3">
-        <v>844600</v>
+        <v>1573300</v>
       </c>
       <c r="H33" s="3">
-        <v>2849300</v>
+        <v>815300</v>
       </c>
       <c r="I33" s="3">
-        <v>2128900</v>
+        <v>2750500</v>
       </c>
       <c r="J33" s="3">
+        <v>2055100</v>
+      </c>
+      <c r="K33" s="3">
         <v>2835000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2589700</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1742000</v>
+        <v>1598700</v>
       </c>
       <c r="E35" s="3">
-        <v>368900</v>
+        <v>1681600</v>
       </c>
       <c r="F35" s="3">
-        <v>1629800</v>
+        <v>356100</v>
       </c>
       <c r="G35" s="3">
-        <v>844600</v>
+        <v>1573300</v>
       </c>
       <c r="H35" s="3">
-        <v>2849300</v>
+        <v>815300</v>
       </c>
       <c r="I35" s="3">
-        <v>2128900</v>
+        <v>2750500</v>
       </c>
       <c r="J35" s="3">
+        <v>2055100</v>
+      </c>
+      <c r="K35" s="3">
         <v>2835000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2589700</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>743800</v>
+        <v>1247700</v>
       </c>
       <c r="E41" s="3">
-        <v>899600</v>
+        <v>717600</v>
       </c>
       <c r="F41" s="3">
-        <v>294300</v>
+        <v>867900</v>
       </c>
       <c r="G41" s="3">
-        <v>152800</v>
+        <v>284000</v>
       </c>
       <c r="H41" s="3">
-        <v>161800</v>
+        <v>147400</v>
       </c>
       <c r="I41" s="3">
-        <v>204800</v>
+        <v>156100</v>
       </c>
       <c r="J41" s="3">
+        <v>197500</v>
+      </c>
+      <c r="K41" s="3">
         <v>362800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>923400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,219 +1708,243 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1903800</v>
+        <v>1960200</v>
       </c>
       <c r="E43" s="3">
-        <v>2041600</v>
+        <v>1836700</v>
       </c>
       <c r="F43" s="3">
-        <v>1522900</v>
+        <v>1969600</v>
       </c>
       <c r="G43" s="3">
-        <v>1190200</v>
+        <v>1469200</v>
       </c>
       <c r="H43" s="3">
-        <v>1158500</v>
+        <v>1148200</v>
       </c>
       <c r="I43" s="3">
-        <v>1568800</v>
+        <v>1117700</v>
       </c>
       <c r="J43" s="3">
+        <v>1513500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1487500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1759200</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>976400</v>
+        <v>941200</v>
       </c>
       <c r="E44" s="3">
-        <v>809200</v>
+        <v>942000</v>
       </c>
       <c r="F44" s="3">
-        <v>714400</v>
+        <v>780700</v>
       </c>
       <c r="G44" s="3">
-        <v>895800</v>
+        <v>689200</v>
       </c>
       <c r="H44" s="3">
-        <v>843900</v>
+        <v>864300</v>
       </c>
       <c r="I44" s="3">
-        <v>775400</v>
+        <v>814100</v>
       </c>
       <c r="J44" s="3">
+        <v>748100</v>
+      </c>
+      <c r="K44" s="3">
         <v>622600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>585400</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>407300</v>
+        <v>447400</v>
       </c>
       <c r="E45" s="3">
-        <v>319900</v>
+        <v>392900</v>
       </c>
       <c r="F45" s="3">
-        <v>352300</v>
+        <v>308700</v>
       </c>
       <c r="G45" s="3">
-        <v>523900</v>
+        <v>339900</v>
       </c>
       <c r="H45" s="3">
-        <v>522400</v>
+        <v>505500</v>
       </c>
       <c r="I45" s="3">
-        <v>678300</v>
+        <v>504000</v>
       </c>
       <c r="J45" s="3">
+        <v>654400</v>
+      </c>
+      <c r="K45" s="3">
         <v>607500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>636900</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4031200</v>
+        <v>4596600</v>
       </c>
       <c r="E46" s="3">
-        <v>4070300</v>
+        <v>3889200</v>
       </c>
       <c r="F46" s="3">
-        <v>2883900</v>
+        <v>3926900</v>
       </c>
       <c r="G46" s="3">
-        <v>2762700</v>
+        <v>2782300</v>
       </c>
       <c r="H46" s="3">
-        <v>2686700</v>
+        <v>2665400</v>
       </c>
       <c r="I46" s="3">
-        <v>3227200</v>
+        <v>2592100</v>
       </c>
       <c r="J46" s="3">
+        <v>3113500</v>
+      </c>
+      <c r="K46" s="3">
         <v>3080400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3904900</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>645100</v>
+        <v>647100</v>
       </c>
       <c r="E47" s="3">
-        <v>651200</v>
+        <v>622400</v>
       </c>
       <c r="F47" s="3">
-        <v>775400</v>
+        <v>628200</v>
       </c>
       <c r="G47" s="3">
-        <v>1064400</v>
+        <v>748100</v>
       </c>
       <c r="H47" s="3">
-        <v>1058400</v>
+        <v>1026900</v>
       </c>
       <c r="I47" s="3">
-        <v>1002700</v>
+        <v>1021100</v>
       </c>
       <c r="J47" s="3">
+        <v>967400</v>
+      </c>
+      <c r="K47" s="3">
         <v>820500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>706800</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25764200</v>
+        <v>25029400</v>
       </c>
       <c r="E48" s="3">
-        <v>25950900</v>
+        <v>24856600</v>
       </c>
       <c r="F48" s="3">
-        <v>27351100</v>
+        <v>25036700</v>
       </c>
       <c r="G48" s="3">
-        <v>28454700</v>
+        <v>26387600</v>
       </c>
       <c r="H48" s="3">
-        <v>26779800</v>
+        <v>27452300</v>
       </c>
       <c r="I48" s="3">
-        <v>23577400</v>
+        <v>25836300</v>
       </c>
       <c r="J48" s="3">
+        <v>22746800</v>
+      </c>
+      <c r="K48" s="3">
         <v>18008200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14720800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>767100</v>
+        <v>135100</v>
       </c>
       <c r="E49" s="3">
-        <v>644400</v>
+        <v>135100</v>
       </c>
       <c r="F49" s="3">
-        <v>346300</v>
+        <v>135100</v>
       </c>
       <c r="G49" s="3">
-        <v>216100</v>
+        <v>135100</v>
       </c>
       <c r="H49" s="3">
-        <v>211500</v>
+        <v>162700</v>
       </c>
       <c r="I49" s="3">
-        <v>210000</v>
+        <v>162700</v>
       </c>
       <c r="J49" s="3">
+        <v>162700</v>
+      </c>
+      <c r="K49" s="3">
         <v>195700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>202800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>231000</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>605000</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>486600</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>199000</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>45800</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>41400</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>39900</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31207700</v>
+        <v>30639200</v>
       </c>
       <c r="E54" s="3">
-        <v>31316800</v>
+        <v>30108200</v>
       </c>
       <c r="F54" s="3">
-        <v>31356700</v>
+        <v>30213600</v>
       </c>
       <c r="G54" s="3">
-        <v>32497900</v>
+        <v>30252100</v>
       </c>
       <c r="H54" s="3">
-        <v>30736400</v>
+        <v>31353100</v>
       </c>
       <c r="I54" s="3">
-        <v>28017300</v>
+        <v>29653600</v>
       </c>
       <c r="J54" s="3">
+        <v>27030300</v>
+      </c>
+      <c r="K54" s="3">
         <v>22104900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19535300</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2465400</v>
+        <v>2711200</v>
       </c>
       <c r="E57" s="3">
-        <v>2589600</v>
+        <v>2378500</v>
       </c>
       <c r="F57" s="3">
-        <v>2105600</v>
+        <v>2498400</v>
       </c>
       <c r="G57" s="3">
-        <v>1965500</v>
+        <v>2031400</v>
       </c>
       <c r="H57" s="3">
-        <v>2680700</v>
+        <v>1896300</v>
       </c>
       <c r="I57" s="3">
-        <v>3115000</v>
+        <v>2586200</v>
       </c>
       <c r="J57" s="3">
+        <v>3005300</v>
+      </c>
+      <c r="K57" s="3">
         <v>6800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>165200</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>152100</v>
+        <v>177200</v>
       </c>
       <c r="E58" s="3">
-        <v>152100</v>
+        <v>146700</v>
       </c>
       <c r="F58" s="3">
-        <v>152100</v>
+        <v>146700</v>
       </c>
       <c r="G58" s="3">
-        <v>1469400</v>
+        <v>146700</v>
       </c>
       <c r="H58" s="3">
-        <v>1489000</v>
+        <v>1417700</v>
       </c>
       <c r="I58" s="3">
-        <v>1387400</v>
+        <v>1436600</v>
       </c>
       <c r="J58" s="3">
+        <v>1338500</v>
+      </c>
+      <c r="K58" s="3">
         <v>3547100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3430900</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>359800</v>
+        <v>448800</v>
       </c>
       <c r="E59" s="3">
-        <v>371900</v>
+        <v>347200</v>
       </c>
       <c r="F59" s="3">
-        <v>665500</v>
+        <v>358800</v>
       </c>
       <c r="G59" s="3">
-        <v>624800</v>
+        <v>642000</v>
       </c>
       <c r="H59" s="3">
-        <v>332700</v>
+        <v>602800</v>
       </c>
       <c r="I59" s="3">
-        <v>833300</v>
+        <v>321000</v>
       </c>
       <c r="J59" s="3">
+        <v>804000</v>
+      </c>
+      <c r="K59" s="3">
         <v>891300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>974100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2977300</v>
+        <v>3337200</v>
       </c>
       <c r="E60" s="3">
-        <v>3113500</v>
+        <v>2872400</v>
       </c>
       <c r="F60" s="3">
-        <v>2923100</v>
+        <v>3003900</v>
       </c>
       <c r="G60" s="3">
-        <v>4059800</v>
+        <v>2820100</v>
       </c>
       <c r="H60" s="3">
-        <v>4502400</v>
+        <v>3916800</v>
       </c>
       <c r="I60" s="3">
-        <v>5335800</v>
+        <v>4343800</v>
       </c>
       <c r="J60" s="3">
+        <v>5147800</v>
+      </c>
+      <c r="K60" s="3">
         <v>4445200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4570200</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3747400</v>
+        <v>3603000</v>
       </c>
       <c r="E61" s="3">
-        <v>3767700</v>
+        <v>3615400</v>
       </c>
       <c r="F61" s="3">
-        <v>3788000</v>
+        <v>3635000</v>
       </c>
       <c r="G61" s="3">
-        <v>4941300</v>
+        <v>3654600</v>
       </c>
       <c r="H61" s="3">
-        <v>3698500</v>
+        <v>4767200</v>
       </c>
       <c r="I61" s="3">
-        <v>3345400</v>
+        <v>3568200</v>
       </c>
       <c r="J61" s="3">
+        <v>3227500</v>
+      </c>
+      <c r="K61" s="3">
         <v>884500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>647600</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6047900</v>
+        <v>6068000</v>
       </c>
       <c r="E62" s="3">
-        <v>6041100</v>
+        <v>5834900</v>
       </c>
       <c r="F62" s="3">
-        <v>5810000</v>
+        <v>5828300</v>
       </c>
       <c r="G62" s="3">
-        <v>5862700</v>
+        <v>5605400</v>
       </c>
       <c r="H62" s="3">
-        <v>5575200</v>
+        <v>5656200</v>
       </c>
       <c r="I62" s="3">
-        <v>4638700</v>
+        <v>5378800</v>
       </c>
       <c r="J62" s="3">
+        <v>4475300</v>
+      </c>
+      <c r="K62" s="3">
         <v>4446700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4083900</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12772600</v>
+        <v>13008200</v>
       </c>
       <c r="E66" s="3">
-        <v>12922400</v>
+        <v>12322600</v>
       </c>
       <c r="F66" s="3">
-        <v>12521200</v>
+        <v>12467200</v>
       </c>
       <c r="G66" s="3">
-        <v>14863800</v>
+        <v>12080000</v>
       </c>
       <c r="H66" s="3">
-        <v>13776100</v>
+        <v>14340200</v>
       </c>
       <c r="I66" s="3">
-        <v>13319900</v>
+        <v>13290700</v>
       </c>
       <c r="J66" s="3">
+        <v>12850600</v>
+      </c>
+      <c r="K66" s="3">
         <v>9776500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9301700</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18488500</v>
+        <v>18020200</v>
       </c>
       <c r="E72" s="3">
-        <v>18604500</v>
+        <v>17837200</v>
       </c>
       <c r="F72" s="3">
-        <v>19084700</v>
+        <v>17949000</v>
       </c>
       <c r="G72" s="3">
-        <v>17831300</v>
+        <v>18412400</v>
       </c>
       <c r="H72" s="3">
-        <v>17331500</v>
+        <v>17203200</v>
       </c>
       <c r="I72" s="3">
-        <v>14814200</v>
+        <v>16720900</v>
       </c>
       <c r="J72" s="3">
+        <v>14292300</v>
+      </c>
+      <c r="K72" s="3">
         <v>12997700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10779000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18435100</v>
+        <v>17630900</v>
       </c>
       <c r="E76" s="3">
-        <v>18394400</v>
+        <v>17785600</v>
       </c>
       <c r="F76" s="3">
-        <v>18835600</v>
+        <v>17746400</v>
       </c>
       <c r="G76" s="3">
-        <v>17634100</v>
+        <v>18172000</v>
       </c>
       <c r="H76" s="3">
-        <v>16960400</v>
+        <v>17012900</v>
       </c>
       <c r="I76" s="3">
-        <v>14697500</v>
+        <v>16362900</v>
       </c>
       <c r="J76" s="3">
+        <v>14179700</v>
+      </c>
+      <c r="K76" s="3">
         <v>12328400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10233600</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1742000</v>
+        <v>1598700</v>
       </c>
       <c r="E81" s="3">
-        <v>368900</v>
+        <v>1681600</v>
       </c>
       <c r="F81" s="3">
-        <v>1629800</v>
+        <v>356100</v>
       </c>
       <c r="G81" s="3">
-        <v>844600</v>
+        <v>1573300</v>
       </c>
       <c r="H81" s="3">
-        <v>2849300</v>
+        <v>815300</v>
       </c>
       <c r="I81" s="3">
-        <v>2128900</v>
+        <v>2750500</v>
       </c>
       <c r="J81" s="3">
+        <v>2055100</v>
+      </c>
+      <c r="K81" s="3">
         <v>2835000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2589700</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1136000</v>
+        <v>1161300</v>
       </c>
       <c r="E83" s="3">
-        <v>1635100</v>
+        <v>1096600</v>
       </c>
       <c r="F83" s="3">
-        <v>1225500</v>
+        <v>1578400</v>
       </c>
       <c r="G83" s="3">
-        <v>1091500</v>
+        <v>1183100</v>
       </c>
       <c r="H83" s="3">
-        <v>825100</v>
+        <v>1053700</v>
       </c>
       <c r="I83" s="3">
-        <v>835600</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>796500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>806600</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>586900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2952400</v>
+        <v>3218500</v>
       </c>
       <c r="E89" s="3">
-        <v>2080000</v>
+        <v>2850100</v>
       </c>
       <c r="F89" s="3">
-        <v>1516900</v>
+        <v>2007800</v>
       </c>
       <c r="G89" s="3">
-        <v>1631300</v>
+        <v>1464300</v>
       </c>
       <c r="H89" s="3">
-        <v>3316000</v>
+        <v>1574700</v>
       </c>
       <c r="I89" s="3">
-        <v>2478200</v>
+        <v>3201100</v>
       </c>
       <c r="J89" s="3">
+        <v>2392300</v>
+      </c>
+      <c r="K89" s="3">
         <v>3523100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3448600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1122400</v>
+        <v>-1188900</v>
       </c>
       <c r="E91" s="3">
-        <v>-747500</v>
+        <v>-1083500</v>
       </c>
       <c r="F91" s="3">
-        <v>-807700</v>
+        <v>-721600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2253900</v>
+        <v>-779700</v>
       </c>
       <c r="H91" s="3">
-        <v>-3982300</v>
+        <v>-2175700</v>
       </c>
       <c r="I91" s="3">
-        <v>-4740300</v>
+        <v>-3844200</v>
       </c>
       <c r="J91" s="3">
+        <v>-4576000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4123800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3010700</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1173600</v>
+        <v>-1238300</v>
       </c>
       <c r="E94" s="3">
-        <v>-587900</v>
+        <v>-1132900</v>
       </c>
       <c r="F94" s="3">
-        <v>1465700</v>
+        <v>-567500</v>
       </c>
       <c r="G94" s="3">
-        <v>-2171000</v>
+        <v>1414900</v>
       </c>
       <c r="H94" s="3">
-        <v>-3434200</v>
+        <v>-2095800</v>
       </c>
       <c r="I94" s="3">
-        <v>-5822800</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-3315200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-5620900</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2760300</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-430600</v>
+        <v>-458500</v>
       </c>
       <c r="E96" s="3">
-        <v>-394500</v>
+        <v>-415700</v>
       </c>
       <c r="F96" s="3">
-        <v>-370400</v>
+        <v>-380800</v>
       </c>
       <c r="G96" s="3">
-        <v>-338000</v>
+        <v>-357500</v>
       </c>
       <c r="H96" s="3">
-        <v>-332000</v>
+        <v>-326300</v>
       </c>
       <c r="I96" s="3">
-        <v>-306400</v>
+        <v>-320500</v>
       </c>
       <c r="J96" s="3">
+        <v>-295800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-299600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-286500</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1934700</v>
+        <v>-1449700</v>
       </c>
       <c r="E100" s="3">
-        <v>-886800</v>
+        <v>-1867600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2841000</v>
+        <v>-856000</v>
       </c>
       <c r="G100" s="3">
-        <v>530700</v>
+        <v>-2742500</v>
       </c>
       <c r="H100" s="3">
-        <v>75300</v>
+        <v>512300</v>
       </c>
       <c r="I100" s="3">
-        <v>3186600</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>72700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>3076100</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>30000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3232,43 +3480,49 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-155800</v>
+        <v>530500</v>
       </c>
       <c r="E102" s="3">
-        <v>605200</v>
+        <v>-150400</v>
       </c>
       <c r="F102" s="3">
-        <v>141500</v>
+        <v>584300</v>
       </c>
       <c r="G102" s="3">
-        <v>-9000</v>
+        <v>136600</v>
       </c>
       <c r="H102" s="3">
-        <v>-42900</v>
+        <v>-8700</v>
       </c>
       <c r="I102" s="3">
-        <v>-158100</v>
+        <v>-41400</v>
       </c>
       <c r="J102" s="3">
+        <v>-152600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-542000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>718300</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24708900</v>
+        <v>25878600</v>
       </c>
       <c r="E8" s="3">
-        <v>25408000</v>
+        <v>26610800</v>
       </c>
       <c r="F8" s="3">
-        <v>21242600</v>
+        <v>22166700</v>
       </c>
       <c r="G8" s="3">
-        <v>18491400</v>
+        <v>19064500</v>
       </c>
       <c r="H8" s="3">
-        <v>19481800</v>
+        <v>20363700</v>
       </c>
       <c r="I8" s="3">
-        <v>26480600</v>
+        <v>27734100</v>
       </c>
       <c r="J8" s="3">
-        <v>23842000</v>
+        <v>24970600</v>
       </c>
       <c r="K8" s="3">
         <v>23478000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19959300</v>
+        <v>20904100</v>
       </c>
       <c r="E9" s="3">
-        <v>20101700</v>
+        <v>21053300</v>
       </c>
       <c r="F9" s="3">
-        <v>17326500</v>
+        <v>18146700</v>
       </c>
       <c r="G9" s="3">
-        <v>14783800</v>
+        <v>15483600</v>
       </c>
       <c r="H9" s="3">
-        <v>15055600</v>
+        <v>15768300</v>
       </c>
       <c r="I9" s="3">
-        <v>20449800</v>
+        <v>21417800</v>
       </c>
       <c r="J9" s="3">
-        <v>18489200</v>
+        <v>19364400</v>
       </c>
       <c r="K9" s="3">
         <v>17263700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4749600</v>
+        <v>4974500</v>
       </c>
       <c r="E10" s="3">
-        <v>5306300</v>
+        <v>5557500</v>
       </c>
       <c r="F10" s="3">
-        <v>3916100</v>
+        <v>4020100</v>
       </c>
       <c r="G10" s="3">
-        <v>3707600</v>
+        <v>3580900</v>
       </c>
       <c r="H10" s="3">
-        <v>4426300</v>
+        <v>4595500</v>
       </c>
       <c r="I10" s="3">
-        <v>6030800</v>
+        <v>6316300</v>
       </c>
       <c r="J10" s="3">
-        <v>5352800</v>
+        <v>5606200</v>
       </c>
       <c r="K10" s="3">
         <v>6214300</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>34200</v>
+        <v>35800</v>
       </c>
       <c r="E12" s="3">
-        <v>13800</v>
+        <v>14500</v>
       </c>
       <c r="F12" s="3">
-        <v>133000</v>
+        <v>139300</v>
       </c>
       <c r="G12" s="3">
-        <v>68300</v>
+        <v>71500</v>
       </c>
       <c r="H12" s="3">
-        <v>53000</v>
+        <v>55600</v>
       </c>
       <c r="I12" s="3">
-        <v>48700</v>
+        <v>51000</v>
       </c>
       <c r="J12" s="3">
-        <v>89400</v>
+        <v>93600</v>
       </c>
       <c r="K12" s="3">
         <v>62500</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1161300</v>
+        <v>1216200</v>
       </c>
       <c r="E15" s="3">
-        <v>1130000</v>
+        <v>1183500</v>
       </c>
       <c r="F15" s="3">
-        <v>1578400</v>
+        <v>1653100</v>
       </c>
       <c r="G15" s="3">
-        <v>1183100</v>
+        <v>1239100</v>
       </c>
       <c r="H15" s="3">
-        <v>1053700</v>
+        <v>1103600</v>
       </c>
       <c r="I15" s="3">
-        <v>796500</v>
+        <v>834200</v>
       </c>
       <c r="J15" s="3">
-        <v>806600</v>
+        <v>844800</v>
       </c>
       <c r="K15" s="3">
         <v>572900</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>23226500</v>
+        <v>24326000</v>
       </c>
       <c r="E17" s="3">
-        <v>23194500</v>
+        <v>24292500</v>
       </c>
       <c r="F17" s="3">
-        <v>20902500</v>
+        <v>21892000</v>
       </c>
       <c r="G17" s="3">
-        <v>18054600</v>
+        <v>18909300</v>
       </c>
       <c r="H17" s="3">
-        <v>18113500</v>
+        <v>18970900</v>
       </c>
       <c r="I17" s="3">
-        <v>23211200</v>
+        <v>24310000</v>
       </c>
       <c r="J17" s="3">
-        <v>21126300</v>
+        <v>22126400</v>
       </c>
       <c r="K17" s="3">
         <v>19720100</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1482400</v>
+        <v>1552600</v>
       </c>
       <c r="E18" s="3">
-        <v>2213500</v>
+        <v>2318300</v>
       </c>
       <c r="F18" s="3">
-        <v>340100</v>
+        <v>274800</v>
       </c>
       <c r="G18" s="3">
-        <v>436700</v>
+        <v>155300</v>
       </c>
       <c r="H18" s="3">
-        <v>1368400</v>
+        <v>1392800</v>
       </c>
       <c r="I18" s="3">
-        <v>3269400</v>
+        <v>3424100</v>
       </c>
       <c r="J18" s="3">
-        <v>2715600</v>
+        <v>2844200</v>
       </c>
       <c r="K18" s="3">
         <v>3757900</v>
@@ -1056,22 +1056,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>69800</v>
+        <v>73100</v>
       </c>
       <c r="E20" s="3">
-        <v>95900</v>
+        <v>100500</v>
       </c>
       <c r="F20" s="3">
-        <v>130100</v>
+        <v>217700</v>
       </c>
       <c r="G20" s="3">
-        <v>1391600</v>
+        <v>1759600</v>
       </c>
       <c r="H20" s="3">
-        <v>53800</v>
+        <v>96700</v>
       </c>
       <c r="I20" s="3">
-        <v>379300</v>
+        <v>397300</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2714400</v>
+        <v>2839200</v>
       </c>
       <c r="E21" s="3">
-        <v>3406900</v>
+        <v>3564700</v>
       </c>
       <c r="F21" s="3">
-        <v>2049800</v>
+        <v>2141900</v>
       </c>
       <c r="G21" s="3">
-        <v>3012300</v>
+        <v>3151200</v>
       </c>
       <c r="H21" s="3">
-        <v>2476700</v>
+        <v>2590600</v>
       </c>
       <c r="I21" s="3">
-        <v>4445800</v>
+        <v>4653800</v>
       </c>
       <c r="J21" s="3">
-        <v>3522900</v>
+        <v>3687100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>17</v>
@@ -1122,19 +1122,19 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>65400</v>
+        <v>68500</v>
       </c>
       <c r="E22" s="3">
-        <v>76300</v>
+        <v>79900</v>
       </c>
       <c r="F22" s="3">
-        <v>47200</v>
+        <v>49500</v>
       </c>
       <c r="G22" s="3">
-        <v>52300</v>
+        <v>54800</v>
       </c>
       <c r="H22" s="3">
-        <v>24700</v>
+        <v>25900</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1486800</v>
+        <v>1557200</v>
       </c>
       <c r="E23" s="3">
-        <v>2233100</v>
+        <v>2338800</v>
       </c>
       <c r="F23" s="3">
-        <v>422900</v>
+        <v>443000</v>
       </c>
       <c r="G23" s="3">
-        <v>1776000</v>
+        <v>1860100</v>
       </c>
       <c r="H23" s="3">
-        <v>1397400</v>
+        <v>1463600</v>
       </c>
       <c r="I23" s="3">
-        <v>3648700</v>
+        <v>3821400</v>
       </c>
       <c r="J23" s="3">
-        <v>2715600</v>
+        <v>2844200</v>
       </c>
       <c r="K23" s="3">
         <v>3758700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-111900</v>
+        <v>-117200</v>
       </c>
       <c r="E24" s="3">
-        <v>551600</v>
+        <v>577700</v>
       </c>
       <c r="F24" s="3">
-        <v>66900</v>
+        <v>70000</v>
       </c>
       <c r="G24" s="3">
-        <v>202700</v>
+        <v>212300</v>
       </c>
       <c r="H24" s="3">
-        <v>582100</v>
+        <v>609600</v>
       </c>
       <c r="I24" s="3">
-        <v>898200</v>
+        <v>940700</v>
       </c>
       <c r="J24" s="3">
-        <v>660600</v>
+        <v>691800</v>
       </c>
       <c r="K24" s="3">
         <v>923700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1598700</v>
+        <v>1674400</v>
       </c>
       <c r="E26" s="3">
-        <v>1681600</v>
+        <v>1761200</v>
       </c>
       <c r="F26" s="3">
-        <v>356100</v>
+        <v>372900</v>
       </c>
       <c r="G26" s="3">
-        <v>1573300</v>
+        <v>1647800</v>
       </c>
       <c r="H26" s="3">
-        <v>815300</v>
+        <v>853900</v>
       </c>
       <c r="I26" s="3">
-        <v>2750500</v>
+        <v>2880700</v>
       </c>
       <c r="J26" s="3">
-        <v>2055100</v>
+        <v>2152400</v>
       </c>
       <c r="K26" s="3">
         <v>2835000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1598700</v>
+        <v>1674400</v>
       </c>
       <c r="E27" s="3">
-        <v>1681600</v>
+        <v>1761200</v>
       </c>
       <c r="F27" s="3">
-        <v>356100</v>
+        <v>372900</v>
       </c>
       <c r="G27" s="3">
-        <v>1573300</v>
+        <v>1647800</v>
       </c>
       <c r="H27" s="3">
-        <v>815300</v>
+        <v>853900</v>
       </c>
       <c r="I27" s="3">
-        <v>2750500</v>
+        <v>2880700</v>
       </c>
       <c r="J27" s="3">
-        <v>2055100</v>
+        <v>2152400</v>
       </c>
       <c r="K27" s="3">
         <v>2835000</v>
@@ -1452,22 +1452,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-69800</v>
+        <v>-73100</v>
       </c>
       <c r="E32" s="3">
-        <v>-95900</v>
+        <v>-100500</v>
       </c>
       <c r="F32" s="3">
-        <v>-130100</v>
+        <v>-217700</v>
       </c>
       <c r="G32" s="3">
-        <v>-1391600</v>
+        <v>-1759600</v>
       </c>
       <c r="H32" s="3">
-        <v>-53800</v>
+        <v>-96700</v>
       </c>
       <c r="I32" s="3">
-        <v>-379300</v>
+        <v>-397300</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1598700</v>
+        <v>1674400</v>
       </c>
       <c r="E33" s="3">
-        <v>1681600</v>
+        <v>1761200</v>
       </c>
       <c r="F33" s="3">
-        <v>356100</v>
+        <v>372900</v>
       </c>
       <c r="G33" s="3">
-        <v>1573300</v>
+        <v>1647800</v>
       </c>
       <c r="H33" s="3">
-        <v>815300</v>
+        <v>853900</v>
       </c>
       <c r="I33" s="3">
-        <v>2750500</v>
+        <v>2880700</v>
       </c>
       <c r="J33" s="3">
-        <v>2055100</v>
+        <v>2152400</v>
       </c>
       <c r="K33" s="3">
         <v>2835000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1598700</v>
+        <v>1674400</v>
       </c>
       <c r="E35" s="3">
-        <v>1681600</v>
+        <v>1761200</v>
       </c>
       <c r="F35" s="3">
-        <v>356100</v>
+        <v>372900</v>
       </c>
       <c r="G35" s="3">
-        <v>1573300</v>
+        <v>1647800</v>
       </c>
       <c r="H35" s="3">
-        <v>815300</v>
+        <v>853900</v>
       </c>
       <c r="I35" s="3">
-        <v>2750500</v>
+        <v>2880700</v>
       </c>
       <c r="J35" s="3">
-        <v>2055100</v>
+        <v>2152400</v>
       </c>
       <c r="K35" s="3">
         <v>2835000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1247700</v>
+        <v>1307600</v>
       </c>
       <c r="E41" s="3">
-        <v>717600</v>
+        <v>752000</v>
       </c>
       <c r="F41" s="3">
-        <v>867900</v>
+        <v>909500</v>
       </c>
       <c r="G41" s="3">
-        <v>284000</v>
+        <v>297600</v>
       </c>
       <c r="H41" s="3">
-        <v>147400</v>
+        <v>154500</v>
       </c>
       <c r="I41" s="3">
-        <v>156100</v>
+        <v>163600</v>
       </c>
       <c r="J41" s="3">
-        <v>197500</v>
+        <v>207000</v>
       </c>
       <c r="K41" s="3">
         <v>362800</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1960200</v>
+        <v>2054200</v>
       </c>
       <c r="E43" s="3">
-        <v>1836700</v>
+        <v>1924800</v>
       </c>
       <c r="F43" s="3">
-        <v>1969600</v>
+        <v>2064100</v>
       </c>
       <c r="G43" s="3">
-        <v>1469200</v>
+        <v>1539700</v>
       </c>
       <c r="H43" s="3">
-        <v>1148200</v>
+        <v>1203300</v>
       </c>
       <c r="I43" s="3">
-        <v>1117700</v>
+        <v>1171300</v>
       </c>
       <c r="J43" s="3">
-        <v>1513500</v>
+        <v>1586100</v>
       </c>
       <c r="K43" s="3">
         <v>1487500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>941200</v>
+        <v>986400</v>
       </c>
       <c r="E44" s="3">
-        <v>942000</v>
+        <v>987100</v>
       </c>
       <c r="F44" s="3">
-        <v>780700</v>
+        <v>818200</v>
       </c>
       <c r="G44" s="3">
-        <v>689200</v>
+        <v>722300</v>
       </c>
       <c r="H44" s="3">
-        <v>864300</v>
+        <v>905700</v>
       </c>
       <c r="I44" s="3">
-        <v>814100</v>
+        <v>853200</v>
       </c>
       <c r="J44" s="3">
-        <v>748100</v>
+        <v>783900</v>
       </c>
       <c r="K44" s="3">
         <v>622600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>447400</v>
+        <v>468800</v>
       </c>
       <c r="E45" s="3">
-        <v>392900</v>
+        <v>411700</v>
       </c>
       <c r="F45" s="3">
-        <v>308700</v>
+        <v>323500</v>
       </c>
       <c r="G45" s="3">
-        <v>339900</v>
+        <v>356200</v>
       </c>
       <c r="H45" s="3">
-        <v>505500</v>
+        <v>529700</v>
       </c>
       <c r="I45" s="3">
-        <v>504000</v>
+        <v>528200</v>
       </c>
       <c r="J45" s="3">
-        <v>654400</v>
+        <v>685700</v>
       </c>
       <c r="K45" s="3">
         <v>607500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4596600</v>
+        <v>4816900</v>
       </c>
       <c r="E46" s="3">
-        <v>3889200</v>
+        <v>4075600</v>
       </c>
       <c r="F46" s="3">
-        <v>3926900</v>
+        <v>4115200</v>
       </c>
       <c r="G46" s="3">
-        <v>2782300</v>
+        <v>2915700</v>
       </c>
       <c r="H46" s="3">
-        <v>2665400</v>
+        <v>2793200</v>
       </c>
       <c r="I46" s="3">
-        <v>2592100</v>
+        <v>2716300</v>
       </c>
       <c r="J46" s="3">
-        <v>3113500</v>
+        <v>3262800</v>
       </c>
       <c r="K46" s="3">
         <v>3080400</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>647100</v>
+        <v>678100</v>
       </c>
       <c r="E47" s="3">
-        <v>622400</v>
+        <v>652300</v>
       </c>
       <c r="F47" s="3">
-        <v>628200</v>
+        <v>658300</v>
       </c>
       <c r="G47" s="3">
-        <v>748100</v>
+        <v>783900</v>
       </c>
       <c r="H47" s="3">
-        <v>1026900</v>
+        <v>1076200</v>
       </c>
       <c r="I47" s="3">
-        <v>1021100</v>
+        <v>1070100</v>
       </c>
       <c r="J47" s="3">
-        <v>967400</v>
+        <v>1013800</v>
       </c>
       <c r="K47" s="3">
         <v>820500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25029400</v>
+        <v>26229400</v>
       </c>
       <c r="E48" s="3">
-        <v>24856600</v>
+        <v>26048300</v>
       </c>
       <c r="F48" s="3">
-        <v>25036700</v>
+        <v>26237100</v>
       </c>
       <c r="G48" s="3">
-        <v>26387600</v>
+        <v>27652700</v>
       </c>
       <c r="H48" s="3">
-        <v>27452300</v>
+        <v>28768400</v>
       </c>
       <c r="I48" s="3">
-        <v>25836300</v>
+        <v>27075000</v>
       </c>
       <c r="J48" s="3">
-        <v>22746800</v>
+        <v>23837300</v>
       </c>
       <c r="K48" s="3">
         <v>18008200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>135100</v>
+        <v>141600</v>
       </c>
       <c r="E49" s="3">
-        <v>135100</v>
+        <v>141600</v>
       </c>
       <c r="F49" s="3">
-        <v>135100</v>
+        <v>141600</v>
       </c>
       <c r="G49" s="3">
-        <v>135100</v>
+        <v>141600</v>
       </c>
       <c r="H49" s="3">
-        <v>162700</v>
+        <v>170500</v>
       </c>
       <c r="I49" s="3">
-        <v>162700</v>
+        <v>170500</v>
       </c>
       <c r="J49" s="3">
-        <v>162700</v>
+        <v>170500</v>
       </c>
       <c r="K49" s="3">
         <v>195700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>231000</v>
+        <v>242000</v>
       </c>
       <c r="E52" s="3">
-        <v>605000</v>
+        <v>634000</v>
       </c>
       <c r="F52" s="3">
-        <v>486600</v>
+        <v>509900</v>
       </c>
       <c r="G52" s="3">
-        <v>199000</v>
+        <v>208500</v>
       </c>
       <c r="H52" s="3">
-        <v>45800</v>
+        <v>47900</v>
       </c>
       <c r="I52" s="3">
-        <v>41400</v>
+        <v>43400</v>
       </c>
       <c r="J52" s="3">
-        <v>39900</v>
+        <v>41900</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30639200</v>
+        <v>32108100</v>
       </c>
       <c r="E54" s="3">
-        <v>30108200</v>
+        <v>31551700</v>
       </c>
       <c r="F54" s="3">
-        <v>30213600</v>
+        <v>31662100</v>
       </c>
       <c r="G54" s="3">
-        <v>30252100</v>
+        <v>31702400</v>
       </c>
       <c r="H54" s="3">
-        <v>31353100</v>
+        <v>32856300</v>
       </c>
       <c r="I54" s="3">
-        <v>29653600</v>
+        <v>31075300</v>
       </c>
       <c r="J54" s="3">
-        <v>27030300</v>
+        <v>28326200</v>
       </c>
       <c r="K54" s="3">
         <v>22104900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2711200</v>
+        <v>2841100</v>
       </c>
       <c r="E57" s="3">
-        <v>2378500</v>
+        <v>2492600</v>
       </c>
       <c r="F57" s="3">
-        <v>2498400</v>
+        <v>2618100</v>
       </c>
       <c r="G57" s="3">
-        <v>2031400</v>
+        <v>2128800</v>
       </c>
       <c r="H57" s="3">
-        <v>1896300</v>
+        <v>1987200</v>
       </c>
       <c r="I57" s="3">
-        <v>2586200</v>
+        <v>2710200</v>
       </c>
       <c r="J57" s="3">
-        <v>3005300</v>
+        <v>3149400</v>
       </c>
       <c r="K57" s="3">
         <v>6800</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>177200</v>
+        <v>185700</v>
       </c>
       <c r="E58" s="3">
-        <v>146700</v>
+        <v>153700</v>
       </c>
       <c r="F58" s="3">
-        <v>146700</v>
+        <v>153700</v>
       </c>
       <c r="G58" s="3">
-        <v>146700</v>
+        <v>153700</v>
       </c>
       <c r="H58" s="3">
-        <v>1417700</v>
+        <v>1485600</v>
       </c>
       <c r="I58" s="3">
-        <v>1436600</v>
+        <v>1505400</v>
       </c>
       <c r="J58" s="3">
-        <v>1338500</v>
+        <v>1402700</v>
       </c>
       <c r="K58" s="3">
         <v>3547100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>448800</v>
+        <v>470400</v>
       </c>
       <c r="E59" s="3">
-        <v>347200</v>
+        <v>363800</v>
       </c>
       <c r="F59" s="3">
-        <v>358800</v>
+        <v>376000</v>
       </c>
       <c r="G59" s="3">
-        <v>642000</v>
+        <v>672800</v>
       </c>
       <c r="H59" s="3">
-        <v>602800</v>
+        <v>631700</v>
       </c>
       <c r="I59" s="3">
-        <v>321000</v>
+        <v>336400</v>
       </c>
       <c r="J59" s="3">
-        <v>804000</v>
+        <v>842500</v>
       </c>
       <c r="K59" s="3">
         <v>891300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3337200</v>
+        <v>3497200</v>
       </c>
       <c r="E60" s="3">
-        <v>2872400</v>
+        <v>3010100</v>
       </c>
       <c r="F60" s="3">
-        <v>3003900</v>
+        <v>3147900</v>
       </c>
       <c r="G60" s="3">
-        <v>2820100</v>
+        <v>2955300</v>
       </c>
       <c r="H60" s="3">
-        <v>3916800</v>
+        <v>4104600</v>
       </c>
       <c r="I60" s="3">
-        <v>4343800</v>
+        <v>4552100</v>
       </c>
       <c r="J60" s="3">
-        <v>5147800</v>
+        <v>5394600</v>
       </c>
       <c r="K60" s="3">
         <v>4445200</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3603000</v>
+        <v>3775800</v>
       </c>
       <c r="E61" s="3">
-        <v>3615400</v>
+        <v>3788700</v>
       </c>
       <c r="F61" s="3">
-        <v>3635000</v>
+        <v>3809300</v>
       </c>
       <c r="G61" s="3">
-        <v>3654600</v>
+        <v>3829800</v>
       </c>
       <c r="H61" s="3">
-        <v>4767200</v>
+        <v>4995800</v>
       </c>
       <c r="I61" s="3">
-        <v>3568200</v>
+        <v>3739200</v>
       </c>
       <c r="J61" s="3">
-        <v>3227500</v>
+        <v>3382300</v>
       </c>
       <c r="K61" s="3">
         <v>884500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6068000</v>
+        <v>6358900</v>
       </c>
       <c r="E62" s="3">
-        <v>5834900</v>
+        <v>6114600</v>
       </c>
       <c r="F62" s="3">
-        <v>5828300</v>
+        <v>6107700</v>
       </c>
       <c r="G62" s="3">
-        <v>5605400</v>
+        <v>5874100</v>
       </c>
       <c r="H62" s="3">
-        <v>5656200</v>
+        <v>5927400</v>
       </c>
       <c r="I62" s="3">
-        <v>5378800</v>
+        <v>5636600</v>
       </c>
       <c r="J62" s="3">
-        <v>4475300</v>
+        <v>4689800</v>
       </c>
       <c r="K62" s="3">
         <v>4446700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13008200</v>
+        <v>13631900</v>
       </c>
       <c r="E66" s="3">
-        <v>12322600</v>
+        <v>12913400</v>
       </c>
       <c r="F66" s="3">
-        <v>12467200</v>
+        <v>13064900</v>
       </c>
       <c r="G66" s="3">
-        <v>12080000</v>
+        <v>12659200</v>
       </c>
       <c r="H66" s="3">
-        <v>14340200</v>
+        <v>15027700</v>
       </c>
       <c r="I66" s="3">
-        <v>13290700</v>
+        <v>13927900</v>
       </c>
       <c r="J66" s="3">
-        <v>12850600</v>
+        <v>13466700</v>
       </c>
       <c r="K66" s="3">
         <v>9776500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18020200</v>
+        <v>18884200</v>
       </c>
       <c r="E72" s="3">
-        <v>17837200</v>
+        <v>18692400</v>
       </c>
       <c r="F72" s="3">
-        <v>17949000</v>
+        <v>18809600</v>
       </c>
       <c r="G72" s="3">
-        <v>18412400</v>
+        <v>19295200</v>
       </c>
       <c r="H72" s="3">
-        <v>17203200</v>
+        <v>18027900</v>
       </c>
       <c r="I72" s="3">
-        <v>16720900</v>
+        <v>17522600</v>
       </c>
       <c r="J72" s="3">
-        <v>14292300</v>
+        <v>14977500</v>
       </c>
       <c r="K72" s="3">
         <v>12997700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17630900</v>
+        <v>18476200</v>
       </c>
       <c r="E76" s="3">
-        <v>17785600</v>
+        <v>18638300</v>
       </c>
       <c r="F76" s="3">
-        <v>17746400</v>
+        <v>18597200</v>
       </c>
       <c r="G76" s="3">
-        <v>18172000</v>
+        <v>19043200</v>
       </c>
       <c r="H76" s="3">
-        <v>17012900</v>
+        <v>17828500</v>
       </c>
       <c r="I76" s="3">
-        <v>16362900</v>
+        <v>17147400</v>
       </c>
       <c r="J76" s="3">
-        <v>14179700</v>
+        <v>14859500</v>
       </c>
       <c r="K76" s="3">
         <v>12328400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1598700</v>
+        <v>1674400</v>
       </c>
       <c r="E81" s="3">
-        <v>1681600</v>
+        <v>1761200</v>
       </c>
       <c r="F81" s="3">
-        <v>356100</v>
+        <v>372900</v>
       </c>
       <c r="G81" s="3">
-        <v>1573300</v>
+        <v>1647800</v>
       </c>
       <c r="H81" s="3">
-        <v>815300</v>
+        <v>853900</v>
       </c>
       <c r="I81" s="3">
-        <v>2750500</v>
+        <v>2880700</v>
       </c>
       <c r="J81" s="3">
-        <v>2055100</v>
+        <v>2152400</v>
       </c>
       <c r="K81" s="3">
         <v>2835000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1161300</v>
+        <v>1216200</v>
       </c>
       <c r="E83" s="3">
-        <v>1096600</v>
+        <v>1148500</v>
       </c>
       <c r="F83" s="3">
-        <v>1578400</v>
+        <v>1653100</v>
       </c>
       <c r="G83" s="3">
-        <v>1183100</v>
+        <v>1239100</v>
       </c>
       <c r="H83" s="3">
-        <v>1053700</v>
+        <v>1103600</v>
       </c>
       <c r="I83" s="3">
-        <v>796500</v>
+        <v>834200</v>
       </c>
       <c r="J83" s="3">
-        <v>806600</v>
+        <v>844800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>17</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3218500</v>
+        <v>3370900</v>
       </c>
       <c r="E89" s="3">
-        <v>2850100</v>
+        <v>2985000</v>
       </c>
       <c r="F89" s="3">
-        <v>2007800</v>
+        <v>2102900</v>
       </c>
       <c r="G89" s="3">
-        <v>1464300</v>
+        <v>1533600</v>
       </c>
       <c r="H89" s="3">
-        <v>1574700</v>
+        <v>1649300</v>
       </c>
       <c r="I89" s="3">
-        <v>3201100</v>
+        <v>3352600</v>
       </c>
       <c r="J89" s="3">
-        <v>2392300</v>
+        <v>2505500</v>
       </c>
       <c r="K89" s="3">
         <v>3523100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1188900</v>
+        <v>-1245100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1083500</v>
+        <v>-1134800</v>
       </c>
       <c r="F91" s="3">
-        <v>-721600</v>
+        <v>-755800</v>
       </c>
       <c r="G91" s="3">
-        <v>-779700</v>
+        <v>-816600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2175700</v>
+        <v>-2278700</v>
       </c>
       <c r="I91" s="3">
-        <v>-3844200</v>
+        <v>-4026200</v>
       </c>
       <c r="J91" s="3">
-        <v>-4576000</v>
+        <v>-4792600</v>
       </c>
       <c r="K91" s="3">
         <v>-4123800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1238300</v>
+        <v>-1296900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1132900</v>
+        <v>-1186500</v>
       </c>
       <c r="F94" s="3">
-        <v>-567500</v>
+        <v>-594400</v>
       </c>
       <c r="G94" s="3">
-        <v>1414900</v>
+        <v>1481800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2095800</v>
+        <v>-2195000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3315200</v>
+        <v>-3472100</v>
       </c>
       <c r="J94" s="3">
-        <v>-5620900</v>
+        <v>-5887000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>17</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-458500</v>
+        <v>-480200</v>
       </c>
       <c r="E96" s="3">
-        <v>-415700</v>
+        <v>-435300</v>
       </c>
       <c r="F96" s="3">
-        <v>-380800</v>
+        <v>-398800</v>
       </c>
       <c r="G96" s="3">
-        <v>-357500</v>
+        <v>-374500</v>
       </c>
       <c r="H96" s="3">
-        <v>-326300</v>
+        <v>-341700</v>
       </c>
       <c r="I96" s="3">
-        <v>-320500</v>
+        <v>-335600</v>
       </c>
       <c r="J96" s="3">
-        <v>-295800</v>
+        <v>-309800</v>
       </c>
       <c r="K96" s="3">
         <v>-299600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1449700</v>
+        <v>-1518400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1867600</v>
+        <v>-1956000</v>
       </c>
       <c r="F100" s="3">
-        <v>-856000</v>
+        <v>-896600</v>
       </c>
       <c r="G100" s="3">
-        <v>-2742500</v>
+        <v>-2872400</v>
       </c>
       <c r="H100" s="3">
-        <v>512300</v>
+        <v>536600</v>
       </c>
       <c r="I100" s="3">
-        <v>72700</v>
+        <v>76100</v>
       </c>
       <c r="J100" s="3">
-        <v>3076100</v>
+        <v>3221700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>17</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>530500</v>
+        <v>555600</v>
       </c>
       <c r="E102" s="3">
-        <v>-150400</v>
+        <v>-157500</v>
       </c>
       <c r="F102" s="3">
-        <v>584300</v>
+        <v>611900</v>
       </c>
       <c r="G102" s="3">
-        <v>136600</v>
+        <v>143100</v>
       </c>
       <c r="H102" s="3">
-        <v>-8700</v>
+        <v>-9100</v>
       </c>
       <c r="I102" s="3">
-        <v>-41400</v>
+        <v>-43400</v>
       </c>
       <c r="J102" s="3">
-        <v>-152600</v>
+        <v>-159800</v>
       </c>
       <c r="K102" s="3">
         <v>-542000</v>

--- a/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25878600</v>
+        <v>26175400</v>
       </c>
       <c r="E8" s="3">
-        <v>26610800</v>
+        <v>26916000</v>
       </c>
       <c r="F8" s="3">
-        <v>22166700</v>
+        <v>22421000</v>
       </c>
       <c r="G8" s="3">
-        <v>19064500</v>
+        <v>19283200</v>
       </c>
       <c r="H8" s="3">
-        <v>20363700</v>
+        <v>20597300</v>
       </c>
       <c r="I8" s="3">
-        <v>27734100</v>
+        <v>28052200</v>
       </c>
       <c r="J8" s="3">
-        <v>24970600</v>
+        <v>25257000</v>
       </c>
       <c r="K8" s="3">
         <v>23478000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20904100</v>
+        <v>21143900</v>
       </c>
       <c r="E9" s="3">
-        <v>21053300</v>
+        <v>21294800</v>
       </c>
       <c r="F9" s="3">
-        <v>18146700</v>
+        <v>18354800</v>
       </c>
       <c r="G9" s="3">
-        <v>15483600</v>
+        <v>15661200</v>
       </c>
       <c r="H9" s="3">
-        <v>15768300</v>
+        <v>15949100</v>
       </c>
       <c r="I9" s="3">
-        <v>21417800</v>
+        <v>21663500</v>
       </c>
       <c r="J9" s="3">
-        <v>19364400</v>
+        <v>19586500</v>
       </c>
       <c r="K9" s="3">
         <v>17263700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4974500</v>
+        <v>5031500</v>
       </c>
       <c r="E10" s="3">
-        <v>5557500</v>
+        <v>5621200</v>
       </c>
       <c r="F10" s="3">
-        <v>4020100</v>
+        <v>4066200</v>
       </c>
       <c r="G10" s="3">
-        <v>3580900</v>
+        <v>3622000</v>
       </c>
       <c r="H10" s="3">
-        <v>4595500</v>
+        <v>4648200</v>
       </c>
       <c r="I10" s="3">
-        <v>6316300</v>
+        <v>6388700</v>
       </c>
       <c r="J10" s="3">
-        <v>5606200</v>
+        <v>5670500</v>
       </c>
       <c r="K10" s="3">
         <v>6214300</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>35800</v>
+        <v>36200</v>
       </c>
       <c r="E12" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="F12" s="3">
-        <v>139300</v>
+        <v>140900</v>
       </c>
       <c r="G12" s="3">
-        <v>71500</v>
+        <v>72400</v>
       </c>
       <c r="H12" s="3">
-        <v>55600</v>
+        <v>56200</v>
       </c>
       <c r="I12" s="3">
-        <v>51000</v>
+        <v>51600</v>
       </c>
       <c r="J12" s="3">
-        <v>93600</v>
+        <v>94700</v>
       </c>
       <c r="K12" s="3">
         <v>62500</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1216200</v>
+        <v>1230200</v>
       </c>
       <c r="E15" s="3">
-        <v>1183500</v>
+        <v>1197100</v>
       </c>
       <c r="F15" s="3">
-        <v>1653100</v>
+        <v>1672000</v>
       </c>
       <c r="G15" s="3">
-        <v>1239100</v>
+        <v>1253300</v>
       </c>
       <c r="H15" s="3">
-        <v>1103600</v>
+        <v>1116200</v>
       </c>
       <c r="I15" s="3">
-        <v>834200</v>
+        <v>843700</v>
       </c>
       <c r="J15" s="3">
-        <v>844800</v>
+        <v>854500</v>
       </c>
       <c r="K15" s="3">
         <v>572900</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>24326000</v>
+        <v>24605000</v>
       </c>
       <c r="E17" s="3">
-        <v>24292500</v>
+        <v>24571100</v>
       </c>
       <c r="F17" s="3">
-        <v>21892000</v>
+        <v>22143100</v>
       </c>
       <c r="G17" s="3">
-        <v>18909300</v>
+        <v>19126200</v>
       </c>
       <c r="H17" s="3">
-        <v>18970900</v>
+        <v>19188500</v>
       </c>
       <c r="I17" s="3">
-        <v>24310000</v>
+        <v>24588800</v>
       </c>
       <c r="J17" s="3">
-        <v>22126400</v>
+        <v>22380200</v>
       </c>
       <c r="K17" s="3">
         <v>19720100</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1552600</v>
+        <v>1570400</v>
       </c>
       <c r="E18" s="3">
-        <v>2318300</v>
+        <v>2344900</v>
       </c>
       <c r="F18" s="3">
-        <v>274800</v>
+        <v>277900</v>
       </c>
       <c r="G18" s="3">
-        <v>155300</v>
+        <v>157000</v>
       </c>
       <c r="H18" s="3">
-        <v>1392800</v>
+        <v>1408800</v>
       </c>
       <c r="I18" s="3">
-        <v>3424100</v>
+        <v>3463400</v>
       </c>
       <c r="J18" s="3">
-        <v>2844200</v>
+        <v>2876800</v>
       </c>
       <c r="K18" s="3">
         <v>3757900</v>
@@ -1056,22 +1056,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>73100</v>
+        <v>73900</v>
       </c>
       <c r="E20" s="3">
-        <v>100500</v>
+        <v>101600</v>
       </c>
       <c r="F20" s="3">
-        <v>217700</v>
+        <v>220200</v>
       </c>
       <c r="G20" s="3">
-        <v>1759600</v>
+        <v>1779800</v>
       </c>
       <c r="H20" s="3">
-        <v>96700</v>
+        <v>97800</v>
       </c>
       <c r="I20" s="3">
-        <v>397300</v>
+        <v>401800</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2839200</v>
+        <v>2872300</v>
       </c>
       <c r="E21" s="3">
-        <v>3564700</v>
+        <v>3606100</v>
       </c>
       <c r="F21" s="3">
-        <v>2141900</v>
+        <v>2167200</v>
       </c>
       <c r="G21" s="3">
-        <v>3151200</v>
+        <v>3187900</v>
       </c>
       <c r="H21" s="3">
-        <v>2590600</v>
+        <v>2620800</v>
       </c>
       <c r="I21" s="3">
-        <v>4653800</v>
+        <v>4707500</v>
       </c>
       <c r="J21" s="3">
-        <v>3687100</v>
+        <v>3729800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>17</v>
@@ -1122,19 +1122,19 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>68500</v>
+        <v>69300</v>
       </c>
       <c r="E22" s="3">
-        <v>79900</v>
+        <v>80800</v>
       </c>
       <c r="F22" s="3">
-        <v>49500</v>
+        <v>50000</v>
       </c>
       <c r="G22" s="3">
-        <v>54800</v>
+        <v>55400</v>
       </c>
       <c r="H22" s="3">
-        <v>25900</v>
+        <v>26200</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1557200</v>
+        <v>1575100</v>
       </c>
       <c r="E23" s="3">
-        <v>2338800</v>
+        <v>2365700</v>
       </c>
       <c r="F23" s="3">
-        <v>443000</v>
+        <v>448000</v>
       </c>
       <c r="G23" s="3">
-        <v>1860100</v>
+        <v>1881400</v>
       </c>
       <c r="H23" s="3">
-        <v>1463600</v>
+        <v>1480400</v>
       </c>
       <c r="I23" s="3">
-        <v>3821400</v>
+        <v>3865300</v>
       </c>
       <c r="J23" s="3">
-        <v>2844200</v>
+        <v>2876800</v>
       </c>
       <c r="K23" s="3">
         <v>3758700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-117200</v>
+        <v>-118600</v>
       </c>
       <c r="E24" s="3">
-        <v>577700</v>
+        <v>584300</v>
       </c>
       <c r="F24" s="3">
-        <v>70000</v>
+        <v>70800</v>
       </c>
       <c r="G24" s="3">
-        <v>212300</v>
+        <v>214800</v>
       </c>
       <c r="H24" s="3">
-        <v>609600</v>
+        <v>616600</v>
       </c>
       <c r="I24" s="3">
-        <v>940700</v>
+        <v>951500</v>
       </c>
       <c r="J24" s="3">
-        <v>691800</v>
+        <v>699800</v>
       </c>
       <c r="K24" s="3">
         <v>923700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1674400</v>
+        <v>1693600</v>
       </c>
       <c r="E26" s="3">
-        <v>1761200</v>
+        <v>1781400</v>
       </c>
       <c r="F26" s="3">
-        <v>372900</v>
+        <v>377200</v>
       </c>
       <c r="G26" s="3">
-        <v>1647800</v>
+        <v>1666700</v>
       </c>
       <c r="H26" s="3">
-        <v>853900</v>
+        <v>863700</v>
       </c>
       <c r="I26" s="3">
-        <v>2880700</v>
+        <v>2913800</v>
       </c>
       <c r="J26" s="3">
-        <v>2152400</v>
+        <v>2177100</v>
       </c>
       <c r="K26" s="3">
         <v>2835000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1674400</v>
+        <v>1693600</v>
       </c>
       <c r="E27" s="3">
-        <v>1761200</v>
+        <v>1781400</v>
       </c>
       <c r="F27" s="3">
-        <v>372900</v>
+        <v>377200</v>
       </c>
       <c r="G27" s="3">
-        <v>1647800</v>
+        <v>1666700</v>
       </c>
       <c r="H27" s="3">
-        <v>853900</v>
+        <v>863700</v>
       </c>
       <c r="I27" s="3">
-        <v>2880700</v>
+        <v>2913800</v>
       </c>
       <c r="J27" s="3">
-        <v>2152400</v>
+        <v>2177100</v>
       </c>
       <c r="K27" s="3">
         <v>2835000</v>
@@ -1452,22 +1452,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-73100</v>
+        <v>-73900</v>
       </c>
       <c r="E32" s="3">
-        <v>-100500</v>
+        <v>-101600</v>
       </c>
       <c r="F32" s="3">
-        <v>-217700</v>
+        <v>-220200</v>
       </c>
       <c r="G32" s="3">
-        <v>-1759600</v>
+        <v>-1779800</v>
       </c>
       <c r="H32" s="3">
-        <v>-96700</v>
+        <v>-97800</v>
       </c>
       <c r="I32" s="3">
-        <v>-397300</v>
+        <v>-401800</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1674400</v>
+        <v>1693600</v>
       </c>
       <c r="E33" s="3">
-        <v>1761200</v>
+        <v>1781400</v>
       </c>
       <c r="F33" s="3">
-        <v>372900</v>
+        <v>377200</v>
       </c>
       <c r="G33" s="3">
-        <v>1647800</v>
+        <v>1666700</v>
       </c>
       <c r="H33" s="3">
-        <v>853900</v>
+        <v>863700</v>
       </c>
       <c r="I33" s="3">
-        <v>2880700</v>
+        <v>2913800</v>
       </c>
       <c r="J33" s="3">
-        <v>2152400</v>
+        <v>2177100</v>
       </c>
       <c r="K33" s="3">
         <v>2835000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1674400</v>
+        <v>1693600</v>
       </c>
       <c r="E35" s="3">
-        <v>1761200</v>
+        <v>1781400</v>
       </c>
       <c r="F35" s="3">
-        <v>372900</v>
+        <v>377200</v>
       </c>
       <c r="G35" s="3">
-        <v>1647800</v>
+        <v>1666700</v>
       </c>
       <c r="H35" s="3">
-        <v>853900</v>
+        <v>863700</v>
       </c>
       <c r="I35" s="3">
-        <v>2880700</v>
+        <v>2913800</v>
       </c>
       <c r="J35" s="3">
-        <v>2152400</v>
+        <v>2177100</v>
       </c>
       <c r="K35" s="3">
         <v>2835000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1307600</v>
+        <v>1322600</v>
       </c>
       <c r="E41" s="3">
-        <v>752000</v>
+        <v>760600</v>
       </c>
       <c r="F41" s="3">
-        <v>909500</v>
+        <v>919900</v>
       </c>
       <c r="G41" s="3">
-        <v>297600</v>
+        <v>301000</v>
       </c>
       <c r="H41" s="3">
-        <v>154500</v>
+        <v>156300</v>
       </c>
       <c r="I41" s="3">
-        <v>163600</v>
+        <v>165500</v>
       </c>
       <c r="J41" s="3">
-        <v>207000</v>
+        <v>209400</v>
       </c>
       <c r="K41" s="3">
         <v>362800</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2054200</v>
+        <v>2077700</v>
       </c>
       <c r="E43" s="3">
-        <v>1924800</v>
+        <v>1946900</v>
       </c>
       <c r="F43" s="3">
-        <v>2064100</v>
+        <v>2087800</v>
       </c>
       <c r="G43" s="3">
-        <v>1539700</v>
+        <v>1557300</v>
       </c>
       <c r="H43" s="3">
-        <v>1203300</v>
+        <v>1217100</v>
       </c>
       <c r="I43" s="3">
-        <v>1171300</v>
+        <v>1184800</v>
       </c>
       <c r="J43" s="3">
-        <v>1586100</v>
+        <v>1604300</v>
       </c>
       <c r="K43" s="3">
         <v>1487500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>986400</v>
+        <v>997700</v>
       </c>
       <c r="E44" s="3">
-        <v>987100</v>
+        <v>998500</v>
       </c>
       <c r="F44" s="3">
-        <v>818200</v>
+        <v>827600</v>
       </c>
       <c r="G44" s="3">
-        <v>722300</v>
+        <v>730600</v>
       </c>
       <c r="H44" s="3">
-        <v>905700</v>
+        <v>916100</v>
       </c>
       <c r="I44" s="3">
-        <v>853200</v>
+        <v>863000</v>
       </c>
       <c r="J44" s="3">
-        <v>783900</v>
+        <v>792900</v>
       </c>
       <c r="K44" s="3">
         <v>622600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>468800</v>
+        <v>474200</v>
       </c>
       <c r="E45" s="3">
-        <v>411700</v>
+        <v>416500</v>
       </c>
       <c r="F45" s="3">
-        <v>323500</v>
+        <v>327200</v>
       </c>
       <c r="G45" s="3">
-        <v>356200</v>
+        <v>360300</v>
       </c>
       <c r="H45" s="3">
-        <v>529700</v>
+        <v>535800</v>
       </c>
       <c r="I45" s="3">
-        <v>528200</v>
+        <v>534300</v>
       </c>
       <c r="J45" s="3">
-        <v>685700</v>
+        <v>693600</v>
       </c>
       <c r="K45" s="3">
         <v>607500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4816900</v>
+        <v>4872200</v>
       </c>
       <c r="E46" s="3">
-        <v>4075600</v>
+        <v>4122400</v>
       </c>
       <c r="F46" s="3">
-        <v>4115200</v>
+        <v>4162400</v>
       </c>
       <c r="G46" s="3">
-        <v>2915700</v>
+        <v>2949200</v>
       </c>
       <c r="H46" s="3">
-        <v>2793200</v>
+        <v>2825200</v>
       </c>
       <c r="I46" s="3">
-        <v>2716300</v>
+        <v>2747500</v>
       </c>
       <c r="J46" s="3">
-        <v>3262800</v>
+        <v>3300200</v>
       </c>
       <c r="K46" s="3">
         <v>3080400</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>678100</v>
+        <v>685900</v>
       </c>
       <c r="E47" s="3">
-        <v>652300</v>
+        <v>659700</v>
       </c>
       <c r="F47" s="3">
-        <v>658300</v>
+        <v>665900</v>
       </c>
       <c r="G47" s="3">
-        <v>783900</v>
+        <v>792900</v>
       </c>
       <c r="H47" s="3">
-        <v>1076200</v>
+        <v>1088500</v>
       </c>
       <c r="I47" s="3">
-        <v>1070100</v>
+        <v>1082400</v>
       </c>
       <c r="J47" s="3">
-        <v>1013800</v>
+        <v>1025400</v>
       </c>
       <c r="K47" s="3">
         <v>820500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26229400</v>
+        <v>26530300</v>
       </c>
       <c r="E48" s="3">
-        <v>26048300</v>
+        <v>26347100</v>
       </c>
       <c r="F48" s="3">
-        <v>26237100</v>
+        <v>26538000</v>
       </c>
       <c r="G48" s="3">
-        <v>27652700</v>
+        <v>27969900</v>
       </c>
       <c r="H48" s="3">
-        <v>28768400</v>
+        <v>29098400</v>
       </c>
       <c r="I48" s="3">
-        <v>27075000</v>
+        <v>27385600</v>
       </c>
       <c r="J48" s="3">
-        <v>23837300</v>
+        <v>24110800</v>
       </c>
       <c r="K48" s="3">
         <v>18008200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>141600</v>
+        <v>143200</v>
       </c>
       <c r="E49" s="3">
-        <v>141600</v>
+        <v>143200</v>
       </c>
       <c r="F49" s="3">
-        <v>141600</v>
+        <v>143200</v>
       </c>
       <c r="G49" s="3">
-        <v>141600</v>
+        <v>143200</v>
       </c>
       <c r="H49" s="3">
-        <v>170500</v>
+        <v>172400</v>
       </c>
       <c r="I49" s="3">
-        <v>170500</v>
+        <v>172400</v>
       </c>
       <c r="J49" s="3">
-        <v>170500</v>
+        <v>172400</v>
       </c>
       <c r="K49" s="3">
         <v>195700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>242000</v>
+        <v>244800</v>
       </c>
       <c r="E52" s="3">
-        <v>634000</v>
+        <v>641300</v>
       </c>
       <c r="F52" s="3">
-        <v>509900</v>
+        <v>515800</v>
       </c>
       <c r="G52" s="3">
-        <v>208500</v>
+        <v>210900</v>
       </c>
       <c r="H52" s="3">
-        <v>47900</v>
+        <v>48500</v>
       </c>
       <c r="I52" s="3">
-        <v>43400</v>
+        <v>43900</v>
       </c>
       <c r="J52" s="3">
-        <v>41900</v>
+        <v>42300</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32108100</v>
+        <v>32476400</v>
       </c>
       <c r="E54" s="3">
-        <v>31551700</v>
+        <v>31913700</v>
       </c>
       <c r="F54" s="3">
-        <v>31662100</v>
+        <v>32025300</v>
       </c>
       <c r="G54" s="3">
-        <v>31702400</v>
+        <v>32066100</v>
       </c>
       <c r="H54" s="3">
-        <v>32856300</v>
+        <v>33233100</v>
       </c>
       <c r="I54" s="3">
-        <v>31075300</v>
+        <v>31431800</v>
       </c>
       <c r="J54" s="3">
-        <v>28326200</v>
+        <v>28651200</v>
       </c>
       <c r="K54" s="3">
         <v>22104900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2841100</v>
+        <v>2873700</v>
       </c>
       <c r="E57" s="3">
-        <v>2492600</v>
+        <v>2521200</v>
       </c>
       <c r="F57" s="3">
-        <v>2618100</v>
+        <v>2648200</v>
       </c>
       <c r="G57" s="3">
-        <v>2128800</v>
+        <v>2153200</v>
       </c>
       <c r="H57" s="3">
-        <v>1987200</v>
+        <v>2010000</v>
       </c>
       <c r="I57" s="3">
-        <v>2710200</v>
+        <v>2741300</v>
       </c>
       <c r="J57" s="3">
-        <v>3149400</v>
+        <v>3185500</v>
       </c>
       <c r="K57" s="3">
         <v>6800</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>185700</v>
+        <v>187800</v>
       </c>
       <c r="E58" s="3">
-        <v>153700</v>
+        <v>155500</v>
       </c>
       <c r="F58" s="3">
-        <v>153700</v>
+        <v>155500</v>
       </c>
       <c r="G58" s="3">
-        <v>153700</v>
+        <v>155500</v>
       </c>
       <c r="H58" s="3">
-        <v>1485600</v>
+        <v>1502700</v>
       </c>
       <c r="I58" s="3">
-        <v>1505400</v>
+        <v>1522700</v>
       </c>
       <c r="J58" s="3">
-        <v>1402700</v>
+        <v>1418800</v>
       </c>
       <c r="K58" s="3">
         <v>3547100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>470400</v>
+        <v>475700</v>
       </c>
       <c r="E59" s="3">
-        <v>363800</v>
+        <v>368000</v>
       </c>
       <c r="F59" s="3">
-        <v>376000</v>
+        <v>380300</v>
       </c>
       <c r="G59" s="3">
-        <v>672800</v>
+        <v>680500</v>
       </c>
       <c r="H59" s="3">
-        <v>631700</v>
+        <v>639000</v>
       </c>
       <c r="I59" s="3">
-        <v>336400</v>
+        <v>340300</v>
       </c>
       <c r="J59" s="3">
-        <v>842500</v>
+        <v>852200</v>
       </c>
       <c r="K59" s="3">
         <v>891300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3497200</v>
+        <v>3537300</v>
       </c>
       <c r="E60" s="3">
-        <v>3010100</v>
+        <v>3044600</v>
       </c>
       <c r="F60" s="3">
-        <v>3147900</v>
+        <v>3184000</v>
       </c>
       <c r="G60" s="3">
-        <v>2955300</v>
+        <v>2989200</v>
       </c>
       <c r="H60" s="3">
-        <v>4104600</v>
+        <v>4151600</v>
       </c>
       <c r="I60" s="3">
-        <v>4552100</v>
+        <v>4604300</v>
       </c>
       <c r="J60" s="3">
-        <v>5394600</v>
+        <v>5456500</v>
       </c>
       <c r="K60" s="3">
         <v>4445200</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3775800</v>
+        <v>3819100</v>
       </c>
       <c r="E61" s="3">
-        <v>3788700</v>
+        <v>3832200</v>
       </c>
       <c r="F61" s="3">
-        <v>3809300</v>
+        <v>3852900</v>
       </c>
       <c r="G61" s="3">
-        <v>3829800</v>
+        <v>3873700</v>
       </c>
       <c r="H61" s="3">
-        <v>4995800</v>
+        <v>5053100</v>
       </c>
       <c r="I61" s="3">
-        <v>3739200</v>
+        <v>3782100</v>
       </c>
       <c r="J61" s="3">
-        <v>3382300</v>
+        <v>3421100</v>
       </c>
       <c r="K61" s="3">
         <v>884500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6358900</v>
+        <v>6431800</v>
       </c>
       <c r="E62" s="3">
-        <v>6114600</v>
+        <v>6184700</v>
       </c>
       <c r="F62" s="3">
-        <v>6107700</v>
+        <v>6177800</v>
       </c>
       <c r="G62" s="3">
-        <v>5874100</v>
+        <v>5941500</v>
       </c>
       <c r="H62" s="3">
-        <v>5927400</v>
+        <v>5995400</v>
       </c>
       <c r="I62" s="3">
-        <v>5636600</v>
+        <v>5701300</v>
       </c>
       <c r="J62" s="3">
-        <v>4689800</v>
+        <v>4743600</v>
       </c>
       <c r="K62" s="3">
         <v>4446700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13631900</v>
+        <v>13788200</v>
       </c>
       <c r="E66" s="3">
-        <v>12913400</v>
+        <v>13061500</v>
       </c>
       <c r="F66" s="3">
-        <v>13064900</v>
+        <v>13214700</v>
       </c>
       <c r="G66" s="3">
-        <v>12659200</v>
+        <v>12804400</v>
       </c>
       <c r="H66" s="3">
-        <v>15027700</v>
+        <v>15200100</v>
       </c>
       <c r="I66" s="3">
-        <v>13927900</v>
+        <v>14087700</v>
       </c>
       <c r="J66" s="3">
-        <v>13466700</v>
+        <v>13621200</v>
       </c>
       <c r="K66" s="3">
         <v>9776500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18884200</v>
+        <v>19100800</v>
       </c>
       <c r="E72" s="3">
-        <v>18692400</v>
+        <v>18906800</v>
       </c>
       <c r="F72" s="3">
-        <v>18809600</v>
+        <v>19025300</v>
       </c>
       <c r="G72" s="3">
-        <v>19295200</v>
+        <v>19516500</v>
       </c>
       <c r="H72" s="3">
-        <v>18027900</v>
+        <v>18234700</v>
       </c>
       <c r="I72" s="3">
-        <v>17522600</v>
+        <v>17723600</v>
       </c>
       <c r="J72" s="3">
-        <v>14977500</v>
+        <v>15149300</v>
       </c>
       <c r="K72" s="3">
         <v>12997700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18476200</v>
+        <v>18688200</v>
       </c>
       <c r="E76" s="3">
-        <v>18638300</v>
+        <v>18852100</v>
       </c>
       <c r="F76" s="3">
-        <v>18597200</v>
+        <v>18810600</v>
       </c>
       <c r="G76" s="3">
-        <v>19043200</v>
+        <v>19261700</v>
       </c>
       <c r="H76" s="3">
-        <v>17828500</v>
+        <v>18033000</v>
       </c>
       <c r="I76" s="3">
-        <v>17147400</v>
+        <v>17344000</v>
       </c>
       <c r="J76" s="3">
-        <v>14859500</v>
+        <v>15030000</v>
       </c>
       <c r="K76" s="3">
         <v>12328400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1674400</v>
+        <v>1693600</v>
       </c>
       <c r="E81" s="3">
-        <v>1761200</v>
+        <v>1781400</v>
       </c>
       <c r="F81" s="3">
-        <v>372900</v>
+        <v>377200</v>
       </c>
       <c r="G81" s="3">
-        <v>1647800</v>
+        <v>1666700</v>
       </c>
       <c r="H81" s="3">
-        <v>853900</v>
+        <v>863700</v>
       </c>
       <c r="I81" s="3">
-        <v>2880700</v>
+        <v>2913800</v>
       </c>
       <c r="J81" s="3">
-        <v>2152400</v>
+        <v>2177100</v>
       </c>
       <c r="K81" s="3">
         <v>2835000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1216200</v>
+        <v>1230200</v>
       </c>
       <c r="E83" s="3">
-        <v>1148500</v>
+        <v>1161700</v>
       </c>
       <c r="F83" s="3">
-        <v>1653100</v>
+        <v>1672000</v>
       </c>
       <c r="G83" s="3">
-        <v>1239100</v>
+        <v>1253300</v>
       </c>
       <c r="H83" s="3">
-        <v>1103600</v>
+        <v>1116200</v>
       </c>
       <c r="I83" s="3">
-        <v>834200</v>
+        <v>843700</v>
       </c>
       <c r="J83" s="3">
-        <v>844800</v>
+        <v>854500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>17</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3370900</v>
+        <v>3409500</v>
       </c>
       <c r="E89" s="3">
-        <v>2985000</v>
+        <v>3019200</v>
       </c>
       <c r="F89" s="3">
-        <v>2102900</v>
+        <v>2127000</v>
       </c>
       <c r="G89" s="3">
-        <v>1533600</v>
+        <v>1551200</v>
       </c>
       <c r="H89" s="3">
-        <v>1649300</v>
+        <v>1668200</v>
       </c>
       <c r="I89" s="3">
-        <v>3352600</v>
+        <v>3391100</v>
       </c>
       <c r="J89" s="3">
-        <v>2505500</v>
+        <v>2534200</v>
       </c>
       <c r="K89" s="3">
         <v>3523100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1245100</v>
+        <v>-1259400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1134800</v>
+        <v>-1147800</v>
       </c>
       <c r="F91" s="3">
-        <v>-755800</v>
+        <v>-764400</v>
       </c>
       <c r="G91" s="3">
-        <v>-816600</v>
+        <v>-826000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2278700</v>
+        <v>-2304800</v>
       </c>
       <c r="I91" s="3">
-        <v>-4026200</v>
+        <v>-4072300</v>
       </c>
       <c r="J91" s="3">
-        <v>-4792600</v>
+        <v>-4847600</v>
       </c>
       <c r="K91" s="3">
         <v>-4123800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1296900</v>
+        <v>-1311800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1186500</v>
+        <v>-1200100</v>
       </c>
       <c r="F94" s="3">
-        <v>-594400</v>
+        <v>-601200</v>
       </c>
       <c r="G94" s="3">
-        <v>1481800</v>
+        <v>1498800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2195000</v>
+        <v>-2220200</v>
       </c>
       <c r="I94" s="3">
-        <v>-3472100</v>
+        <v>-3511900</v>
       </c>
       <c r="J94" s="3">
-        <v>-5887000</v>
+        <v>-5954600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>17</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-480200</v>
+        <v>-485800</v>
       </c>
       <c r="E96" s="3">
-        <v>-435300</v>
+        <v>-440300</v>
       </c>
       <c r="F96" s="3">
-        <v>-398800</v>
+        <v>-403400</v>
       </c>
       <c r="G96" s="3">
-        <v>-374500</v>
+        <v>-378800</v>
       </c>
       <c r="H96" s="3">
-        <v>-341700</v>
+        <v>-345600</v>
       </c>
       <c r="I96" s="3">
-        <v>-335600</v>
+        <v>-339500</v>
       </c>
       <c r="J96" s="3">
-        <v>-309800</v>
+        <v>-313300</v>
       </c>
       <c r="K96" s="3">
         <v>-299600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1518400</v>
+        <v>-1535800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1956000</v>
+        <v>-1978400</v>
       </c>
       <c r="F100" s="3">
-        <v>-896600</v>
+        <v>-906800</v>
       </c>
       <c r="G100" s="3">
-        <v>-2872400</v>
+        <v>-2905300</v>
       </c>
       <c r="H100" s="3">
-        <v>536600</v>
+        <v>542700</v>
       </c>
       <c r="I100" s="3">
-        <v>76100</v>
+        <v>77000</v>
       </c>
       <c r="J100" s="3">
-        <v>3221700</v>
+        <v>3258600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>17</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>555600</v>
+        <v>562000</v>
       </c>
       <c r="E102" s="3">
-        <v>-157500</v>
+        <v>-159400</v>
       </c>
       <c r="F102" s="3">
-        <v>611900</v>
+        <v>618900</v>
       </c>
       <c r="G102" s="3">
-        <v>143100</v>
+        <v>144700</v>
       </c>
       <c r="H102" s="3">
-        <v>-9100</v>
+        <v>-9200</v>
       </c>
       <c r="I102" s="3">
-        <v>-43400</v>
+        <v>-43900</v>
       </c>
       <c r="J102" s="3">
-        <v>-159800</v>
+        <v>-161700</v>
       </c>
       <c r="K102" s="3">
         <v>-542000</v>

--- a/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>IMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26175400</v>
+        <v>17671700</v>
       </c>
       <c r="E8" s="3">
-        <v>26916000</v>
+        <v>26964300</v>
       </c>
       <c r="F8" s="3">
-        <v>22421000</v>
+        <v>27727200</v>
       </c>
       <c r="G8" s="3">
-        <v>19283200</v>
+        <v>23096700</v>
       </c>
       <c r="H8" s="3">
-        <v>20597300</v>
+        <v>19864400</v>
       </c>
       <c r="I8" s="3">
-        <v>28052200</v>
+        <v>21218000</v>
       </c>
       <c r="J8" s="3">
+        <v>28897600</v>
+      </c>
+      <c r="K8" s="3">
         <v>25257000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23478000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23595400</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>21143900</v>
+        <v>15053900</v>
       </c>
       <c r="E9" s="3">
-        <v>21294800</v>
+        <v>21781100</v>
       </c>
       <c r="F9" s="3">
-        <v>18354800</v>
+        <v>21936500</v>
       </c>
       <c r="G9" s="3">
-        <v>15661200</v>
+        <v>18908000</v>
       </c>
       <c r="H9" s="3">
-        <v>15949100</v>
+        <v>16133200</v>
       </c>
       <c r="I9" s="3">
-        <v>21663500</v>
+        <v>16429800</v>
       </c>
       <c r="J9" s="3">
+        <v>22316400</v>
+      </c>
+      <c r="K9" s="3">
         <v>19586500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17263700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17639300</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5031500</v>
+        <v>2617800</v>
       </c>
       <c r="E10" s="3">
-        <v>5621200</v>
+        <v>5183200</v>
       </c>
       <c r="F10" s="3">
-        <v>4066200</v>
+        <v>5790600</v>
       </c>
       <c r="G10" s="3">
-        <v>3622000</v>
+        <v>4188700</v>
       </c>
       <c r="H10" s="3">
-        <v>4648200</v>
+        <v>3731200</v>
       </c>
       <c r="I10" s="3">
-        <v>6388700</v>
+        <v>4788300</v>
       </c>
       <c r="J10" s="3">
+        <v>6581300</v>
+      </c>
+      <c r="K10" s="3">
         <v>5670500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6214300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5956100</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>36200</v>
+        <v>10300</v>
       </c>
       <c r="E12" s="3">
-        <v>14600</v>
+        <v>37300</v>
       </c>
       <c r="F12" s="3">
-        <v>140900</v>
+        <v>15100</v>
       </c>
       <c r="G12" s="3">
-        <v>72400</v>
+        <v>145100</v>
       </c>
       <c r="H12" s="3">
-        <v>56200</v>
+        <v>74500</v>
       </c>
       <c r="I12" s="3">
-        <v>51600</v>
+        <v>57900</v>
       </c>
       <c r="J12" s="3">
+        <v>53100</v>
+      </c>
+      <c r="K12" s="3">
         <v>94700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>62500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>70700</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,32 +906,35 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-107100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -923,42 +942,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1230200</v>
+        <v>2595600</v>
       </c>
       <c r="E15" s="3">
-        <v>1197100</v>
+        <v>1267200</v>
       </c>
       <c r="F15" s="3">
-        <v>1672000</v>
+        <v>1233100</v>
       </c>
       <c r="G15" s="3">
-        <v>1253300</v>
+        <v>1722400</v>
       </c>
       <c r="H15" s="3">
-        <v>1116200</v>
+        <v>1291000</v>
       </c>
       <c r="I15" s="3">
-        <v>843700</v>
+        <v>1149900</v>
       </c>
       <c r="J15" s="3">
+        <v>869100</v>
+      </c>
+      <c r="K15" s="3">
         <v>854500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>572900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>586900</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>24605000</v>
+        <v>19613000</v>
       </c>
       <c r="E17" s="3">
-        <v>24571100</v>
+        <v>25346500</v>
       </c>
       <c r="F17" s="3">
-        <v>22143100</v>
+        <v>25311600</v>
       </c>
       <c r="G17" s="3">
-        <v>19126200</v>
+        <v>22810400</v>
       </c>
       <c r="H17" s="3">
-        <v>19188500</v>
+        <v>19702600</v>
       </c>
       <c r="I17" s="3">
-        <v>24588800</v>
+        <v>19766800</v>
       </c>
       <c r="J17" s="3">
+        <v>25329900</v>
+      </c>
+      <c r="K17" s="3">
         <v>22380200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19720100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20208300</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1570400</v>
+        <v>-1941300</v>
       </c>
       <c r="E18" s="3">
-        <v>2344900</v>
+        <v>1617800</v>
       </c>
       <c r="F18" s="3">
-        <v>277900</v>
+        <v>2415500</v>
       </c>
       <c r="G18" s="3">
-        <v>157000</v>
+        <v>286300</v>
       </c>
       <c r="H18" s="3">
-        <v>1408800</v>
+        <v>161800</v>
       </c>
       <c r="I18" s="3">
-        <v>3463400</v>
+        <v>1451200</v>
       </c>
       <c r="J18" s="3">
+        <v>3567800</v>
+      </c>
+      <c r="K18" s="3">
         <v>2876800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3757900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3387100</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>73900</v>
+        <v>80100</v>
       </c>
       <c r="E20" s="3">
-        <v>101600</v>
+        <v>76100</v>
       </c>
       <c r="F20" s="3">
-        <v>220200</v>
+        <v>104700</v>
       </c>
       <c r="G20" s="3">
-        <v>1779800</v>
+        <v>226800</v>
       </c>
       <c r="H20" s="3">
-        <v>97800</v>
+        <v>1833500</v>
       </c>
       <c r="I20" s="3">
-        <v>401800</v>
+        <v>100700</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>414000</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2872300</v>
+        <v>741600</v>
       </c>
       <c r="E21" s="3">
-        <v>3606100</v>
+        <v>2964700</v>
       </c>
       <c r="F21" s="3">
-        <v>2167200</v>
+        <v>3720200</v>
       </c>
       <c r="G21" s="3">
-        <v>3187900</v>
+        <v>2240300</v>
       </c>
       <c r="H21" s="3">
-        <v>2620800</v>
+        <v>3289900</v>
       </c>
       <c r="I21" s="3">
-        <v>4707500</v>
+        <v>2705000</v>
       </c>
       <c r="J21" s="3">
+        <v>4853300</v>
+      </c>
+      <c r="K21" s="3">
         <v>3729800</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3974600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>69300</v>
+        <v>48400</v>
       </c>
       <c r="E22" s="3">
-        <v>80800</v>
+        <v>71400</v>
       </c>
       <c r="F22" s="3">
-        <v>50000</v>
+        <v>83300</v>
       </c>
       <c r="G22" s="3">
-        <v>55400</v>
+        <v>51500</v>
       </c>
       <c r="H22" s="3">
-        <v>26200</v>
+        <v>57100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
+        <v>27000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1575100</v>
+        <v>-1909600</v>
       </c>
       <c r="E23" s="3">
-        <v>2365700</v>
+        <v>1622500</v>
       </c>
       <c r="F23" s="3">
-        <v>448000</v>
+        <v>2437000</v>
       </c>
       <c r="G23" s="3">
-        <v>1881400</v>
+        <v>461500</v>
       </c>
       <c r="H23" s="3">
-        <v>1480400</v>
+        <v>1938100</v>
       </c>
       <c r="I23" s="3">
-        <v>3865300</v>
+        <v>1525000</v>
       </c>
       <c r="J23" s="3">
+        <v>3981800</v>
+      </c>
+      <c r="K23" s="3">
         <v>2876800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3758700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3384800</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-118600</v>
+        <v>-437000</v>
       </c>
       <c r="E24" s="3">
-        <v>584300</v>
+        <v>-122100</v>
       </c>
       <c r="F24" s="3">
-        <v>70800</v>
+        <v>601900</v>
       </c>
       <c r="G24" s="3">
-        <v>214800</v>
+        <v>73000</v>
       </c>
       <c r="H24" s="3">
-        <v>616600</v>
+        <v>221300</v>
       </c>
       <c r="I24" s="3">
-        <v>951500</v>
+        <v>635200</v>
       </c>
       <c r="J24" s="3">
+        <v>980200</v>
+      </c>
+      <c r="K24" s="3">
         <v>699800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>923700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>795100</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1693600</v>
+        <v>-1472600</v>
       </c>
       <c r="E26" s="3">
-        <v>1781400</v>
+        <v>1744600</v>
       </c>
       <c r="F26" s="3">
-        <v>377200</v>
+        <v>1835000</v>
       </c>
       <c r="G26" s="3">
-        <v>1666700</v>
+        <v>388600</v>
       </c>
       <c r="H26" s="3">
-        <v>863700</v>
+        <v>1716900</v>
       </c>
       <c r="I26" s="3">
-        <v>2913800</v>
+        <v>889800</v>
       </c>
       <c r="J26" s="3">
+        <v>3001600</v>
+      </c>
+      <c r="K26" s="3">
         <v>2177100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2835000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2589700</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1693600</v>
+        <v>-1472600</v>
       </c>
       <c r="E27" s="3">
-        <v>1781400</v>
+        <v>1744600</v>
       </c>
       <c r="F27" s="3">
-        <v>377200</v>
+        <v>1835000</v>
       </c>
       <c r="G27" s="3">
-        <v>1666700</v>
+        <v>388600</v>
       </c>
       <c r="H27" s="3">
-        <v>863700</v>
+        <v>1716900</v>
       </c>
       <c r="I27" s="3">
-        <v>2913800</v>
+        <v>889800</v>
       </c>
       <c r="J27" s="3">
+        <v>3001600</v>
+      </c>
+      <c r="K27" s="3">
         <v>2177100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2835000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2589700</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-73900</v>
+        <v>-80100</v>
       </c>
       <c r="E32" s="3">
-        <v>-101600</v>
+        <v>-76100</v>
       </c>
       <c r="F32" s="3">
-        <v>-220200</v>
+        <v>-104700</v>
       </c>
       <c r="G32" s="3">
-        <v>-1779800</v>
+        <v>-226800</v>
       </c>
       <c r="H32" s="3">
-        <v>-97800</v>
+        <v>-1833500</v>
       </c>
       <c r="I32" s="3">
-        <v>-401800</v>
+        <v>-100700</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-414000</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1693600</v>
+        <v>-1472600</v>
       </c>
       <c r="E33" s="3">
-        <v>1781400</v>
+        <v>1744600</v>
       </c>
       <c r="F33" s="3">
-        <v>377200</v>
+        <v>1835000</v>
       </c>
       <c r="G33" s="3">
-        <v>1666700</v>
+        <v>388600</v>
       </c>
       <c r="H33" s="3">
-        <v>863700</v>
+        <v>1716900</v>
       </c>
       <c r="I33" s="3">
-        <v>2913800</v>
+        <v>889800</v>
       </c>
       <c r="J33" s="3">
+        <v>3001600</v>
+      </c>
+      <c r="K33" s="3">
         <v>2177100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2835000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2589700</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1693600</v>
+        <v>-1472600</v>
       </c>
       <c r="E35" s="3">
-        <v>1781400</v>
+        <v>1744600</v>
       </c>
       <c r="F35" s="3">
-        <v>377200</v>
+        <v>1835000</v>
       </c>
       <c r="G35" s="3">
-        <v>1666700</v>
+        <v>388600</v>
       </c>
       <c r="H35" s="3">
-        <v>863700</v>
+        <v>1716900</v>
       </c>
       <c r="I35" s="3">
-        <v>2913800</v>
+        <v>889800</v>
       </c>
       <c r="J35" s="3">
+        <v>3001600</v>
+      </c>
+      <c r="K35" s="3">
         <v>2177100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2835000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2589700</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1322600</v>
+        <v>611400</v>
       </c>
       <c r="E41" s="3">
-        <v>760600</v>
+        <v>1362400</v>
       </c>
       <c r="F41" s="3">
-        <v>919900</v>
+        <v>783500</v>
       </c>
       <c r="G41" s="3">
-        <v>301000</v>
+        <v>947700</v>
       </c>
       <c r="H41" s="3">
-        <v>156300</v>
+        <v>310100</v>
       </c>
       <c r="I41" s="3">
-        <v>165500</v>
+        <v>161000</v>
       </c>
       <c r="J41" s="3">
+        <v>170500</v>
+      </c>
+      <c r="K41" s="3">
         <v>209400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>362800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>923400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,240 +1800,264 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2077700</v>
+        <v>1521800</v>
       </c>
       <c r="E43" s="3">
-        <v>1946900</v>
+        <v>2140400</v>
       </c>
       <c r="F43" s="3">
-        <v>2087800</v>
+        <v>2005500</v>
       </c>
       <c r="G43" s="3">
-        <v>1557300</v>
+        <v>2150700</v>
       </c>
       <c r="H43" s="3">
-        <v>1217100</v>
+        <v>1604300</v>
       </c>
       <c r="I43" s="3">
-        <v>1184800</v>
+        <v>1253800</v>
       </c>
       <c r="J43" s="3">
+        <v>1220500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1604300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1487500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1759200</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>997700</v>
+        <v>920700</v>
       </c>
       <c r="E44" s="3">
-        <v>998500</v>
+        <v>1027800</v>
       </c>
       <c r="F44" s="3">
-        <v>827600</v>
+        <v>1028500</v>
       </c>
       <c r="G44" s="3">
-        <v>730600</v>
+        <v>852500</v>
       </c>
       <c r="H44" s="3">
-        <v>916100</v>
+        <v>752600</v>
       </c>
       <c r="I44" s="3">
-        <v>863000</v>
+        <v>943700</v>
       </c>
       <c r="J44" s="3">
+        <v>889000</v>
+      </c>
+      <c r="K44" s="3">
         <v>792900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>622600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>585400</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>474200</v>
+        <v>533700</v>
       </c>
       <c r="E45" s="3">
-        <v>416500</v>
+        <v>488500</v>
       </c>
       <c r="F45" s="3">
-        <v>327200</v>
+        <v>429000</v>
       </c>
       <c r="G45" s="3">
-        <v>360300</v>
+        <v>337000</v>
       </c>
       <c r="H45" s="3">
-        <v>535800</v>
+        <v>371100</v>
       </c>
       <c r="I45" s="3">
-        <v>534300</v>
+        <v>551900</v>
       </c>
       <c r="J45" s="3">
+        <v>550400</v>
+      </c>
+      <c r="K45" s="3">
         <v>693600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>607500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>636900</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4872200</v>
+        <v>3587600</v>
       </c>
       <c r="E46" s="3">
-        <v>4122400</v>
+        <v>5019000</v>
       </c>
       <c r="F46" s="3">
-        <v>4162400</v>
+        <v>4246600</v>
       </c>
       <c r="G46" s="3">
-        <v>2949200</v>
+        <v>4287900</v>
       </c>
       <c r="H46" s="3">
-        <v>2825200</v>
+        <v>3038100</v>
       </c>
       <c r="I46" s="3">
-        <v>2747500</v>
+        <v>2910400</v>
       </c>
       <c r="J46" s="3">
+        <v>2830300</v>
+      </c>
+      <c r="K46" s="3">
         <v>3300200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3080400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3904900</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>685900</v>
+        <v>619300</v>
       </c>
       <c r="E47" s="3">
-        <v>659700</v>
+        <v>706600</v>
       </c>
       <c r="F47" s="3">
-        <v>665900</v>
+        <v>679600</v>
       </c>
       <c r="G47" s="3">
-        <v>792900</v>
+        <v>686000</v>
       </c>
       <c r="H47" s="3">
-        <v>1088500</v>
+        <v>816800</v>
       </c>
       <c r="I47" s="3">
-        <v>1082400</v>
+        <v>1121300</v>
       </c>
       <c r="J47" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1025400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>820500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>706800</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26530300</v>
+        <v>25552700</v>
       </c>
       <c r="E48" s="3">
-        <v>26347100</v>
+        <v>27329800</v>
       </c>
       <c r="F48" s="3">
-        <v>26538000</v>
+        <v>27141100</v>
       </c>
       <c r="G48" s="3">
-        <v>27969900</v>
+        <v>27337800</v>
       </c>
       <c r="H48" s="3">
-        <v>29098400</v>
+        <v>28812800</v>
       </c>
       <c r="I48" s="3">
-        <v>27385600</v>
+        <v>29975400</v>
       </c>
       <c r="J48" s="3">
+        <v>28210900</v>
+      </c>
+      <c r="K48" s="3">
         <v>24110800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18008200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14720800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>143200</v>
+        <v>131600</v>
       </c>
       <c r="E49" s="3">
-        <v>143200</v>
+        <v>147500</v>
       </c>
       <c r="F49" s="3">
-        <v>143200</v>
+        <v>147500</v>
       </c>
       <c r="G49" s="3">
-        <v>143200</v>
+        <v>147500</v>
       </c>
       <c r="H49" s="3">
+        <v>147500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>177600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>177600</v>
+      </c>
+      <c r="K49" s="3">
         <v>172400</v>
       </c>
-      <c r="I49" s="3">
-        <v>172400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>172400</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>195700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>202800</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>244800</v>
+        <v>268000</v>
       </c>
       <c r="E52" s="3">
-        <v>641300</v>
+        <v>252200</v>
       </c>
       <c r="F52" s="3">
-        <v>515800</v>
+        <v>660600</v>
       </c>
       <c r="G52" s="3">
-        <v>210900</v>
+        <v>531300</v>
       </c>
       <c r="H52" s="3">
-        <v>48500</v>
+        <v>217300</v>
       </c>
       <c r="I52" s="3">
-        <v>43900</v>
+        <v>50000</v>
       </c>
       <c r="J52" s="3">
+        <v>45200</v>
+      </c>
+      <c r="K52" s="3">
         <v>42300</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32476400</v>
+        <v>30159300</v>
       </c>
       <c r="E54" s="3">
-        <v>31913700</v>
+        <v>33455100</v>
       </c>
       <c r="F54" s="3">
-        <v>32025300</v>
+        <v>32875400</v>
       </c>
       <c r="G54" s="3">
-        <v>32066100</v>
+        <v>32990400</v>
       </c>
       <c r="H54" s="3">
-        <v>33233100</v>
+        <v>33032500</v>
       </c>
       <c r="I54" s="3">
-        <v>31431800</v>
+        <v>34234700</v>
       </c>
       <c r="J54" s="3">
+        <v>32379000</v>
+      </c>
+      <c r="K54" s="3">
         <v>28651200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22104900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19535300</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2873700</v>
+        <v>2150700</v>
       </c>
       <c r="E57" s="3">
-        <v>2521200</v>
+        <v>2960300</v>
       </c>
       <c r="F57" s="3">
-        <v>2648200</v>
+        <v>2597100</v>
       </c>
       <c r="G57" s="3">
-        <v>2153200</v>
+        <v>2728000</v>
       </c>
       <c r="H57" s="3">
-        <v>2010000</v>
+        <v>2218100</v>
       </c>
       <c r="I57" s="3">
-        <v>2741300</v>
+        <v>2070600</v>
       </c>
       <c r="J57" s="3">
+        <v>2823900</v>
+      </c>
+      <c r="K57" s="3">
         <v>3185500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>165200</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>187800</v>
+        <v>180000</v>
       </c>
       <c r="E58" s="3">
-        <v>155500</v>
+        <v>193500</v>
       </c>
       <c r="F58" s="3">
-        <v>155500</v>
+        <v>160200</v>
       </c>
       <c r="G58" s="3">
-        <v>155500</v>
+        <v>160200</v>
       </c>
       <c r="H58" s="3">
-        <v>1502700</v>
+        <v>160200</v>
       </c>
       <c r="I58" s="3">
-        <v>1522700</v>
+        <v>1548000</v>
       </c>
       <c r="J58" s="3">
+        <v>1568600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1418800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3547100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3430900</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>475700</v>
+        <v>349700</v>
       </c>
       <c r="E59" s="3">
-        <v>368000</v>
+        <v>490100</v>
       </c>
       <c r="F59" s="3">
-        <v>380300</v>
+        <v>379100</v>
       </c>
       <c r="G59" s="3">
-        <v>680500</v>
+        <v>391800</v>
       </c>
       <c r="H59" s="3">
-        <v>639000</v>
+        <v>701000</v>
       </c>
       <c r="I59" s="3">
-        <v>340300</v>
+        <v>658200</v>
       </c>
       <c r="J59" s="3">
+        <v>350500</v>
+      </c>
+      <c r="K59" s="3">
         <v>852200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>891300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>974100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3537300</v>
+        <v>2680400</v>
       </c>
       <c r="E60" s="3">
-        <v>3044600</v>
+        <v>3643900</v>
       </c>
       <c r="F60" s="3">
-        <v>3184000</v>
+        <v>3136400</v>
       </c>
       <c r="G60" s="3">
-        <v>2989200</v>
+        <v>3279900</v>
       </c>
       <c r="H60" s="3">
-        <v>4151600</v>
+        <v>3079300</v>
       </c>
       <c r="I60" s="3">
-        <v>4604300</v>
+        <v>4276800</v>
       </c>
       <c r="J60" s="3">
+        <v>4743100</v>
+      </c>
+      <c r="K60" s="3">
         <v>5456500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4445200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4570200</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3819100</v>
+        <v>3931000</v>
       </c>
       <c r="E61" s="3">
-        <v>3832200</v>
+        <v>3934200</v>
       </c>
       <c r="F61" s="3">
-        <v>3852900</v>
+        <v>3947700</v>
       </c>
       <c r="G61" s="3">
-        <v>3873700</v>
+        <v>3969100</v>
       </c>
       <c r="H61" s="3">
-        <v>5053100</v>
+        <v>3990500</v>
       </c>
       <c r="I61" s="3">
-        <v>3782100</v>
+        <v>5205400</v>
       </c>
       <c r="J61" s="3">
+        <v>3896100</v>
+      </c>
+      <c r="K61" s="3">
         <v>3421100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>884500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>647600</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6431800</v>
+        <v>6563000</v>
       </c>
       <c r="E62" s="3">
-        <v>6184700</v>
+        <v>6625700</v>
       </c>
       <c r="F62" s="3">
-        <v>6177800</v>
+        <v>6371100</v>
       </c>
       <c r="G62" s="3">
-        <v>5941500</v>
+        <v>6364000</v>
       </c>
       <c r="H62" s="3">
-        <v>5995400</v>
+        <v>6120500</v>
       </c>
       <c r="I62" s="3">
-        <v>5701300</v>
+        <v>6176000</v>
       </c>
       <c r="J62" s="3">
+        <v>5873100</v>
+      </c>
+      <c r="K62" s="3">
         <v>4743600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4446700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4083900</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13788200</v>
+        <v>13174400</v>
       </c>
       <c r="E66" s="3">
-        <v>13061500</v>
+        <v>14203800</v>
       </c>
       <c r="F66" s="3">
-        <v>13214700</v>
+        <v>13455200</v>
       </c>
       <c r="G66" s="3">
-        <v>12804400</v>
+        <v>13613000</v>
       </c>
       <c r="H66" s="3">
-        <v>15200100</v>
+        <v>13190300</v>
       </c>
       <c r="I66" s="3">
-        <v>14087700</v>
+        <v>15658200</v>
       </c>
       <c r="J66" s="3">
+        <v>14512300</v>
+      </c>
+      <c r="K66" s="3">
         <v>13621200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9776500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9301700</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19100800</v>
+        <v>17486100</v>
       </c>
       <c r="E72" s="3">
-        <v>18906800</v>
+        <v>19676400</v>
       </c>
       <c r="F72" s="3">
-        <v>19025300</v>
+        <v>19476600</v>
       </c>
       <c r="G72" s="3">
-        <v>19516500</v>
+        <v>19598700</v>
       </c>
       <c r="H72" s="3">
-        <v>18234700</v>
+        <v>20104600</v>
       </c>
       <c r="I72" s="3">
-        <v>17723600</v>
+        <v>18784300</v>
       </c>
       <c r="J72" s="3">
+        <v>18257700</v>
+      </c>
+      <c r="K72" s="3">
         <v>15149300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12997700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10779000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18688200</v>
+        <v>16984900</v>
       </c>
       <c r="E76" s="3">
-        <v>18852100</v>
+        <v>19251400</v>
       </c>
       <c r="F76" s="3">
-        <v>18810600</v>
+        <v>19420300</v>
       </c>
       <c r="G76" s="3">
-        <v>19261700</v>
+        <v>19377400</v>
       </c>
       <c r="H76" s="3">
-        <v>18033000</v>
+        <v>19842200</v>
       </c>
       <c r="I76" s="3">
-        <v>17344000</v>
+        <v>18576500</v>
       </c>
       <c r="J76" s="3">
+        <v>17866700</v>
+      </c>
+      <c r="K76" s="3">
         <v>15030000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12328400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10233600</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1693600</v>
+        <v>-1472600</v>
       </c>
       <c r="E81" s="3">
-        <v>1781400</v>
+        <v>1744600</v>
       </c>
       <c r="F81" s="3">
-        <v>377200</v>
+        <v>1835000</v>
       </c>
       <c r="G81" s="3">
-        <v>1666700</v>
+        <v>388600</v>
       </c>
       <c r="H81" s="3">
-        <v>863700</v>
+        <v>1716900</v>
       </c>
       <c r="I81" s="3">
-        <v>2913800</v>
+        <v>889800</v>
       </c>
       <c r="J81" s="3">
+        <v>3001600</v>
+      </c>
+      <c r="K81" s="3">
         <v>2177100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2835000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2589700</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1230200</v>
+        <v>2595600</v>
       </c>
       <c r="E83" s="3">
-        <v>1161700</v>
+        <v>1267200</v>
       </c>
       <c r="F83" s="3">
-        <v>1672000</v>
+        <v>1196700</v>
       </c>
       <c r="G83" s="3">
-        <v>1253300</v>
+        <v>1722400</v>
       </c>
       <c r="H83" s="3">
-        <v>1116200</v>
+        <v>1291000</v>
       </c>
       <c r="I83" s="3">
-        <v>843700</v>
+        <v>1149900</v>
       </c>
       <c r="J83" s="3">
+        <v>869100</v>
+      </c>
+      <c r="K83" s="3">
         <v>854500</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>586900</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3409500</v>
+        <v>632800</v>
       </c>
       <c r="E89" s="3">
-        <v>3019200</v>
+        <v>3512300</v>
       </c>
       <c r="F89" s="3">
-        <v>2127000</v>
+        <v>3110200</v>
       </c>
       <c r="G89" s="3">
-        <v>1551200</v>
+        <v>2191100</v>
       </c>
       <c r="H89" s="3">
-        <v>1668200</v>
+        <v>1597900</v>
       </c>
       <c r="I89" s="3">
-        <v>3391100</v>
+        <v>1718500</v>
       </c>
       <c r="J89" s="3">
+        <v>3493300</v>
+      </c>
+      <c r="K89" s="3">
         <v>2534200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3523100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3448600</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1259400</v>
+        <v>-688300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1147800</v>
+        <v>-1297400</v>
       </c>
       <c r="F91" s="3">
-        <v>-764400</v>
+        <v>-1182400</v>
       </c>
       <c r="G91" s="3">
-        <v>-826000</v>
+        <v>-787500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2304800</v>
+        <v>-850900</v>
       </c>
       <c r="I91" s="3">
-        <v>-4072300</v>
+        <v>-2374300</v>
       </c>
       <c r="J91" s="3">
+        <v>-4195100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4847600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4123800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3010700</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1311800</v>
+        <v>-636000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1200100</v>
+        <v>-1351300</v>
       </c>
       <c r="F94" s="3">
-        <v>-601200</v>
+        <v>-1236300</v>
       </c>
       <c r="G94" s="3">
-        <v>1498800</v>
+        <v>-619300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2220200</v>
+        <v>1544000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3511900</v>
+        <v>-2287100</v>
       </c>
       <c r="J94" s="3">
+        <v>-3617800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5954600</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2760300</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-485800</v>
+        <v>-514700</v>
       </c>
       <c r="E96" s="3">
-        <v>-440300</v>
+        <v>-500400</v>
       </c>
       <c r="F96" s="3">
-        <v>-403400</v>
+        <v>-453600</v>
       </c>
       <c r="G96" s="3">
-        <v>-378800</v>
+        <v>-415500</v>
       </c>
       <c r="H96" s="3">
-        <v>-345600</v>
+        <v>-390200</v>
       </c>
       <c r="I96" s="3">
-        <v>-339500</v>
+        <v>-356100</v>
       </c>
       <c r="J96" s="3">
+        <v>-349700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-313300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-299600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-286500</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,42 +3665,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1535800</v>
+        <v>-747800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1978400</v>
+        <v>-1582100</v>
       </c>
       <c r="F100" s="3">
-        <v>-906800</v>
+        <v>-2038100</v>
       </c>
       <c r="G100" s="3">
-        <v>-2905300</v>
+        <v>-934200</v>
       </c>
       <c r="H100" s="3">
-        <v>542700</v>
+        <v>-2992900</v>
       </c>
       <c r="I100" s="3">
-        <v>77000</v>
+        <v>559100</v>
       </c>
       <c r="J100" s="3">
+        <v>79300</v>
+      </c>
+      <c r="K100" s="3">
         <v>3258600</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>30000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3483,46 +3731,52 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>562000</v>
+        <v>-751000</v>
       </c>
       <c r="E102" s="3">
-        <v>-159400</v>
+        <v>578900</v>
       </c>
       <c r="F102" s="3">
-        <v>618900</v>
+        <v>-164200</v>
       </c>
       <c r="G102" s="3">
-        <v>144700</v>
+        <v>637600</v>
       </c>
       <c r="H102" s="3">
-        <v>-9200</v>
+        <v>149100</v>
       </c>
       <c r="I102" s="3">
-        <v>-43900</v>
+        <v>-9500</v>
       </c>
       <c r="J102" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-161700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-542000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>718300</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17671700</v>
+        <v>18474600</v>
       </c>
       <c r="E8" s="3">
-        <v>26964300</v>
+        <v>28189400</v>
       </c>
       <c r="F8" s="3">
-        <v>27727200</v>
+        <v>28986900</v>
       </c>
       <c r="G8" s="3">
-        <v>23096700</v>
+        <v>24146100</v>
       </c>
       <c r="H8" s="3">
-        <v>19864400</v>
+        <v>20766900</v>
       </c>
       <c r="I8" s="3">
-        <v>21218000</v>
+        <v>22182100</v>
       </c>
       <c r="J8" s="3">
-        <v>28897600</v>
+        <v>30210600</v>
       </c>
       <c r="K8" s="3">
         <v>25257000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15053900</v>
+        <v>15737900</v>
       </c>
       <c r="E9" s="3">
-        <v>21781100</v>
+        <v>22770700</v>
       </c>
       <c r="F9" s="3">
-        <v>21936500</v>
+        <v>22933200</v>
       </c>
       <c r="G9" s="3">
-        <v>18908000</v>
+        <v>19767000</v>
       </c>
       <c r="H9" s="3">
-        <v>16133200</v>
+        <v>16866200</v>
       </c>
       <c r="I9" s="3">
-        <v>16429800</v>
+        <v>17176300</v>
       </c>
       <c r="J9" s="3">
-        <v>22316400</v>
+        <v>23330300</v>
       </c>
       <c r="K9" s="3">
         <v>19586500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2617800</v>
+        <v>2736700</v>
       </c>
       <c r="E10" s="3">
-        <v>5183200</v>
+        <v>5418700</v>
       </c>
       <c r="F10" s="3">
-        <v>5790600</v>
+        <v>6053700</v>
       </c>
       <c r="G10" s="3">
-        <v>4188700</v>
+        <v>4379000</v>
       </c>
       <c r="H10" s="3">
-        <v>3731200</v>
+        <v>3900700</v>
       </c>
       <c r="I10" s="3">
-        <v>4788300</v>
+        <v>5005800</v>
       </c>
       <c r="J10" s="3">
-        <v>6581300</v>
+        <v>6880300</v>
       </c>
       <c r="K10" s="3">
         <v>5670500</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10300</v>
+        <v>10800</v>
       </c>
       <c r="E12" s="3">
-        <v>37300</v>
+        <v>39000</v>
       </c>
       <c r="F12" s="3">
-        <v>15100</v>
+        <v>15800</v>
       </c>
       <c r="G12" s="3">
-        <v>145100</v>
+        <v>151700</v>
       </c>
       <c r="H12" s="3">
-        <v>74500</v>
+        <v>77900</v>
       </c>
       <c r="I12" s="3">
-        <v>57900</v>
+        <v>60500</v>
       </c>
       <c r="J12" s="3">
-        <v>53100</v>
+        <v>55500</v>
       </c>
       <c r="K12" s="3">
         <v>94700</v>
@@ -916,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-107100</v>
+        <v>1157400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2595600</v>
+        <v>1444200</v>
       </c>
       <c r="E15" s="3">
-        <v>1267200</v>
+        <v>1324800</v>
       </c>
       <c r="F15" s="3">
-        <v>1233100</v>
+        <v>1289200</v>
       </c>
       <c r="G15" s="3">
-        <v>1722400</v>
+        <v>1800700</v>
       </c>
       <c r="H15" s="3">
-        <v>1291000</v>
+        <v>1349700</v>
       </c>
       <c r="I15" s="3">
-        <v>1149900</v>
+        <v>1202100</v>
       </c>
       <c r="J15" s="3">
-        <v>869100</v>
+        <v>908600</v>
       </c>
       <c r="K15" s="3">
         <v>854500</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>19613000</v>
+        <v>20504100</v>
       </c>
       <c r="E17" s="3">
-        <v>25346500</v>
+        <v>26498100</v>
       </c>
       <c r="F17" s="3">
-        <v>25311600</v>
+        <v>26461600</v>
       </c>
       <c r="G17" s="3">
-        <v>22810400</v>
+        <v>23846800</v>
       </c>
       <c r="H17" s="3">
-        <v>19702600</v>
+        <v>20597700</v>
       </c>
       <c r="I17" s="3">
-        <v>19766800</v>
+        <v>20664900</v>
       </c>
       <c r="J17" s="3">
-        <v>25329900</v>
+        <v>26480700</v>
       </c>
       <c r="K17" s="3">
         <v>22380200</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-1941300</v>
+        <v>-2029500</v>
       </c>
       <c r="E18" s="3">
-        <v>1617800</v>
+        <v>1691300</v>
       </c>
       <c r="F18" s="3">
-        <v>2415500</v>
+        <v>2525300</v>
       </c>
       <c r="G18" s="3">
-        <v>286300</v>
+        <v>299300</v>
       </c>
       <c r="H18" s="3">
-        <v>161800</v>
+        <v>169100</v>
       </c>
       <c r="I18" s="3">
-        <v>1451200</v>
+        <v>1517200</v>
       </c>
       <c r="J18" s="3">
-        <v>3567800</v>
+        <v>3729900</v>
       </c>
       <c r="K18" s="3">
         <v>2876800</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>80100</v>
+        <v>83700</v>
       </c>
       <c r="E20" s="3">
-        <v>76100</v>
+        <v>79600</v>
       </c>
       <c r="F20" s="3">
-        <v>104700</v>
+        <v>109400</v>
       </c>
       <c r="G20" s="3">
-        <v>226800</v>
+        <v>237100</v>
       </c>
       <c r="H20" s="3">
-        <v>1833500</v>
+        <v>1916800</v>
       </c>
       <c r="I20" s="3">
-        <v>100700</v>
+        <v>105300</v>
       </c>
       <c r="J20" s="3">
-        <v>414000</v>
+        <v>432800</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>741600</v>
+        <v>772900</v>
       </c>
       <c r="E21" s="3">
-        <v>2964700</v>
+        <v>3098200</v>
       </c>
       <c r="F21" s="3">
-        <v>3720200</v>
+        <v>3888100</v>
       </c>
       <c r="G21" s="3">
-        <v>2240300</v>
+        <v>2340500</v>
       </c>
       <c r="H21" s="3">
-        <v>3289900</v>
+        <v>3438200</v>
       </c>
       <c r="I21" s="3">
-        <v>2705000</v>
+        <v>2826900</v>
       </c>
       <c r="J21" s="3">
-        <v>4853300</v>
+        <v>5073000</v>
       </c>
       <c r="K21" s="3">
         <v>3729800</v>
@@ -1161,22 +1161,22 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>48400</v>
+        <v>50600</v>
       </c>
       <c r="E22" s="3">
-        <v>71400</v>
+        <v>74600</v>
       </c>
       <c r="F22" s="3">
-        <v>83300</v>
+        <v>87100</v>
       </c>
       <c r="G22" s="3">
-        <v>51500</v>
+        <v>53900</v>
       </c>
       <c r="H22" s="3">
-        <v>57100</v>
+        <v>59700</v>
       </c>
       <c r="I22" s="3">
-        <v>27000</v>
+        <v>28200</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1909600</v>
+        <v>-1996400</v>
       </c>
       <c r="E23" s="3">
-        <v>1622500</v>
+        <v>1696200</v>
       </c>
       <c r="F23" s="3">
-        <v>2437000</v>
+        <v>2547700</v>
       </c>
       <c r="G23" s="3">
-        <v>461500</v>
+        <v>482500</v>
       </c>
       <c r="H23" s="3">
-        <v>1938100</v>
+        <v>2026200</v>
       </c>
       <c r="I23" s="3">
-        <v>1525000</v>
+        <v>1594300</v>
       </c>
       <c r="J23" s="3">
-        <v>3981800</v>
+        <v>4162700</v>
       </c>
       <c r="K23" s="3">
         <v>2876800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-437000</v>
+        <v>-456800</v>
       </c>
       <c r="E24" s="3">
-        <v>-122100</v>
+        <v>-127700</v>
       </c>
       <c r="F24" s="3">
-        <v>601900</v>
+        <v>629200</v>
       </c>
       <c r="G24" s="3">
-        <v>73000</v>
+        <v>76300</v>
       </c>
       <c r="H24" s="3">
-        <v>221300</v>
+        <v>231300</v>
       </c>
       <c r="I24" s="3">
-        <v>635200</v>
+        <v>664100</v>
       </c>
       <c r="J24" s="3">
-        <v>980200</v>
+        <v>1024700</v>
       </c>
       <c r="K24" s="3">
         <v>699800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1472600</v>
+        <v>-1539500</v>
       </c>
       <c r="E26" s="3">
-        <v>1744600</v>
+        <v>1823900</v>
       </c>
       <c r="F26" s="3">
-        <v>1835000</v>
+        <v>1918400</v>
       </c>
       <c r="G26" s="3">
-        <v>388600</v>
+        <v>406200</v>
       </c>
       <c r="H26" s="3">
-        <v>1716900</v>
+        <v>1794900</v>
       </c>
       <c r="I26" s="3">
-        <v>889800</v>
+        <v>930200</v>
       </c>
       <c r="J26" s="3">
-        <v>3001600</v>
+        <v>3138000</v>
       </c>
       <c r="K26" s="3">
         <v>2177100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1472600</v>
+        <v>-1539500</v>
       </c>
       <c r="E27" s="3">
-        <v>1744600</v>
+        <v>1823900</v>
       </c>
       <c r="F27" s="3">
-        <v>1835000</v>
+        <v>1918400</v>
       </c>
       <c r="G27" s="3">
-        <v>388600</v>
+        <v>406200</v>
       </c>
       <c r="H27" s="3">
-        <v>1716900</v>
+        <v>1794900</v>
       </c>
       <c r="I27" s="3">
-        <v>889800</v>
+        <v>930200</v>
       </c>
       <c r="J27" s="3">
-        <v>3001600</v>
+        <v>3138000</v>
       </c>
       <c r="K27" s="3">
         <v>2177100</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-80100</v>
+        <v>-83700</v>
       </c>
       <c r="E32" s="3">
-        <v>-76100</v>
+        <v>-79600</v>
       </c>
       <c r="F32" s="3">
-        <v>-104700</v>
+        <v>-109400</v>
       </c>
       <c r="G32" s="3">
-        <v>-226800</v>
+        <v>-237100</v>
       </c>
       <c r="H32" s="3">
-        <v>-1833500</v>
+        <v>-1916800</v>
       </c>
       <c r="I32" s="3">
-        <v>-100700</v>
+        <v>-105300</v>
       </c>
       <c r="J32" s="3">
-        <v>-414000</v>
+        <v>-432800</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1472600</v>
+        <v>-1539500</v>
       </c>
       <c r="E33" s="3">
-        <v>1744600</v>
+        <v>1823900</v>
       </c>
       <c r="F33" s="3">
-        <v>1835000</v>
+        <v>1918400</v>
       </c>
       <c r="G33" s="3">
-        <v>388600</v>
+        <v>406200</v>
       </c>
       <c r="H33" s="3">
-        <v>1716900</v>
+        <v>1794900</v>
       </c>
       <c r="I33" s="3">
-        <v>889800</v>
+        <v>930200</v>
       </c>
       <c r="J33" s="3">
-        <v>3001600</v>
+        <v>3138000</v>
       </c>
       <c r="K33" s="3">
         <v>2177100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1472600</v>
+        <v>-1539500</v>
       </c>
       <c r="E35" s="3">
-        <v>1744600</v>
+        <v>1823900</v>
       </c>
       <c r="F35" s="3">
-        <v>1835000</v>
+        <v>1918400</v>
       </c>
       <c r="G35" s="3">
-        <v>388600</v>
+        <v>406200</v>
       </c>
       <c r="H35" s="3">
-        <v>1716900</v>
+        <v>1794900</v>
       </c>
       <c r="I35" s="3">
-        <v>889800</v>
+        <v>930200</v>
       </c>
       <c r="J35" s="3">
-        <v>3001600</v>
+        <v>3138000</v>
       </c>
       <c r="K35" s="3">
         <v>2177100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>611400</v>
+        <v>639200</v>
       </c>
       <c r="E41" s="3">
-        <v>1362400</v>
+        <v>1424300</v>
       </c>
       <c r="F41" s="3">
-        <v>783500</v>
+        <v>819100</v>
       </c>
       <c r="G41" s="3">
-        <v>947700</v>
+        <v>990700</v>
       </c>
       <c r="H41" s="3">
-        <v>310100</v>
+        <v>324200</v>
       </c>
       <c r="I41" s="3">
-        <v>161000</v>
+        <v>168300</v>
       </c>
       <c r="J41" s="3">
-        <v>170500</v>
+        <v>178200</v>
       </c>
       <c r="K41" s="3">
         <v>209400</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1521800</v>
+        <v>1590900</v>
       </c>
       <c r="E43" s="3">
-        <v>2140400</v>
+        <v>2237600</v>
       </c>
       <c r="F43" s="3">
-        <v>2005500</v>
+        <v>2096700</v>
       </c>
       <c r="G43" s="3">
-        <v>2150700</v>
+        <v>2248400</v>
       </c>
       <c r="H43" s="3">
-        <v>1604300</v>
+        <v>1677200</v>
       </c>
       <c r="I43" s="3">
-        <v>1253800</v>
+        <v>1310700</v>
       </c>
       <c r="J43" s="3">
-        <v>1220500</v>
+        <v>1275900</v>
       </c>
       <c r="K43" s="3">
         <v>1604300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>920700</v>
+        <v>962500</v>
       </c>
       <c r="E44" s="3">
-        <v>1027800</v>
+        <v>1074400</v>
       </c>
       <c r="F44" s="3">
-        <v>1028500</v>
+        <v>1075300</v>
       </c>
       <c r="G44" s="3">
-        <v>852500</v>
+        <v>891200</v>
       </c>
       <c r="H44" s="3">
-        <v>752600</v>
+        <v>786800</v>
       </c>
       <c r="I44" s="3">
-        <v>943700</v>
+        <v>986600</v>
       </c>
       <c r="J44" s="3">
-        <v>889000</v>
+        <v>929400</v>
       </c>
       <c r="K44" s="3">
         <v>792900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>533700</v>
+        <v>558000</v>
       </c>
       <c r="E45" s="3">
-        <v>488500</v>
+        <v>510700</v>
       </c>
       <c r="F45" s="3">
-        <v>429000</v>
+        <v>448500</v>
       </c>
       <c r="G45" s="3">
-        <v>337000</v>
+        <v>352300</v>
       </c>
       <c r="H45" s="3">
-        <v>371100</v>
+        <v>388000</v>
       </c>
       <c r="I45" s="3">
-        <v>551900</v>
+        <v>577000</v>
       </c>
       <c r="J45" s="3">
-        <v>550400</v>
+        <v>575400</v>
       </c>
       <c r="K45" s="3">
         <v>693600</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3587600</v>
+        <v>3750600</v>
       </c>
       <c r="E46" s="3">
-        <v>5019000</v>
+        <v>5247100</v>
       </c>
       <c r="F46" s="3">
-        <v>4246600</v>
+        <v>4439600</v>
       </c>
       <c r="G46" s="3">
-        <v>4287900</v>
+        <v>4482700</v>
       </c>
       <c r="H46" s="3">
-        <v>3038100</v>
+        <v>3176100</v>
       </c>
       <c r="I46" s="3">
-        <v>2910400</v>
+        <v>3042600</v>
       </c>
       <c r="J46" s="3">
-        <v>2830300</v>
+        <v>2958900</v>
       </c>
       <c r="K46" s="3">
         <v>3300200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>619300</v>
+        <v>647500</v>
       </c>
       <c r="E47" s="3">
-        <v>706600</v>
+        <v>738700</v>
       </c>
       <c r="F47" s="3">
-        <v>679600</v>
+        <v>710500</v>
       </c>
       <c r="G47" s="3">
-        <v>686000</v>
+        <v>717100</v>
       </c>
       <c r="H47" s="3">
-        <v>816800</v>
+        <v>853900</v>
       </c>
       <c r="I47" s="3">
-        <v>1121300</v>
+        <v>1172300</v>
       </c>
       <c r="J47" s="3">
-        <v>1115000</v>
+        <v>1165600</v>
       </c>
       <c r="K47" s="3">
         <v>1025400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25552700</v>
+        <v>26713600</v>
       </c>
       <c r="E48" s="3">
-        <v>27329800</v>
+        <v>28571600</v>
       </c>
       <c r="F48" s="3">
-        <v>27141100</v>
+        <v>28374200</v>
       </c>
       <c r="G48" s="3">
-        <v>27337800</v>
+        <v>28579800</v>
       </c>
       <c r="H48" s="3">
-        <v>28812800</v>
+        <v>30121900</v>
       </c>
       <c r="I48" s="3">
-        <v>29975400</v>
+        <v>31337300</v>
       </c>
       <c r="J48" s="3">
-        <v>28210900</v>
+        <v>29492600</v>
       </c>
       <c r="K48" s="3">
         <v>24110800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>131600</v>
+        <v>137600</v>
       </c>
       <c r="E49" s="3">
-        <v>147500</v>
+        <v>154200</v>
       </c>
       <c r="F49" s="3">
-        <v>147500</v>
+        <v>154200</v>
       </c>
       <c r="G49" s="3">
-        <v>147500</v>
+        <v>154200</v>
       </c>
       <c r="H49" s="3">
-        <v>147500</v>
+        <v>154200</v>
       </c>
       <c r="I49" s="3">
-        <v>177600</v>
+        <v>185700</v>
       </c>
       <c r="J49" s="3">
-        <v>177600</v>
+        <v>185700</v>
       </c>
       <c r="K49" s="3">
         <v>172400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>268000</v>
+        <v>280200</v>
       </c>
       <c r="E52" s="3">
-        <v>252200</v>
+        <v>263600</v>
       </c>
       <c r="F52" s="3">
-        <v>660600</v>
+        <v>690600</v>
       </c>
       <c r="G52" s="3">
-        <v>531300</v>
+        <v>555500</v>
       </c>
       <c r="H52" s="3">
-        <v>217300</v>
+        <v>227200</v>
       </c>
       <c r="I52" s="3">
-        <v>50000</v>
+        <v>52200</v>
       </c>
       <c r="J52" s="3">
-        <v>45200</v>
+        <v>47300</v>
       </c>
       <c r="K52" s="3">
         <v>42300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30159300</v>
+        <v>31529600</v>
       </c>
       <c r="E54" s="3">
-        <v>33455100</v>
+        <v>34975100</v>
       </c>
       <c r="F54" s="3">
-        <v>32875400</v>
+        <v>34369100</v>
       </c>
       <c r="G54" s="3">
-        <v>32990400</v>
+        <v>34489300</v>
       </c>
       <c r="H54" s="3">
-        <v>33032500</v>
+        <v>34533200</v>
       </c>
       <c r="I54" s="3">
-        <v>34234700</v>
+        <v>35790100</v>
       </c>
       <c r="J54" s="3">
-        <v>32379000</v>
+        <v>33850100</v>
       </c>
       <c r="K54" s="3">
         <v>28651200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2150700</v>
+        <v>2248400</v>
       </c>
       <c r="E57" s="3">
-        <v>2960300</v>
+        <v>3094800</v>
       </c>
       <c r="F57" s="3">
-        <v>2597100</v>
+        <v>2715100</v>
       </c>
       <c r="G57" s="3">
-        <v>2728000</v>
+        <v>2851900</v>
       </c>
       <c r="H57" s="3">
-        <v>2218100</v>
+        <v>2318900</v>
       </c>
       <c r="I57" s="3">
-        <v>2070600</v>
+        <v>2164600</v>
       </c>
       <c r="J57" s="3">
-        <v>2823900</v>
+        <v>2952200</v>
       </c>
       <c r="K57" s="3">
         <v>3185500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>180000</v>
+        <v>188200</v>
       </c>
       <c r="E58" s="3">
-        <v>193500</v>
+        <v>202300</v>
       </c>
       <c r="F58" s="3">
-        <v>160200</v>
+        <v>167500</v>
       </c>
       <c r="G58" s="3">
-        <v>160200</v>
+        <v>167500</v>
       </c>
       <c r="H58" s="3">
-        <v>160200</v>
+        <v>167500</v>
       </c>
       <c r="I58" s="3">
-        <v>1548000</v>
+        <v>1618300</v>
       </c>
       <c r="J58" s="3">
-        <v>1568600</v>
+        <v>1639900</v>
       </c>
       <c r="K58" s="3">
         <v>1418800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>349700</v>
+        <v>365600</v>
       </c>
       <c r="E59" s="3">
-        <v>490100</v>
+        <v>512400</v>
       </c>
       <c r="F59" s="3">
-        <v>379100</v>
+        <v>396300</v>
       </c>
       <c r="G59" s="3">
-        <v>391800</v>
+        <v>409600</v>
       </c>
       <c r="H59" s="3">
-        <v>701000</v>
+        <v>732900</v>
       </c>
       <c r="I59" s="3">
-        <v>658200</v>
+        <v>688100</v>
       </c>
       <c r="J59" s="3">
-        <v>350500</v>
+        <v>366400</v>
       </c>
       <c r="K59" s="3">
         <v>852200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2680400</v>
+        <v>2802200</v>
       </c>
       <c r="E60" s="3">
-        <v>3643900</v>
+        <v>3809500</v>
       </c>
       <c r="F60" s="3">
-        <v>3136400</v>
+        <v>3278900</v>
       </c>
       <c r="G60" s="3">
-        <v>3279900</v>
+        <v>3429000</v>
       </c>
       <c r="H60" s="3">
-        <v>3079300</v>
+        <v>3219200</v>
       </c>
       <c r="I60" s="3">
-        <v>4276800</v>
+        <v>4471100</v>
       </c>
       <c r="J60" s="3">
-        <v>4743100</v>
+        <v>4958500</v>
       </c>
       <c r="K60" s="3">
         <v>5456500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3931000</v>
+        <v>4109600</v>
       </c>
       <c r="E61" s="3">
-        <v>3934200</v>
+        <v>4112900</v>
       </c>
       <c r="F61" s="3">
-        <v>3947700</v>
+        <v>4127000</v>
       </c>
       <c r="G61" s="3">
-        <v>3969100</v>
+        <v>4149400</v>
       </c>
       <c r="H61" s="3">
-        <v>3990500</v>
+        <v>4171800</v>
       </c>
       <c r="I61" s="3">
-        <v>5205400</v>
+        <v>5441900</v>
       </c>
       <c r="J61" s="3">
-        <v>3896100</v>
+        <v>4073100</v>
       </c>
       <c r="K61" s="3">
         <v>3421100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6563000</v>
+        <v>6861200</v>
       </c>
       <c r="E62" s="3">
-        <v>6625700</v>
+        <v>6926700</v>
       </c>
       <c r="F62" s="3">
-        <v>6371100</v>
+        <v>6660600</v>
       </c>
       <c r="G62" s="3">
-        <v>6364000</v>
+        <v>6653100</v>
       </c>
       <c r="H62" s="3">
-        <v>6120500</v>
+        <v>6398600</v>
       </c>
       <c r="I62" s="3">
-        <v>6176000</v>
+        <v>6456600</v>
       </c>
       <c r="J62" s="3">
-        <v>5873100</v>
+        <v>6139900</v>
       </c>
       <c r="K62" s="3">
         <v>4743600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13174400</v>
+        <v>13773000</v>
       </c>
       <c r="E66" s="3">
-        <v>14203800</v>
+        <v>14849100</v>
       </c>
       <c r="F66" s="3">
-        <v>13455200</v>
+        <v>14066500</v>
       </c>
       <c r="G66" s="3">
-        <v>13613000</v>
+        <v>14231500</v>
       </c>
       <c r="H66" s="3">
-        <v>13190300</v>
+        <v>13789600</v>
       </c>
       <c r="I66" s="3">
-        <v>15658200</v>
+        <v>16369600</v>
       </c>
       <c r="J66" s="3">
-        <v>14512300</v>
+        <v>15171600</v>
       </c>
       <c r="K66" s="3">
         <v>13621200</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17486100</v>
+        <v>18280600</v>
       </c>
       <c r="E72" s="3">
-        <v>19676400</v>
+        <v>20570400</v>
       </c>
       <c r="F72" s="3">
-        <v>19476600</v>
+        <v>20361500</v>
       </c>
       <c r="G72" s="3">
-        <v>19598700</v>
+        <v>20489100</v>
       </c>
       <c r="H72" s="3">
-        <v>20104600</v>
+        <v>21018100</v>
       </c>
       <c r="I72" s="3">
-        <v>18784300</v>
+        <v>19637700</v>
       </c>
       <c r="J72" s="3">
-        <v>18257700</v>
+        <v>19087200</v>
       </c>
       <c r="K72" s="3">
         <v>15149300</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16984900</v>
+        <v>17756600</v>
       </c>
       <c r="E76" s="3">
-        <v>19251400</v>
+        <v>20126000</v>
       </c>
       <c r="F76" s="3">
-        <v>19420300</v>
+        <v>20302600</v>
       </c>
       <c r="G76" s="3">
-        <v>19377400</v>
+        <v>20257800</v>
       </c>
       <c r="H76" s="3">
-        <v>19842200</v>
+        <v>20743700</v>
       </c>
       <c r="I76" s="3">
-        <v>18576500</v>
+        <v>19420500</v>
       </c>
       <c r="J76" s="3">
-        <v>17866700</v>
+        <v>18678500</v>
       </c>
       <c r="K76" s="3">
         <v>15030000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1472600</v>
+        <v>-1539500</v>
       </c>
       <c r="E81" s="3">
-        <v>1744600</v>
+        <v>1823900</v>
       </c>
       <c r="F81" s="3">
-        <v>1835000</v>
+        <v>1918400</v>
       </c>
       <c r="G81" s="3">
-        <v>388600</v>
+        <v>406200</v>
       </c>
       <c r="H81" s="3">
-        <v>1716900</v>
+        <v>1794900</v>
       </c>
       <c r="I81" s="3">
-        <v>889800</v>
+        <v>930200</v>
       </c>
       <c r="J81" s="3">
-        <v>3001600</v>
+        <v>3138000</v>
       </c>
       <c r="K81" s="3">
         <v>2177100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2595600</v>
+        <v>2713500</v>
       </c>
       <c r="E83" s="3">
-        <v>1267200</v>
+        <v>1324800</v>
       </c>
       <c r="F83" s="3">
-        <v>1196700</v>
+        <v>1251000</v>
       </c>
       <c r="G83" s="3">
-        <v>1722400</v>
+        <v>1800700</v>
       </c>
       <c r="H83" s="3">
-        <v>1291000</v>
+        <v>1349700</v>
       </c>
       <c r="I83" s="3">
-        <v>1149900</v>
+        <v>1202100</v>
       </c>
       <c r="J83" s="3">
-        <v>869100</v>
+        <v>908600</v>
       </c>
       <c r="K83" s="3">
         <v>854500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>632800</v>
+        <v>661600</v>
       </c>
       <c r="E89" s="3">
-        <v>3512300</v>
+        <v>3671900</v>
       </c>
       <c r="F89" s="3">
-        <v>3110200</v>
+        <v>3251500</v>
       </c>
       <c r="G89" s="3">
-        <v>2191100</v>
+        <v>2290700</v>
       </c>
       <c r="H89" s="3">
-        <v>1597900</v>
+        <v>1670500</v>
       </c>
       <c r="I89" s="3">
-        <v>1718500</v>
+        <v>1796600</v>
       </c>
       <c r="J89" s="3">
-        <v>3493300</v>
+        <v>3652000</v>
       </c>
       <c r="K89" s="3">
         <v>2534200</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-688300</v>
+        <v>-719600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1297400</v>
+        <v>-1356300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1182400</v>
+        <v>-1236100</v>
       </c>
       <c r="G91" s="3">
-        <v>-787500</v>
+        <v>-823200</v>
       </c>
       <c r="H91" s="3">
-        <v>-850900</v>
+        <v>-889600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2374300</v>
+        <v>-2482200</v>
       </c>
       <c r="J91" s="3">
-        <v>-4195100</v>
+        <v>-4385700</v>
       </c>
       <c r="K91" s="3">
         <v>-4847600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-636000</v>
+        <v>-664900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1351300</v>
+        <v>-1412700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1236300</v>
+        <v>-1292500</v>
       </c>
       <c r="G94" s="3">
-        <v>-619300</v>
+        <v>-647500</v>
       </c>
       <c r="H94" s="3">
-        <v>1544000</v>
+        <v>1614200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2287100</v>
+        <v>-2391000</v>
       </c>
       <c r="J94" s="3">
-        <v>-3617800</v>
+        <v>-3782100</v>
       </c>
       <c r="K94" s="3">
         <v>-5954600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-514700</v>
+        <v>-538100</v>
       </c>
       <c r="E96" s="3">
-        <v>-500400</v>
+        <v>-523100</v>
       </c>
       <c r="F96" s="3">
-        <v>-453600</v>
+        <v>-474200</v>
       </c>
       <c r="G96" s="3">
-        <v>-415500</v>
+        <v>-434400</v>
       </c>
       <c r="H96" s="3">
-        <v>-390200</v>
+        <v>-407900</v>
       </c>
       <c r="I96" s="3">
-        <v>-356100</v>
+        <v>-372200</v>
       </c>
       <c r="J96" s="3">
-        <v>-349700</v>
+        <v>-365600</v>
       </c>
       <c r="K96" s="3">
         <v>-313300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-747800</v>
+        <v>-781800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1582100</v>
+        <v>-1654000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2038100</v>
+        <v>-2130700</v>
       </c>
       <c r="G100" s="3">
-        <v>-934200</v>
+        <v>-976600</v>
       </c>
       <c r="H100" s="3">
-        <v>-2992900</v>
+        <v>-3128800</v>
       </c>
       <c r="I100" s="3">
-        <v>559100</v>
+        <v>584500</v>
       </c>
       <c r="J100" s="3">
-        <v>79300</v>
+        <v>82900</v>
       </c>
       <c r="K100" s="3">
         <v>3258600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-751000</v>
+        <v>-785100</v>
       </c>
       <c r="E102" s="3">
-        <v>578900</v>
+        <v>605200</v>
       </c>
       <c r="F102" s="3">
-        <v>-164200</v>
+        <v>-171600</v>
       </c>
       <c r="G102" s="3">
-        <v>637600</v>
+        <v>666600</v>
       </c>
       <c r="H102" s="3">
-        <v>149100</v>
+        <v>155900</v>
       </c>
       <c r="I102" s="3">
-        <v>-9500</v>
+        <v>-9900</v>
       </c>
       <c r="J102" s="3">
-        <v>-45200</v>
+        <v>-47300</v>
       </c>
       <c r="K102" s="3">
         <v>-161700</v>

--- a/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18474600</v>
+        <v>17374200</v>
       </c>
       <c r="E8" s="3">
-        <v>28189400</v>
+        <v>26510300</v>
       </c>
       <c r="F8" s="3">
-        <v>28986900</v>
+        <v>27260400</v>
       </c>
       <c r="G8" s="3">
-        <v>24146100</v>
+        <v>22707900</v>
       </c>
       <c r="H8" s="3">
-        <v>20766900</v>
+        <v>19530000</v>
       </c>
       <c r="I8" s="3">
-        <v>22182100</v>
+        <v>20860900</v>
       </c>
       <c r="J8" s="3">
-        <v>30210600</v>
+        <v>28411200</v>
       </c>
       <c r="K8" s="3">
         <v>25257000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15737900</v>
+        <v>14800500</v>
       </c>
       <c r="E9" s="3">
-        <v>22770700</v>
+        <v>21414400</v>
       </c>
       <c r="F9" s="3">
-        <v>22933200</v>
+        <v>21567200</v>
       </c>
       <c r="G9" s="3">
-        <v>19767000</v>
+        <v>18589700</v>
       </c>
       <c r="H9" s="3">
-        <v>16866200</v>
+        <v>15861600</v>
       </c>
       <c r="I9" s="3">
-        <v>17176300</v>
+        <v>16153200</v>
       </c>
       <c r="J9" s="3">
-        <v>23330300</v>
+        <v>21940700</v>
       </c>
       <c r="K9" s="3">
         <v>19586500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2736700</v>
+        <v>2573700</v>
       </c>
       <c r="E10" s="3">
-        <v>5418700</v>
+        <v>5095900</v>
       </c>
       <c r="F10" s="3">
-        <v>6053700</v>
+        <v>5693200</v>
       </c>
       <c r="G10" s="3">
-        <v>4379000</v>
+        <v>4118200</v>
       </c>
       <c r="H10" s="3">
-        <v>3900700</v>
+        <v>3668300</v>
       </c>
       <c r="I10" s="3">
-        <v>5005800</v>
+        <v>4707600</v>
       </c>
       <c r="J10" s="3">
-        <v>6880300</v>
+        <v>6470500</v>
       </c>
       <c r="K10" s="3">
         <v>5670500</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10800</v>
+        <v>10100</v>
       </c>
       <c r="E12" s="3">
-        <v>39000</v>
+        <v>36600</v>
       </c>
       <c r="F12" s="3">
-        <v>15800</v>
+        <v>14800</v>
       </c>
       <c r="G12" s="3">
-        <v>151700</v>
+        <v>142700</v>
       </c>
       <c r="H12" s="3">
-        <v>77900</v>
+        <v>73300</v>
       </c>
       <c r="I12" s="3">
-        <v>60500</v>
+        <v>56900</v>
       </c>
       <c r="J12" s="3">
-        <v>55500</v>
+        <v>52200</v>
       </c>
       <c r="K12" s="3">
         <v>94700</v>
@@ -916,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1157400</v>
+        <v>1088400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1444200</v>
+        <v>1358200</v>
       </c>
       <c r="E15" s="3">
-        <v>1324800</v>
+        <v>1245900</v>
       </c>
       <c r="F15" s="3">
-        <v>1289200</v>
+        <v>1212400</v>
       </c>
       <c r="G15" s="3">
-        <v>1800700</v>
+        <v>1693400</v>
       </c>
       <c r="H15" s="3">
-        <v>1349700</v>
+        <v>1269300</v>
       </c>
       <c r="I15" s="3">
-        <v>1202100</v>
+        <v>1130500</v>
       </c>
       <c r="J15" s="3">
-        <v>908600</v>
+        <v>854500</v>
       </c>
       <c r="K15" s="3">
         <v>854500</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>20504100</v>
+        <v>19282800</v>
       </c>
       <c r="E17" s="3">
-        <v>26498100</v>
+        <v>24919800</v>
       </c>
       <c r="F17" s="3">
-        <v>26461600</v>
+        <v>24885500</v>
       </c>
       <c r="G17" s="3">
-        <v>23846800</v>
+        <v>22426400</v>
       </c>
       <c r="H17" s="3">
-        <v>20597700</v>
+        <v>19370900</v>
       </c>
       <c r="I17" s="3">
-        <v>20664900</v>
+        <v>19434100</v>
       </c>
       <c r="J17" s="3">
-        <v>26480700</v>
+        <v>24903400</v>
       </c>
       <c r="K17" s="3">
         <v>22380200</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-2029500</v>
+        <v>-1908600</v>
       </c>
       <c r="E18" s="3">
-        <v>1691300</v>
+        <v>1590500</v>
       </c>
       <c r="F18" s="3">
-        <v>2525300</v>
+        <v>2374900</v>
       </c>
       <c r="G18" s="3">
-        <v>299300</v>
+        <v>281500</v>
       </c>
       <c r="H18" s="3">
-        <v>169100</v>
+        <v>159100</v>
       </c>
       <c r="I18" s="3">
-        <v>1517200</v>
+        <v>1426800</v>
       </c>
       <c r="J18" s="3">
-        <v>3729900</v>
+        <v>3507700</v>
       </c>
       <c r="K18" s="3">
         <v>2876800</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>83700</v>
+        <v>78700</v>
       </c>
       <c r="E20" s="3">
-        <v>79600</v>
+        <v>74800</v>
       </c>
       <c r="F20" s="3">
-        <v>109400</v>
+        <v>102900</v>
       </c>
       <c r="G20" s="3">
-        <v>237100</v>
+        <v>223000</v>
       </c>
       <c r="H20" s="3">
-        <v>1916800</v>
+        <v>1802600</v>
       </c>
       <c r="I20" s="3">
-        <v>105300</v>
+        <v>99000</v>
       </c>
       <c r="J20" s="3">
-        <v>432800</v>
+        <v>407000</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>772900</v>
+        <v>756400</v>
       </c>
       <c r="E21" s="3">
-        <v>3098200</v>
+        <v>2928100</v>
       </c>
       <c r="F21" s="3">
-        <v>3888100</v>
+        <v>3670200</v>
       </c>
       <c r="G21" s="3">
-        <v>2340500</v>
+        <v>2220800</v>
       </c>
       <c r="H21" s="3">
-        <v>3438200</v>
+        <v>3248100</v>
       </c>
       <c r="I21" s="3">
-        <v>2826900</v>
+        <v>2671600</v>
       </c>
       <c r="J21" s="3">
-        <v>5073000</v>
+        <v>4780800</v>
       </c>
       <c r="K21" s="3">
         <v>3729800</v>
@@ -1161,22 +1161,22 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>50600</v>
+        <v>47600</v>
       </c>
       <c r="E22" s="3">
-        <v>74600</v>
+        <v>70200</v>
       </c>
       <c r="F22" s="3">
-        <v>87100</v>
+        <v>81900</v>
       </c>
       <c r="G22" s="3">
-        <v>53900</v>
+        <v>50700</v>
       </c>
       <c r="H22" s="3">
-        <v>59700</v>
+        <v>56100</v>
       </c>
       <c r="I22" s="3">
-        <v>28200</v>
+        <v>26500</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1996400</v>
+        <v>-1877400</v>
       </c>
       <c r="E23" s="3">
-        <v>1696200</v>
+        <v>1595200</v>
       </c>
       <c r="F23" s="3">
-        <v>2547700</v>
+        <v>2395900</v>
       </c>
       <c r="G23" s="3">
-        <v>482500</v>
+        <v>453800</v>
       </c>
       <c r="H23" s="3">
-        <v>2026200</v>
+        <v>1905500</v>
       </c>
       <c r="I23" s="3">
-        <v>1594300</v>
+        <v>1499300</v>
       </c>
       <c r="J23" s="3">
-        <v>4162700</v>
+        <v>3914700</v>
       </c>
       <c r="K23" s="3">
         <v>2876800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-456800</v>
+        <v>-429600</v>
       </c>
       <c r="E24" s="3">
-        <v>-127700</v>
+        <v>-120100</v>
       </c>
       <c r="F24" s="3">
-        <v>629200</v>
+        <v>591800</v>
       </c>
       <c r="G24" s="3">
-        <v>76300</v>
+        <v>71700</v>
       </c>
       <c r="H24" s="3">
-        <v>231300</v>
+        <v>217500</v>
       </c>
       <c r="I24" s="3">
-        <v>664100</v>
+        <v>624500</v>
       </c>
       <c r="J24" s="3">
-        <v>1024700</v>
+        <v>963700</v>
       </c>
       <c r="K24" s="3">
         <v>699800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1539500</v>
+        <v>-1447800</v>
       </c>
       <c r="E26" s="3">
-        <v>1823900</v>
+        <v>1715300</v>
       </c>
       <c r="F26" s="3">
-        <v>1918400</v>
+        <v>1804200</v>
       </c>
       <c r="G26" s="3">
-        <v>406200</v>
+        <v>382000</v>
       </c>
       <c r="H26" s="3">
-        <v>1794900</v>
+        <v>1688000</v>
       </c>
       <c r="I26" s="3">
-        <v>930200</v>
+        <v>874800</v>
       </c>
       <c r="J26" s="3">
-        <v>3138000</v>
+        <v>2951100</v>
       </c>
       <c r="K26" s="3">
         <v>2177100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1539500</v>
+        <v>-1447800</v>
       </c>
       <c r="E27" s="3">
-        <v>1823900</v>
+        <v>1715300</v>
       </c>
       <c r="F27" s="3">
-        <v>1918400</v>
+        <v>1804200</v>
       </c>
       <c r="G27" s="3">
-        <v>406200</v>
+        <v>382000</v>
       </c>
       <c r="H27" s="3">
-        <v>1794900</v>
+        <v>1688000</v>
       </c>
       <c r="I27" s="3">
-        <v>930200</v>
+        <v>874800</v>
       </c>
       <c r="J27" s="3">
-        <v>3138000</v>
+        <v>2951100</v>
       </c>
       <c r="K27" s="3">
         <v>2177100</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-83700</v>
+        <v>-78700</v>
       </c>
       <c r="E32" s="3">
-        <v>-79600</v>
+        <v>-74800</v>
       </c>
       <c r="F32" s="3">
-        <v>-109400</v>
+        <v>-102900</v>
       </c>
       <c r="G32" s="3">
-        <v>-237100</v>
+        <v>-223000</v>
       </c>
       <c r="H32" s="3">
-        <v>-1916800</v>
+        <v>-1802600</v>
       </c>
       <c r="I32" s="3">
-        <v>-105300</v>
+        <v>-99000</v>
       </c>
       <c r="J32" s="3">
-        <v>-432800</v>
+        <v>-407000</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1539500</v>
+        <v>-1447800</v>
       </c>
       <c r="E33" s="3">
-        <v>1823900</v>
+        <v>1715300</v>
       </c>
       <c r="F33" s="3">
-        <v>1918400</v>
+        <v>1804200</v>
       </c>
       <c r="G33" s="3">
-        <v>406200</v>
+        <v>382000</v>
       </c>
       <c r="H33" s="3">
-        <v>1794900</v>
+        <v>1688000</v>
       </c>
       <c r="I33" s="3">
-        <v>930200</v>
+        <v>874800</v>
       </c>
       <c r="J33" s="3">
-        <v>3138000</v>
+        <v>2951100</v>
       </c>
       <c r="K33" s="3">
         <v>2177100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1539500</v>
+        <v>-1447800</v>
       </c>
       <c r="E35" s="3">
-        <v>1823900</v>
+        <v>1715300</v>
       </c>
       <c r="F35" s="3">
-        <v>1918400</v>
+        <v>1804200</v>
       </c>
       <c r="G35" s="3">
-        <v>406200</v>
+        <v>382000</v>
       </c>
       <c r="H35" s="3">
-        <v>1794900</v>
+        <v>1688000</v>
       </c>
       <c r="I35" s="3">
-        <v>930200</v>
+        <v>874800</v>
       </c>
       <c r="J35" s="3">
-        <v>3138000</v>
+        <v>2951100</v>
       </c>
       <c r="K35" s="3">
         <v>2177100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>639200</v>
+        <v>601100</v>
       </c>
       <c r="E41" s="3">
-        <v>1424300</v>
+        <v>1339500</v>
       </c>
       <c r="F41" s="3">
-        <v>819100</v>
+        <v>770300</v>
       </c>
       <c r="G41" s="3">
-        <v>990700</v>
+        <v>931700</v>
       </c>
       <c r="H41" s="3">
-        <v>324200</v>
+        <v>304900</v>
       </c>
       <c r="I41" s="3">
-        <v>168300</v>
+        <v>158300</v>
       </c>
       <c r="J41" s="3">
-        <v>178200</v>
+        <v>167600</v>
       </c>
       <c r="K41" s="3">
         <v>209400</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1590900</v>
+        <v>1496200</v>
       </c>
       <c r="E43" s="3">
-        <v>2237600</v>
+        <v>2104300</v>
       </c>
       <c r="F43" s="3">
-        <v>2096700</v>
+        <v>1971800</v>
       </c>
       <c r="G43" s="3">
-        <v>2248400</v>
+        <v>2114500</v>
       </c>
       <c r="H43" s="3">
-        <v>1677200</v>
+        <v>1577300</v>
       </c>
       <c r="I43" s="3">
-        <v>1310700</v>
+        <v>1232700</v>
       </c>
       <c r="J43" s="3">
-        <v>1275900</v>
+        <v>1199900</v>
       </c>
       <c r="K43" s="3">
         <v>1604300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>962500</v>
+        <v>905200</v>
       </c>
       <c r="E44" s="3">
-        <v>1074400</v>
+        <v>1010500</v>
       </c>
       <c r="F44" s="3">
-        <v>1075300</v>
+        <v>1011200</v>
       </c>
       <c r="G44" s="3">
-        <v>891200</v>
+        <v>838100</v>
       </c>
       <c r="H44" s="3">
-        <v>786800</v>
+        <v>739900</v>
       </c>
       <c r="I44" s="3">
-        <v>986600</v>
+        <v>927800</v>
       </c>
       <c r="J44" s="3">
-        <v>929400</v>
+        <v>874000</v>
       </c>
       <c r="K44" s="3">
         <v>792900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>558000</v>
+        <v>524700</v>
       </c>
       <c r="E45" s="3">
-        <v>510700</v>
+        <v>480300</v>
       </c>
       <c r="F45" s="3">
-        <v>448500</v>
+        <v>421800</v>
       </c>
       <c r="G45" s="3">
-        <v>352300</v>
+        <v>331400</v>
       </c>
       <c r="H45" s="3">
-        <v>388000</v>
+        <v>364900</v>
       </c>
       <c r="I45" s="3">
-        <v>577000</v>
+        <v>542700</v>
       </c>
       <c r="J45" s="3">
-        <v>575400</v>
+        <v>541100</v>
       </c>
       <c r="K45" s="3">
         <v>693600</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3750600</v>
+        <v>3527200</v>
       </c>
       <c r="E46" s="3">
-        <v>5247100</v>
+        <v>4934500</v>
       </c>
       <c r="F46" s="3">
-        <v>4439600</v>
+        <v>4175100</v>
       </c>
       <c r="G46" s="3">
-        <v>4482700</v>
+        <v>4215700</v>
       </c>
       <c r="H46" s="3">
-        <v>3176100</v>
+        <v>2986900</v>
       </c>
       <c r="I46" s="3">
-        <v>3042600</v>
+        <v>2861400</v>
       </c>
       <c r="J46" s="3">
-        <v>2958900</v>
+        <v>2782600</v>
       </c>
       <c r="K46" s="3">
         <v>3300200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>647500</v>
+        <v>608900</v>
       </c>
       <c r="E47" s="3">
-        <v>738700</v>
+        <v>694700</v>
       </c>
       <c r="F47" s="3">
-        <v>710500</v>
+        <v>668200</v>
       </c>
       <c r="G47" s="3">
-        <v>717100</v>
+        <v>674400</v>
       </c>
       <c r="H47" s="3">
-        <v>853900</v>
+        <v>803100</v>
       </c>
       <c r="I47" s="3">
-        <v>1172300</v>
+        <v>1102500</v>
       </c>
       <c r="J47" s="3">
-        <v>1165600</v>
+        <v>1096200</v>
       </c>
       <c r="K47" s="3">
         <v>1025400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26713600</v>
+        <v>25122500</v>
       </c>
       <c r="E48" s="3">
-        <v>28571600</v>
+        <v>26869800</v>
       </c>
       <c r="F48" s="3">
-        <v>28374200</v>
+        <v>26684200</v>
       </c>
       <c r="G48" s="3">
-        <v>28579800</v>
+        <v>26877600</v>
       </c>
       <c r="H48" s="3">
-        <v>30121900</v>
+        <v>28327800</v>
       </c>
       <c r="I48" s="3">
-        <v>31337300</v>
+        <v>29470700</v>
       </c>
       <c r="J48" s="3">
-        <v>29492600</v>
+        <v>27736000</v>
       </c>
       <c r="K48" s="3">
         <v>24110800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>137600</v>
+        <v>129400</v>
       </c>
       <c r="E49" s="3">
-        <v>154200</v>
+        <v>145000</v>
       </c>
       <c r="F49" s="3">
-        <v>154200</v>
+        <v>145000</v>
       </c>
       <c r="G49" s="3">
-        <v>154200</v>
+        <v>145000</v>
       </c>
       <c r="H49" s="3">
-        <v>154200</v>
+        <v>145000</v>
       </c>
       <c r="I49" s="3">
-        <v>185700</v>
+        <v>174600</v>
       </c>
       <c r="J49" s="3">
-        <v>185700</v>
+        <v>174600</v>
       </c>
       <c r="K49" s="3">
         <v>172400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>280200</v>
+        <v>263500</v>
       </c>
       <c r="E52" s="3">
-        <v>263600</v>
+        <v>247900</v>
       </c>
       <c r="F52" s="3">
-        <v>690600</v>
+        <v>649500</v>
       </c>
       <c r="G52" s="3">
-        <v>555500</v>
+        <v>522400</v>
       </c>
       <c r="H52" s="3">
-        <v>227200</v>
+        <v>213600</v>
       </c>
       <c r="I52" s="3">
-        <v>52200</v>
+        <v>49100</v>
       </c>
       <c r="J52" s="3">
-        <v>47300</v>
+        <v>44400</v>
       </c>
       <c r="K52" s="3">
         <v>42300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31529600</v>
+        <v>29651600</v>
       </c>
       <c r="E54" s="3">
-        <v>34975100</v>
+        <v>32891900</v>
       </c>
       <c r="F54" s="3">
-        <v>34369100</v>
+        <v>32322000</v>
       </c>
       <c r="G54" s="3">
-        <v>34489300</v>
+        <v>32435100</v>
       </c>
       <c r="H54" s="3">
-        <v>34533200</v>
+        <v>32476400</v>
       </c>
       <c r="I54" s="3">
-        <v>35790100</v>
+        <v>33658400</v>
       </c>
       <c r="J54" s="3">
-        <v>33850100</v>
+        <v>31833900</v>
       </c>
       <c r="K54" s="3">
         <v>28651200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2248400</v>
+        <v>2114500</v>
       </c>
       <c r="E57" s="3">
-        <v>3094800</v>
+        <v>2910500</v>
       </c>
       <c r="F57" s="3">
-        <v>2715100</v>
+        <v>2553400</v>
       </c>
       <c r="G57" s="3">
-        <v>2851900</v>
+        <v>2682100</v>
       </c>
       <c r="H57" s="3">
-        <v>2318900</v>
+        <v>2180700</v>
       </c>
       <c r="I57" s="3">
-        <v>2164600</v>
+        <v>2035700</v>
       </c>
       <c r="J57" s="3">
-        <v>2952200</v>
+        <v>2776400</v>
       </c>
       <c r="K57" s="3">
         <v>3185500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>188200</v>
+        <v>177000</v>
       </c>
       <c r="E58" s="3">
-        <v>202300</v>
+        <v>190200</v>
       </c>
       <c r="F58" s="3">
-        <v>167500</v>
+        <v>157500</v>
       </c>
       <c r="G58" s="3">
-        <v>167500</v>
+        <v>157500</v>
       </c>
       <c r="H58" s="3">
-        <v>167500</v>
+        <v>157500</v>
       </c>
       <c r="I58" s="3">
-        <v>1618300</v>
+        <v>1521900</v>
       </c>
       <c r="J58" s="3">
-        <v>1639900</v>
+        <v>1542200</v>
       </c>
       <c r="K58" s="3">
         <v>1418800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>365600</v>
+        <v>343800</v>
       </c>
       <c r="E59" s="3">
-        <v>512400</v>
+        <v>481800</v>
       </c>
       <c r="F59" s="3">
-        <v>396300</v>
+        <v>372700</v>
       </c>
       <c r="G59" s="3">
-        <v>409600</v>
+        <v>385200</v>
       </c>
       <c r="H59" s="3">
-        <v>732900</v>
+        <v>689200</v>
       </c>
       <c r="I59" s="3">
-        <v>688100</v>
+        <v>647100</v>
       </c>
       <c r="J59" s="3">
-        <v>366400</v>
+        <v>344600</v>
       </c>
       <c r="K59" s="3">
         <v>852200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2802200</v>
+        <v>2635300</v>
       </c>
       <c r="E60" s="3">
-        <v>3809500</v>
+        <v>3582600</v>
       </c>
       <c r="F60" s="3">
-        <v>3278900</v>
+        <v>3083600</v>
       </c>
       <c r="G60" s="3">
-        <v>3429000</v>
+        <v>3224700</v>
       </c>
       <c r="H60" s="3">
-        <v>3219200</v>
+        <v>3027500</v>
       </c>
       <c r="I60" s="3">
-        <v>4471100</v>
+        <v>4204800</v>
       </c>
       <c r="J60" s="3">
-        <v>4958500</v>
+        <v>4663200</v>
       </c>
       <c r="K60" s="3">
         <v>5456500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4109600</v>
+        <v>3864800</v>
       </c>
       <c r="E61" s="3">
-        <v>4112900</v>
+        <v>3867900</v>
       </c>
       <c r="F61" s="3">
-        <v>4127000</v>
+        <v>3881200</v>
       </c>
       <c r="G61" s="3">
-        <v>4149400</v>
+        <v>3902200</v>
       </c>
       <c r="H61" s="3">
-        <v>4171800</v>
+        <v>3923300</v>
       </c>
       <c r="I61" s="3">
-        <v>5441900</v>
+        <v>5117800</v>
       </c>
       <c r="J61" s="3">
-        <v>4073100</v>
+        <v>3830500</v>
       </c>
       <c r="K61" s="3">
         <v>3421100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6861200</v>
+        <v>6452500</v>
       </c>
       <c r="E62" s="3">
-        <v>6926700</v>
+        <v>6514100</v>
       </c>
       <c r="F62" s="3">
-        <v>6660600</v>
+        <v>6263900</v>
       </c>
       <c r="G62" s="3">
-        <v>6653100</v>
+        <v>6256900</v>
       </c>
       <c r="H62" s="3">
-        <v>6398600</v>
+        <v>6017500</v>
       </c>
       <c r="I62" s="3">
-        <v>6456600</v>
+        <v>6072100</v>
       </c>
       <c r="J62" s="3">
-        <v>6139900</v>
+        <v>5774200</v>
       </c>
       <c r="K62" s="3">
         <v>4743600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13773000</v>
+        <v>12952700</v>
       </c>
       <c r="E66" s="3">
-        <v>14849100</v>
+        <v>13964700</v>
       </c>
       <c r="F66" s="3">
-        <v>14066500</v>
+        <v>13228700</v>
       </c>
       <c r="G66" s="3">
-        <v>14231500</v>
+        <v>13383800</v>
       </c>
       <c r="H66" s="3">
-        <v>13789600</v>
+        <v>12968300</v>
       </c>
       <c r="I66" s="3">
-        <v>16369600</v>
+        <v>15394600</v>
       </c>
       <c r="J66" s="3">
-        <v>15171600</v>
+        <v>14268000</v>
       </c>
       <c r="K66" s="3">
         <v>13621200</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18280600</v>
+        <v>17191700</v>
       </c>
       <c r="E72" s="3">
-        <v>20570400</v>
+        <v>19345200</v>
       </c>
       <c r="F72" s="3">
-        <v>20361500</v>
+        <v>19148700</v>
       </c>
       <c r="G72" s="3">
-        <v>20489100</v>
+        <v>19268800</v>
       </c>
       <c r="H72" s="3">
-        <v>21018100</v>
+        <v>19766200</v>
       </c>
       <c r="I72" s="3">
-        <v>19637700</v>
+        <v>18468000</v>
       </c>
       <c r="J72" s="3">
-        <v>19087200</v>
+        <v>17950300</v>
       </c>
       <c r="K72" s="3">
         <v>15149300</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17756600</v>
+        <v>16699000</v>
       </c>
       <c r="E76" s="3">
-        <v>20126000</v>
+        <v>18927300</v>
       </c>
       <c r="F76" s="3">
-        <v>20302600</v>
+        <v>19093300</v>
       </c>
       <c r="G76" s="3">
-        <v>20257800</v>
+        <v>19051200</v>
       </c>
       <c r="H76" s="3">
-        <v>20743700</v>
+        <v>19508100</v>
       </c>
       <c r="I76" s="3">
-        <v>19420500</v>
+        <v>18263800</v>
       </c>
       <c r="J76" s="3">
-        <v>18678500</v>
+        <v>17566000</v>
       </c>
       <c r="K76" s="3">
         <v>15030000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1539500</v>
+        <v>-1447800</v>
       </c>
       <c r="E81" s="3">
-        <v>1823900</v>
+        <v>1715300</v>
       </c>
       <c r="F81" s="3">
-        <v>1918400</v>
+        <v>1804200</v>
       </c>
       <c r="G81" s="3">
-        <v>406200</v>
+        <v>382000</v>
       </c>
       <c r="H81" s="3">
-        <v>1794900</v>
+        <v>1688000</v>
       </c>
       <c r="I81" s="3">
-        <v>930200</v>
+        <v>874800</v>
       </c>
       <c r="J81" s="3">
-        <v>3138000</v>
+        <v>2951100</v>
       </c>
       <c r="K81" s="3">
         <v>2177100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2713500</v>
+        <v>2551900</v>
       </c>
       <c r="E83" s="3">
-        <v>1324800</v>
+        <v>1245900</v>
       </c>
       <c r="F83" s="3">
-        <v>1251000</v>
+        <v>1176500</v>
       </c>
       <c r="G83" s="3">
-        <v>1800700</v>
+        <v>1693400</v>
       </c>
       <c r="H83" s="3">
-        <v>1349700</v>
+        <v>1269300</v>
       </c>
       <c r="I83" s="3">
-        <v>1202100</v>
+        <v>1130500</v>
       </c>
       <c r="J83" s="3">
-        <v>908600</v>
+        <v>854500</v>
       </c>
       <c r="K83" s="3">
         <v>854500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>661600</v>
+        <v>622200</v>
       </c>
       <c r="E89" s="3">
-        <v>3671900</v>
+        <v>3453200</v>
       </c>
       <c r="F89" s="3">
-        <v>3251500</v>
+        <v>3057900</v>
       </c>
       <c r="G89" s="3">
-        <v>2290700</v>
+        <v>2154200</v>
       </c>
       <c r="H89" s="3">
-        <v>1670500</v>
+        <v>1571000</v>
       </c>
       <c r="I89" s="3">
-        <v>1796600</v>
+        <v>1689500</v>
       </c>
       <c r="J89" s="3">
-        <v>3652000</v>
+        <v>3434400</v>
       </c>
       <c r="K89" s="3">
         <v>2534200</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-719600</v>
+        <v>-676800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1356300</v>
+        <v>-1275500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1236100</v>
+        <v>-1162500</v>
       </c>
       <c r="G91" s="3">
-        <v>-823200</v>
+        <v>-774200</v>
       </c>
       <c r="H91" s="3">
-        <v>-889600</v>
+        <v>-836600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2482200</v>
+        <v>-2334300</v>
       </c>
       <c r="J91" s="3">
-        <v>-4385700</v>
+        <v>-4124500</v>
       </c>
       <c r="K91" s="3">
         <v>-4847600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-664900</v>
+        <v>-625300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1412700</v>
+        <v>-1328600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1292500</v>
+        <v>-1215500</v>
       </c>
       <c r="G94" s="3">
-        <v>-647500</v>
+        <v>-608900</v>
       </c>
       <c r="H94" s="3">
-        <v>1614200</v>
+        <v>1518000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2391000</v>
+        <v>-2248600</v>
       </c>
       <c r="J94" s="3">
-        <v>-3782100</v>
+        <v>-3556900</v>
       </c>
       <c r="K94" s="3">
         <v>-5954600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-538100</v>
+        <v>-506000</v>
       </c>
       <c r="E96" s="3">
-        <v>-523100</v>
+        <v>-492000</v>
       </c>
       <c r="F96" s="3">
-        <v>-474200</v>
+        <v>-446000</v>
       </c>
       <c r="G96" s="3">
-        <v>-434400</v>
+        <v>-408500</v>
       </c>
       <c r="H96" s="3">
-        <v>-407900</v>
+        <v>-383600</v>
       </c>
       <c r="I96" s="3">
-        <v>-372200</v>
+        <v>-350100</v>
       </c>
       <c r="J96" s="3">
-        <v>-365600</v>
+        <v>-343800</v>
       </c>
       <c r="K96" s="3">
         <v>-313300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-781800</v>
+        <v>-735200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1654000</v>
+        <v>-1555400</v>
       </c>
       <c r="F100" s="3">
-        <v>-2130700</v>
+        <v>-2003800</v>
       </c>
       <c r="G100" s="3">
-        <v>-976600</v>
+        <v>-918500</v>
       </c>
       <c r="H100" s="3">
-        <v>-3128800</v>
+        <v>-2942500</v>
       </c>
       <c r="I100" s="3">
-        <v>584500</v>
+        <v>549700</v>
       </c>
       <c r="J100" s="3">
-        <v>82900</v>
+        <v>78000</v>
       </c>
       <c r="K100" s="3">
         <v>3258600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-785100</v>
+        <v>-738300</v>
       </c>
       <c r="E102" s="3">
-        <v>605200</v>
+        <v>569200</v>
       </c>
       <c r="F102" s="3">
-        <v>-171600</v>
+        <v>-161400</v>
       </c>
       <c r="G102" s="3">
-        <v>666600</v>
+        <v>626900</v>
       </c>
       <c r="H102" s="3">
-        <v>155900</v>
+        <v>146600</v>
       </c>
       <c r="I102" s="3">
-        <v>-9900</v>
+        <v>-9400</v>
       </c>
       <c r="J102" s="3">
-        <v>-47300</v>
+        <v>-44400</v>
       </c>
       <c r="K102" s="3">
         <v>-161700</v>

--- a/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17374200</v>
+        <v>17494100</v>
       </c>
       <c r="E8" s="3">
-        <v>26510300</v>
+        <v>26693300</v>
       </c>
       <c r="F8" s="3">
-        <v>27260400</v>
+        <v>27448500</v>
       </c>
       <c r="G8" s="3">
-        <v>22707900</v>
+        <v>22864600</v>
       </c>
       <c r="H8" s="3">
-        <v>19530000</v>
+        <v>19664700</v>
       </c>
       <c r="I8" s="3">
-        <v>20860900</v>
+        <v>21004800</v>
       </c>
       <c r="J8" s="3">
-        <v>28411200</v>
+        <v>28607200</v>
       </c>
       <c r="K8" s="3">
         <v>25257000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14800500</v>
+        <v>14902600</v>
       </c>
       <c r="E9" s="3">
-        <v>21414400</v>
+        <v>21562200</v>
       </c>
       <c r="F9" s="3">
-        <v>21567200</v>
+        <v>21716100</v>
       </c>
       <c r="G9" s="3">
-        <v>18589700</v>
+        <v>18717900</v>
       </c>
       <c r="H9" s="3">
-        <v>15861600</v>
+        <v>15971100</v>
       </c>
       <c r="I9" s="3">
-        <v>16153200</v>
+        <v>16264700</v>
       </c>
       <c r="J9" s="3">
-        <v>21940700</v>
+        <v>22092100</v>
       </c>
       <c r="K9" s="3">
         <v>19586500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2573700</v>
+        <v>2591500</v>
       </c>
       <c r="E10" s="3">
-        <v>5095900</v>
+        <v>5131100</v>
       </c>
       <c r="F10" s="3">
-        <v>5693200</v>
+        <v>5732400</v>
       </c>
       <c r="G10" s="3">
-        <v>4118200</v>
+        <v>4146600</v>
       </c>
       <c r="H10" s="3">
-        <v>3668300</v>
+        <v>3693700</v>
       </c>
       <c r="I10" s="3">
-        <v>4707600</v>
+        <v>4740100</v>
       </c>
       <c r="J10" s="3">
-        <v>6470500</v>
+        <v>6515100</v>
       </c>
       <c r="K10" s="3">
         <v>5670500</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="E12" s="3">
-        <v>36600</v>
+        <v>36900</v>
       </c>
       <c r="F12" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="G12" s="3">
-        <v>142700</v>
+        <v>143700</v>
       </c>
       <c r="H12" s="3">
-        <v>73300</v>
+        <v>73800</v>
       </c>
       <c r="I12" s="3">
-        <v>56900</v>
+        <v>57300</v>
       </c>
       <c r="J12" s="3">
-        <v>52200</v>
+        <v>52600</v>
       </c>
       <c r="K12" s="3">
         <v>94700</v>
@@ -916,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1088400</v>
+        <v>1095900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1358200</v>
+        <v>1367600</v>
       </c>
       <c r="E15" s="3">
-        <v>1245900</v>
+        <v>1254500</v>
       </c>
       <c r="F15" s="3">
-        <v>1212400</v>
+        <v>1220800</v>
       </c>
       <c r="G15" s="3">
-        <v>1693400</v>
+        <v>1705100</v>
       </c>
       <c r="H15" s="3">
-        <v>1269300</v>
+        <v>1278100</v>
       </c>
       <c r="I15" s="3">
-        <v>1130500</v>
+        <v>1138300</v>
       </c>
       <c r="J15" s="3">
-        <v>854500</v>
+        <v>860400</v>
       </c>
       <c r="K15" s="3">
         <v>854500</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>19282800</v>
+        <v>19415900</v>
       </c>
       <c r="E17" s="3">
-        <v>24919800</v>
+        <v>25091800</v>
       </c>
       <c r="F17" s="3">
-        <v>24885500</v>
+        <v>25057200</v>
       </c>
       <c r="G17" s="3">
-        <v>22426400</v>
+        <v>22581200</v>
       </c>
       <c r="H17" s="3">
-        <v>19370900</v>
+        <v>19504600</v>
       </c>
       <c r="I17" s="3">
-        <v>19434100</v>
+        <v>19568200</v>
       </c>
       <c r="J17" s="3">
-        <v>24903400</v>
+        <v>25075300</v>
       </c>
       <c r="K17" s="3">
         <v>22380200</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-1908600</v>
+        <v>-1921800</v>
       </c>
       <c r="E18" s="3">
-        <v>1590500</v>
+        <v>1601500</v>
       </c>
       <c r="F18" s="3">
-        <v>2374900</v>
+        <v>2391300</v>
       </c>
       <c r="G18" s="3">
-        <v>281500</v>
+        <v>283400</v>
       </c>
       <c r="H18" s="3">
-        <v>159100</v>
+        <v>160200</v>
       </c>
       <c r="I18" s="3">
-        <v>1426800</v>
+        <v>1436600</v>
       </c>
       <c r="J18" s="3">
-        <v>3507700</v>
+        <v>3531900</v>
       </c>
       <c r="K18" s="3">
         <v>2876800</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>78700</v>
+        <v>79300</v>
       </c>
       <c r="E20" s="3">
-        <v>74800</v>
+        <v>75400</v>
       </c>
       <c r="F20" s="3">
-        <v>102900</v>
+        <v>103600</v>
       </c>
       <c r="G20" s="3">
-        <v>223000</v>
+        <v>224500</v>
       </c>
       <c r="H20" s="3">
-        <v>1802600</v>
+        <v>1815000</v>
       </c>
       <c r="I20" s="3">
-        <v>99000</v>
+        <v>99700</v>
       </c>
       <c r="J20" s="3">
-        <v>407000</v>
+        <v>409800</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>756400</v>
+        <v>717300</v>
       </c>
       <c r="E21" s="3">
-        <v>2928100</v>
+        <v>2926700</v>
       </c>
       <c r="F21" s="3">
-        <v>3670200</v>
+        <v>3675100</v>
       </c>
       <c r="G21" s="3">
-        <v>2220800</v>
+        <v>2206700</v>
       </c>
       <c r="H21" s="3">
-        <v>3248100</v>
+        <v>3248500</v>
       </c>
       <c r="I21" s="3">
-        <v>2671600</v>
+        <v>2670400</v>
       </c>
       <c r="J21" s="3">
-        <v>4780800</v>
+        <v>4798900</v>
       </c>
       <c r="K21" s="3">
         <v>3729800</v>
@@ -1161,22 +1161,22 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>47600</v>
+        <v>47900</v>
       </c>
       <c r="E22" s="3">
-        <v>70200</v>
+        <v>70700</v>
       </c>
       <c r="F22" s="3">
-        <v>81900</v>
+        <v>82400</v>
       </c>
       <c r="G22" s="3">
-        <v>50700</v>
+        <v>51000</v>
       </c>
       <c r="H22" s="3">
-        <v>56100</v>
+        <v>56500</v>
       </c>
       <c r="I22" s="3">
-        <v>26500</v>
+        <v>26700</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1877400</v>
+        <v>-1890400</v>
       </c>
       <c r="E23" s="3">
-        <v>1595200</v>
+        <v>1606200</v>
       </c>
       <c r="F23" s="3">
-        <v>2395900</v>
+        <v>2412500</v>
       </c>
       <c r="G23" s="3">
-        <v>453800</v>
+        <v>456900</v>
       </c>
       <c r="H23" s="3">
-        <v>1905500</v>
+        <v>1918700</v>
       </c>
       <c r="I23" s="3">
-        <v>1499300</v>
+        <v>1509700</v>
       </c>
       <c r="J23" s="3">
-        <v>3914700</v>
+        <v>3941700</v>
       </c>
       <c r="K23" s="3">
         <v>2876800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-429600</v>
+        <v>-432600</v>
       </c>
       <c r="E24" s="3">
-        <v>-120100</v>
+        <v>-120900</v>
       </c>
       <c r="F24" s="3">
-        <v>591800</v>
+        <v>595900</v>
       </c>
       <c r="G24" s="3">
-        <v>71700</v>
+        <v>72200</v>
       </c>
       <c r="H24" s="3">
-        <v>217500</v>
+        <v>219000</v>
       </c>
       <c r="I24" s="3">
-        <v>624500</v>
+        <v>628800</v>
       </c>
       <c r="J24" s="3">
-        <v>963700</v>
+        <v>970300</v>
       </c>
       <c r="K24" s="3">
         <v>699800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1447800</v>
+        <v>-1457800</v>
       </c>
       <c r="E26" s="3">
-        <v>1715300</v>
+        <v>1727100</v>
       </c>
       <c r="F26" s="3">
-        <v>1804200</v>
+        <v>1816600</v>
       </c>
       <c r="G26" s="3">
-        <v>382000</v>
+        <v>384700</v>
       </c>
       <c r="H26" s="3">
-        <v>1688000</v>
+        <v>1699600</v>
       </c>
       <c r="I26" s="3">
-        <v>874800</v>
+        <v>880800</v>
       </c>
       <c r="J26" s="3">
-        <v>2951100</v>
+        <v>2971400</v>
       </c>
       <c r="K26" s="3">
         <v>2177100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1447800</v>
+        <v>-1457800</v>
       </c>
       <c r="E27" s="3">
-        <v>1715300</v>
+        <v>1727100</v>
       </c>
       <c r="F27" s="3">
-        <v>1804200</v>
+        <v>1816600</v>
       </c>
       <c r="G27" s="3">
-        <v>382000</v>
+        <v>384700</v>
       </c>
       <c r="H27" s="3">
-        <v>1688000</v>
+        <v>1699600</v>
       </c>
       <c r="I27" s="3">
-        <v>874800</v>
+        <v>880800</v>
       </c>
       <c r="J27" s="3">
-        <v>2951100</v>
+        <v>2971400</v>
       </c>
       <c r="K27" s="3">
         <v>2177100</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-78700</v>
+        <v>-79300</v>
       </c>
       <c r="E32" s="3">
-        <v>-74800</v>
+        <v>-75400</v>
       </c>
       <c r="F32" s="3">
-        <v>-102900</v>
+        <v>-103600</v>
       </c>
       <c r="G32" s="3">
-        <v>-223000</v>
+        <v>-224500</v>
       </c>
       <c r="H32" s="3">
-        <v>-1802600</v>
+        <v>-1815000</v>
       </c>
       <c r="I32" s="3">
-        <v>-99000</v>
+        <v>-99700</v>
       </c>
       <c r="J32" s="3">
-        <v>-407000</v>
+        <v>-409800</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1447800</v>
+        <v>-1457800</v>
       </c>
       <c r="E33" s="3">
-        <v>1715300</v>
+        <v>1727100</v>
       </c>
       <c r="F33" s="3">
-        <v>1804200</v>
+        <v>1816600</v>
       </c>
       <c r="G33" s="3">
-        <v>382000</v>
+        <v>384700</v>
       </c>
       <c r="H33" s="3">
-        <v>1688000</v>
+        <v>1699600</v>
       </c>
       <c r="I33" s="3">
-        <v>874800</v>
+        <v>880800</v>
       </c>
       <c r="J33" s="3">
-        <v>2951100</v>
+        <v>2971400</v>
       </c>
       <c r="K33" s="3">
         <v>2177100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1447800</v>
+        <v>-1457800</v>
       </c>
       <c r="E35" s="3">
-        <v>1715300</v>
+        <v>1727100</v>
       </c>
       <c r="F35" s="3">
-        <v>1804200</v>
+        <v>1816600</v>
       </c>
       <c r="G35" s="3">
-        <v>382000</v>
+        <v>384700</v>
       </c>
       <c r="H35" s="3">
-        <v>1688000</v>
+        <v>1699600</v>
       </c>
       <c r="I35" s="3">
-        <v>874800</v>
+        <v>880800</v>
       </c>
       <c r="J35" s="3">
-        <v>2951100</v>
+        <v>2971400</v>
       </c>
       <c r="K35" s="3">
         <v>2177100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>601100</v>
+        <v>605300</v>
       </c>
       <c r="E41" s="3">
-        <v>1339500</v>
+        <v>1348700</v>
       </c>
       <c r="F41" s="3">
-        <v>770300</v>
+        <v>775600</v>
       </c>
       <c r="G41" s="3">
-        <v>931700</v>
+        <v>938100</v>
       </c>
       <c r="H41" s="3">
-        <v>304900</v>
+        <v>307000</v>
       </c>
       <c r="I41" s="3">
-        <v>158300</v>
+        <v>159400</v>
       </c>
       <c r="J41" s="3">
-        <v>167600</v>
+        <v>168800</v>
       </c>
       <c r="K41" s="3">
         <v>209400</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1496200</v>
+        <v>1506500</v>
       </c>
       <c r="E43" s="3">
-        <v>2104300</v>
+        <v>2118800</v>
       </c>
       <c r="F43" s="3">
-        <v>1971800</v>
+        <v>1985400</v>
       </c>
       <c r="G43" s="3">
-        <v>2114500</v>
+        <v>2129100</v>
       </c>
       <c r="H43" s="3">
-        <v>1577300</v>
+        <v>1588200</v>
       </c>
       <c r="I43" s="3">
-        <v>1232700</v>
+        <v>1241200</v>
       </c>
       <c r="J43" s="3">
-        <v>1199900</v>
+        <v>1208200</v>
       </c>
       <c r="K43" s="3">
         <v>1604300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>905200</v>
+        <v>911400</v>
       </c>
       <c r="E44" s="3">
-        <v>1010500</v>
+        <v>1017400</v>
       </c>
       <c r="F44" s="3">
-        <v>1011200</v>
+        <v>1018200</v>
       </c>
       <c r="G44" s="3">
-        <v>838100</v>
+        <v>843900</v>
       </c>
       <c r="H44" s="3">
-        <v>739900</v>
+        <v>745000</v>
       </c>
       <c r="I44" s="3">
-        <v>927800</v>
+        <v>934200</v>
       </c>
       <c r="J44" s="3">
-        <v>874000</v>
+        <v>880000</v>
       </c>
       <c r="K44" s="3">
         <v>792900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>524700</v>
+        <v>528300</v>
       </c>
       <c r="E45" s="3">
-        <v>480300</v>
+        <v>483600</v>
       </c>
       <c r="F45" s="3">
-        <v>421800</v>
+        <v>424700</v>
       </c>
       <c r="G45" s="3">
-        <v>331400</v>
+        <v>333600</v>
       </c>
       <c r="H45" s="3">
-        <v>364900</v>
+        <v>367400</v>
       </c>
       <c r="I45" s="3">
-        <v>542700</v>
+        <v>546400</v>
       </c>
       <c r="J45" s="3">
-        <v>541100</v>
+        <v>544800</v>
       </c>
       <c r="K45" s="3">
         <v>693600</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3527200</v>
+        <v>3551600</v>
       </c>
       <c r="E46" s="3">
-        <v>4934500</v>
+        <v>4968600</v>
       </c>
       <c r="F46" s="3">
-        <v>4175100</v>
+        <v>4203900</v>
       </c>
       <c r="G46" s="3">
-        <v>4215700</v>
+        <v>4244800</v>
       </c>
       <c r="H46" s="3">
-        <v>2986900</v>
+        <v>3007500</v>
       </c>
       <c r="I46" s="3">
-        <v>2861400</v>
+        <v>2881100</v>
       </c>
       <c r="J46" s="3">
-        <v>2782600</v>
+        <v>2801800</v>
       </c>
       <c r="K46" s="3">
         <v>3300200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>608900</v>
+        <v>613100</v>
       </c>
       <c r="E47" s="3">
-        <v>694700</v>
+        <v>699500</v>
       </c>
       <c r="F47" s="3">
-        <v>668200</v>
+        <v>672800</v>
       </c>
       <c r="G47" s="3">
-        <v>674400</v>
+        <v>679100</v>
       </c>
       <c r="H47" s="3">
-        <v>803100</v>
+        <v>808600</v>
       </c>
       <c r="I47" s="3">
-        <v>1102500</v>
+        <v>1110100</v>
       </c>
       <c r="J47" s="3">
-        <v>1096200</v>
+        <v>1103800</v>
       </c>
       <c r="K47" s="3">
         <v>1025400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25122500</v>
+        <v>25295900</v>
       </c>
       <c r="E48" s="3">
-        <v>26869800</v>
+        <v>27055200</v>
       </c>
       <c r="F48" s="3">
-        <v>26684200</v>
+        <v>26868300</v>
       </c>
       <c r="G48" s="3">
-        <v>26877600</v>
+        <v>27063000</v>
       </c>
       <c r="H48" s="3">
-        <v>28327800</v>
+        <v>28523200</v>
       </c>
       <c r="I48" s="3">
-        <v>29470700</v>
+        <v>29674100</v>
       </c>
       <c r="J48" s="3">
-        <v>27736000</v>
+        <v>27927400</v>
       </c>
       <c r="K48" s="3">
         <v>24110800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>129400</v>
+        <v>130300</v>
       </c>
       <c r="E49" s="3">
-        <v>145000</v>
+        <v>146000</v>
       </c>
       <c r="F49" s="3">
-        <v>145000</v>
+        <v>146000</v>
       </c>
       <c r="G49" s="3">
-        <v>145000</v>
+        <v>146000</v>
       </c>
       <c r="H49" s="3">
-        <v>145000</v>
+        <v>146000</v>
       </c>
       <c r="I49" s="3">
-        <v>174600</v>
+        <v>175900</v>
       </c>
       <c r="J49" s="3">
-        <v>174600</v>
+        <v>175900</v>
       </c>
       <c r="K49" s="3">
         <v>172400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>263500</v>
+        <v>265300</v>
       </c>
       <c r="E52" s="3">
-        <v>247900</v>
+        <v>249600</v>
       </c>
       <c r="F52" s="3">
-        <v>649500</v>
+        <v>653900</v>
       </c>
       <c r="G52" s="3">
-        <v>522400</v>
+        <v>526000</v>
       </c>
       <c r="H52" s="3">
-        <v>213600</v>
+        <v>215100</v>
       </c>
       <c r="I52" s="3">
-        <v>49100</v>
+        <v>49500</v>
       </c>
       <c r="J52" s="3">
-        <v>44400</v>
+        <v>44700</v>
       </c>
       <c r="K52" s="3">
         <v>42300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29651600</v>
+        <v>29856200</v>
       </c>
       <c r="E54" s="3">
-        <v>32891900</v>
+        <v>33118900</v>
       </c>
       <c r="F54" s="3">
-        <v>32322000</v>
+        <v>32545000</v>
       </c>
       <c r="G54" s="3">
-        <v>32435100</v>
+        <v>32658900</v>
       </c>
       <c r="H54" s="3">
-        <v>32476400</v>
+        <v>32700500</v>
       </c>
       <c r="I54" s="3">
-        <v>33658400</v>
+        <v>33890600</v>
       </c>
       <c r="J54" s="3">
-        <v>31833900</v>
+        <v>32053600</v>
       </c>
       <c r="K54" s="3">
         <v>28651200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2114500</v>
+        <v>2129100</v>
       </c>
       <c r="E57" s="3">
-        <v>2910500</v>
+        <v>2930600</v>
       </c>
       <c r="F57" s="3">
-        <v>2553400</v>
+        <v>2571000</v>
       </c>
       <c r="G57" s="3">
-        <v>2682100</v>
+        <v>2700600</v>
       </c>
       <c r="H57" s="3">
-        <v>2180700</v>
+        <v>2195800</v>
       </c>
       <c r="I57" s="3">
-        <v>2035700</v>
+        <v>2049800</v>
       </c>
       <c r="J57" s="3">
-        <v>2776400</v>
+        <v>2795600</v>
       </c>
       <c r="K57" s="3">
         <v>3185500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>177000</v>
+        <v>178200</v>
       </c>
       <c r="E58" s="3">
-        <v>190200</v>
+        <v>191600</v>
       </c>
       <c r="F58" s="3">
-        <v>157500</v>
+        <v>158600</v>
       </c>
       <c r="G58" s="3">
-        <v>157500</v>
+        <v>158600</v>
       </c>
       <c r="H58" s="3">
-        <v>157500</v>
+        <v>158600</v>
       </c>
       <c r="I58" s="3">
-        <v>1521900</v>
+        <v>1532400</v>
       </c>
       <c r="J58" s="3">
-        <v>1542200</v>
+        <v>1552800</v>
       </c>
       <c r="K58" s="3">
         <v>1418800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>343800</v>
+        <v>346200</v>
       </c>
       <c r="E59" s="3">
-        <v>481800</v>
+        <v>485200</v>
       </c>
       <c r="F59" s="3">
-        <v>372700</v>
+        <v>375300</v>
       </c>
       <c r="G59" s="3">
-        <v>385200</v>
+        <v>387800</v>
       </c>
       <c r="H59" s="3">
-        <v>689200</v>
+        <v>694000</v>
       </c>
       <c r="I59" s="3">
-        <v>647100</v>
+        <v>651600</v>
       </c>
       <c r="J59" s="3">
-        <v>344600</v>
+        <v>347000</v>
       </c>
       <c r="K59" s="3">
         <v>852200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2635300</v>
+        <v>2653500</v>
       </c>
       <c r="E60" s="3">
-        <v>3582600</v>
+        <v>3607300</v>
       </c>
       <c r="F60" s="3">
-        <v>3083600</v>
+        <v>3104900</v>
       </c>
       <c r="G60" s="3">
-        <v>3224700</v>
+        <v>3247000</v>
       </c>
       <c r="H60" s="3">
-        <v>3027500</v>
+        <v>3048300</v>
       </c>
       <c r="I60" s="3">
-        <v>4204800</v>
+        <v>4233800</v>
       </c>
       <c r="J60" s="3">
-        <v>4663200</v>
+        <v>4695400</v>
       </c>
       <c r="K60" s="3">
         <v>5456500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3864800</v>
+        <v>3891500</v>
       </c>
       <c r="E61" s="3">
-        <v>3867900</v>
+        <v>3894600</v>
       </c>
       <c r="F61" s="3">
-        <v>3881200</v>
+        <v>3908000</v>
       </c>
       <c r="G61" s="3">
-        <v>3902200</v>
+        <v>3929200</v>
       </c>
       <c r="H61" s="3">
-        <v>3923300</v>
+        <v>3950400</v>
       </c>
       <c r="I61" s="3">
-        <v>5117800</v>
+        <v>5153100</v>
       </c>
       <c r="J61" s="3">
-        <v>3830500</v>
+        <v>3857000</v>
       </c>
       <c r="K61" s="3">
         <v>3421100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6452500</v>
+        <v>6497100</v>
       </c>
       <c r="E62" s="3">
-        <v>6514100</v>
+        <v>6559100</v>
       </c>
       <c r="F62" s="3">
-        <v>6263900</v>
+        <v>6307100</v>
       </c>
       <c r="G62" s="3">
-        <v>6256900</v>
+        <v>6300000</v>
       </c>
       <c r="H62" s="3">
-        <v>6017500</v>
+        <v>6059000</v>
       </c>
       <c r="I62" s="3">
-        <v>6072100</v>
+        <v>6114000</v>
       </c>
       <c r="J62" s="3">
-        <v>5774200</v>
+        <v>5814100</v>
       </c>
       <c r="K62" s="3">
         <v>4743600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12952700</v>
+        <v>13042000</v>
       </c>
       <c r="E66" s="3">
-        <v>13964700</v>
+        <v>14061000</v>
       </c>
       <c r="F66" s="3">
-        <v>13228700</v>
+        <v>13319900</v>
       </c>
       <c r="G66" s="3">
-        <v>13383800</v>
+        <v>13476200</v>
       </c>
       <c r="H66" s="3">
-        <v>12968300</v>
+        <v>13057700</v>
       </c>
       <c r="I66" s="3">
-        <v>15394600</v>
+        <v>15500800</v>
       </c>
       <c r="J66" s="3">
-        <v>14268000</v>
+        <v>14366400</v>
       </c>
       <c r="K66" s="3">
         <v>13621200</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17191700</v>
+        <v>17310400</v>
       </c>
       <c r="E72" s="3">
-        <v>19345200</v>
+        <v>19478700</v>
       </c>
       <c r="F72" s="3">
-        <v>19148700</v>
+        <v>19280800</v>
       </c>
       <c r="G72" s="3">
-        <v>19268800</v>
+        <v>19401700</v>
       </c>
       <c r="H72" s="3">
-        <v>19766200</v>
+        <v>19902600</v>
       </c>
       <c r="I72" s="3">
-        <v>18468000</v>
+        <v>18595500</v>
       </c>
       <c r="J72" s="3">
-        <v>17950300</v>
+        <v>18074200</v>
       </c>
       <c r="K72" s="3">
         <v>15149300</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16699000</v>
+        <v>16814200</v>
       </c>
       <c r="E76" s="3">
-        <v>18927300</v>
+        <v>19057900</v>
       </c>
       <c r="F76" s="3">
-        <v>19093300</v>
+        <v>19225100</v>
       </c>
       <c r="G76" s="3">
-        <v>19051200</v>
+        <v>19182700</v>
       </c>
       <c r="H76" s="3">
-        <v>19508100</v>
+        <v>19642700</v>
       </c>
       <c r="I76" s="3">
-        <v>18263800</v>
+        <v>18389800</v>
       </c>
       <c r="J76" s="3">
-        <v>17566000</v>
+        <v>17687200</v>
       </c>
       <c r="K76" s="3">
         <v>15030000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1447800</v>
+        <v>-1457800</v>
       </c>
       <c r="E81" s="3">
-        <v>1715300</v>
+        <v>1727100</v>
       </c>
       <c r="F81" s="3">
-        <v>1804200</v>
+        <v>1816600</v>
       </c>
       <c r="G81" s="3">
-        <v>382000</v>
+        <v>384700</v>
       </c>
       <c r="H81" s="3">
-        <v>1688000</v>
+        <v>1699600</v>
       </c>
       <c r="I81" s="3">
-        <v>874800</v>
+        <v>880800</v>
       </c>
       <c r="J81" s="3">
-        <v>2951100</v>
+        <v>2971400</v>
       </c>
       <c r="K81" s="3">
         <v>2177100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2551900</v>
+        <v>2569500</v>
       </c>
       <c r="E83" s="3">
-        <v>1245900</v>
+        <v>1254500</v>
       </c>
       <c r="F83" s="3">
-        <v>1176500</v>
+        <v>1184600</v>
       </c>
       <c r="G83" s="3">
-        <v>1693400</v>
+        <v>1705100</v>
       </c>
       <c r="H83" s="3">
-        <v>1269300</v>
+        <v>1278100</v>
       </c>
       <c r="I83" s="3">
-        <v>1130500</v>
+        <v>1138300</v>
       </c>
       <c r="J83" s="3">
-        <v>854500</v>
+        <v>860400</v>
       </c>
       <c r="K83" s="3">
         <v>854500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>622200</v>
+        <v>626500</v>
       </c>
       <c r="E89" s="3">
-        <v>3453200</v>
+        <v>3477000</v>
       </c>
       <c r="F89" s="3">
-        <v>3057900</v>
+        <v>3079000</v>
       </c>
       <c r="G89" s="3">
-        <v>2154200</v>
+        <v>2169100</v>
       </c>
       <c r="H89" s="3">
-        <v>1571000</v>
+        <v>1581900</v>
       </c>
       <c r="I89" s="3">
-        <v>1689500</v>
+        <v>1701200</v>
       </c>
       <c r="J89" s="3">
-        <v>3434400</v>
+        <v>3458100</v>
       </c>
       <c r="K89" s="3">
         <v>2534200</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-676800</v>
+        <v>-681400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1275500</v>
+        <v>-1284300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1162500</v>
+        <v>-1170500</v>
       </c>
       <c r="G91" s="3">
-        <v>-774200</v>
+        <v>-779600</v>
       </c>
       <c r="H91" s="3">
-        <v>-836600</v>
+        <v>-842400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2334300</v>
+        <v>-2350400</v>
       </c>
       <c r="J91" s="3">
-        <v>-4124500</v>
+        <v>-4152900</v>
       </c>
       <c r="K91" s="3">
         <v>-4847600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-625300</v>
+        <v>-629600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1328600</v>
+        <v>-1337700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1215500</v>
+        <v>-1223900</v>
       </c>
       <c r="G94" s="3">
-        <v>-608900</v>
+        <v>-613100</v>
       </c>
       <c r="H94" s="3">
-        <v>1518000</v>
+        <v>1528500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2248600</v>
+        <v>-2264100</v>
       </c>
       <c r="J94" s="3">
-        <v>-3556900</v>
+        <v>-3581400</v>
       </c>
       <c r="K94" s="3">
         <v>-5954600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-506000</v>
+        <v>-509500</v>
       </c>
       <c r="E96" s="3">
-        <v>-492000</v>
+        <v>-495400</v>
       </c>
       <c r="F96" s="3">
-        <v>-446000</v>
+        <v>-449000</v>
       </c>
       <c r="G96" s="3">
-        <v>-408500</v>
+        <v>-411400</v>
       </c>
       <c r="H96" s="3">
-        <v>-383600</v>
+        <v>-386200</v>
       </c>
       <c r="I96" s="3">
-        <v>-350100</v>
+        <v>-352500</v>
       </c>
       <c r="J96" s="3">
-        <v>-343800</v>
+        <v>-346200</v>
       </c>
       <c r="K96" s="3">
         <v>-313300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-735200</v>
+        <v>-740300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1555400</v>
+        <v>-1566200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2003800</v>
+        <v>-2017600</v>
       </c>
       <c r="G100" s="3">
-        <v>-918500</v>
+        <v>-924800</v>
       </c>
       <c r="H100" s="3">
-        <v>-2942500</v>
+        <v>-2962800</v>
       </c>
       <c r="I100" s="3">
-        <v>549700</v>
+        <v>553500</v>
       </c>
       <c r="J100" s="3">
-        <v>78000</v>
+        <v>78500</v>
       </c>
       <c r="K100" s="3">
         <v>3258600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-738300</v>
+        <v>-743400</v>
       </c>
       <c r="E102" s="3">
-        <v>569200</v>
+        <v>573100</v>
       </c>
       <c r="F102" s="3">
-        <v>-161400</v>
+        <v>-162500</v>
       </c>
       <c r="G102" s="3">
-        <v>626900</v>
+        <v>631200</v>
       </c>
       <c r="H102" s="3">
-        <v>146600</v>
+        <v>147600</v>
       </c>
       <c r="I102" s="3">
         <v>-9400</v>
       </c>
       <c r="J102" s="3">
-        <v>-44400</v>
+        <v>-44700</v>
       </c>
       <c r="K102" s="3">
         <v>-161700</v>

--- a/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>IMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>17494100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>26693300</v>
-      </c>
-      <c r="F8" s="3">
-        <v>27448500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>22864600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>19664700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>21004800</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="3">
         <v>28607200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25257000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23478000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23595400</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>14902600</v>
-      </c>
-      <c r="E9" s="3">
-        <v>21562200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>21716100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>18717900</v>
-      </c>
-      <c r="H9" s="3">
-        <v>15971100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>16264700</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="3">
         <v>22092100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19586500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17263700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17639300</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>2591500</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5131100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5732400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>4146600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3693700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>4740100</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="3">
         <v>6515100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5670500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6214300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5956100</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>10200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>36900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>14900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>143700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>73800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>57300</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="3">
         <v>52600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>94700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>62500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>70700</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,14 +925,17 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>1095900</v>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
@@ -936,8 +955,8 @@
       <c r="J14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -945,45 +964,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>1367600</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1254500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1220800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1705100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1278100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1138300</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="3">
         <v>860400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>854500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>572900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>586900</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
-        <v>19415900</v>
-      </c>
-      <c r="E17" s="3">
-        <v>25091800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>25057200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>22581200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>19504600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>19568200</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="3">
         <v>25075300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22380200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19720100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20208300</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
-        <v>-1921800</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1601500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2391300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>283400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>160200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1436600</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="3">
         <v>3531900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2876800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3757900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3387100</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
-        <v>79300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>75400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>103600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>224500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1815000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>99700</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="3">
         <v>409800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>717300</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2926700</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3675100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2206700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>3248500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>2670400</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="3">
         <v>4798900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3729800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="3">
         <v>3974600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
-        <v>47900</v>
-      </c>
-      <c r="E22" s="3">
-        <v>70700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>82400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>51000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>56500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>26700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-1890400</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1606200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2412500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>456900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1918700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1509700</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="3">
         <v>3941700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2876800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3758700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3384800</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>-432600</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-120900</v>
-      </c>
-      <c r="F24" s="3">
-        <v>595900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>72200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>219000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>628800</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="3">
         <v>970300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>699800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>923700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>795100</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-1457800</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1727100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1816600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>384700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1699600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>880800</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="3">
         <v>2971400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2177100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2835000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2589700</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-1457800</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1727100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1816600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>384700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1699600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>880800</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="3">
         <v>2971400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2177100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2835000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2589700</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,32 +1463,35 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-79300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-75400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-103600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-224500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1815000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-99700</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="3">
         <v>-409800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-1457800</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1727100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1816600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>384700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1699600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>880800</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="3">
         <v>2971400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2177100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2835000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2589700</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-1457800</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1727100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1816600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>384700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1699600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>880800</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="3">
         <v>2971400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2177100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2835000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2589700</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>605300</v>
+        <v>1689500</v>
       </c>
       <c r="E41" s="3">
-        <v>1348700</v>
+        <v>605000</v>
       </c>
       <c r="F41" s="3">
-        <v>775600</v>
+        <v>1348200</v>
       </c>
       <c r="G41" s="3">
-        <v>938100</v>
+        <v>775300</v>
       </c>
       <c r="H41" s="3">
-        <v>307000</v>
+        <v>937800</v>
       </c>
       <c r="I41" s="3">
-        <v>159400</v>
+        <v>306800</v>
       </c>
       <c r="J41" s="3">
+        <v>159300</v>
+      </c>
+      <c r="K41" s="3">
         <v>168800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>209400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>362800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>923400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1803,225 +1892,246 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1506500</v>
+        <v>3036200</v>
       </c>
       <c r="E43" s="3">
-        <v>2118800</v>
+        <v>1505900</v>
       </c>
       <c r="F43" s="3">
-        <v>1985400</v>
+        <v>2118000</v>
       </c>
       <c r="G43" s="3">
-        <v>2129100</v>
+        <v>1984600</v>
       </c>
       <c r="H43" s="3">
-        <v>1588200</v>
+        <v>2128200</v>
       </c>
       <c r="I43" s="3">
-        <v>1241200</v>
+        <v>1587500</v>
       </c>
       <c r="J43" s="3">
+        <v>1240700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1208200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1604300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1487500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1759200</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>911400</v>
+        <v>864800</v>
       </c>
       <c r="E44" s="3">
-        <v>1017400</v>
+        <v>911100</v>
       </c>
       <c r="F44" s="3">
-        <v>1018200</v>
+        <v>1017000</v>
       </c>
       <c r="G44" s="3">
-        <v>843900</v>
+        <v>1017800</v>
       </c>
       <c r="H44" s="3">
-        <v>745000</v>
+        <v>843600</v>
       </c>
       <c r="I44" s="3">
-        <v>934200</v>
+        <v>744700</v>
       </c>
       <c r="J44" s="3">
+        <v>933800</v>
+      </c>
+      <c r="K44" s="3">
         <v>880000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>792900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>622600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>585400</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>528300</v>
+        <v>540700</v>
       </c>
       <c r="E45" s="3">
-        <v>483600</v>
+        <v>528100</v>
       </c>
       <c r="F45" s="3">
-        <v>424700</v>
+        <v>483400</v>
       </c>
       <c r="G45" s="3">
-        <v>333600</v>
+        <v>424500</v>
       </c>
       <c r="H45" s="3">
-        <v>367400</v>
+        <v>333500</v>
       </c>
       <c r="I45" s="3">
-        <v>546400</v>
+        <v>367300</v>
       </c>
       <c r="J45" s="3">
+        <v>546200</v>
+      </c>
+      <c r="K45" s="3">
         <v>544800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>693600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>607500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>636900</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3551600</v>
+        <v>6131200</v>
       </c>
       <c r="E46" s="3">
-        <v>4968600</v>
+        <v>3550200</v>
       </c>
       <c r="F46" s="3">
-        <v>4203900</v>
+        <v>4966600</v>
       </c>
       <c r="G46" s="3">
-        <v>4244800</v>
+        <v>4202300</v>
       </c>
       <c r="H46" s="3">
-        <v>3007500</v>
+        <v>4243100</v>
       </c>
       <c r="I46" s="3">
-        <v>2881100</v>
+        <v>3006300</v>
       </c>
       <c r="J46" s="3">
+        <v>2880000</v>
+      </c>
+      <c r="K46" s="3">
         <v>2801800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3300200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3080400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3904900</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>613100</v>
+        <v>594000</v>
       </c>
       <c r="E47" s="3">
-        <v>699500</v>
+        <v>612900</v>
       </c>
       <c r="F47" s="3">
-        <v>672800</v>
+        <v>699200</v>
       </c>
       <c r="G47" s="3">
-        <v>679100</v>
+        <v>672500</v>
       </c>
       <c r="H47" s="3">
-        <v>808600</v>
+        <v>678800</v>
       </c>
       <c r="I47" s="3">
-        <v>1110100</v>
+        <v>808300</v>
       </c>
       <c r="J47" s="3">
+        <v>1109600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1103800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1025400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>820500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>706800</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25295900</v>
+        <v>24707500</v>
       </c>
       <c r="E48" s="3">
-        <v>27055200</v>
+        <v>25285900</v>
       </c>
       <c r="F48" s="3">
-        <v>26868300</v>
+        <v>27044500</v>
       </c>
       <c r="G48" s="3">
-        <v>27063000</v>
+        <v>26857700</v>
       </c>
       <c r="H48" s="3">
-        <v>28523200</v>
+        <v>27052300</v>
       </c>
       <c r="I48" s="3">
-        <v>29674100</v>
+        <v>28512000</v>
       </c>
       <c r="J48" s="3">
+        <v>29662400</v>
+      </c>
+      <c r="K48" s="3">
         <v>27927400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24110800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18008200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14720800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2029,7 +2139,7 @@
         <v>130300</v>
       </c>
       <c r="E49" s="3">
-        <v>146000</v>
+        <v>130300</v>
       </c>
       <c r="F49" s="3">
         <v>146000</v>
@@ -2041,23 +2151,26 @@
         <v>146000</v>
       </c>
       <c r="I49" s="3">
+        <v>146000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>175800</v>
+      </c>
+      <c r="K49" s="3">
         <v>175900</v>
       </c>
-      <c r="J49" s="3">
-        <v>175900</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>172400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>195700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>202800</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>265300</v>
+        <v>440200</v>
       </c>
       <c r="E52" s="3">
-        <v>249600</v>
+        <v>265200</v>
       </c>
       <c r="F52" s="3">
-        <v>653900</v>
+        <v>249500</v>
       </c>
       <c r="G52" s="3">
-        <v>526000</v>
+        <v>653700</v>
       </c>
       <c r="H52" s="3">
-        <v>215100</v>
+        <v>525800</v>
       </c>
       <c r="I52" s="3">
-        <v>49500</v>
+        <v>215000</v>
       </c>
       <c r="J52" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K52" s="3">
         <v>44700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>42300</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29856200</v>
+        <v>32003300</v>
       </c>
       <c r="E54" s="3">
-        <v>33118900</v>
+        <v>29844400</v>
       </c>
       <c r="F54" s="3">
-        <v>32545000</v>
+        <v>33105800</v>
       </c>
       <c r="G54" s="3">
-        <v>32658900</v>
+        <v>32532200</v>
       </c>
       <c r="H54" s="3">
-        <v>32700500</v>
+        <v>32646000</v>
       </c>
       <c r="I54" s="3">
-        <v>33890600</v>
+        <v>32687600</v>
       </c>
       <c r="J54" s="3">
+        <v>33877200</v>
+      </c>
+      <c r="K54" s="3">
         <v>32053600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28651200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22104900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19535300</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2129100</v>
+        <v>3662400</v>
       </c>
       <c r="E57" s="3">
-        <v>2930600</v>
+        <v>2128200</v>
       </c>
       <c r="F57" s="3">
-        <v>2571000</v>
+        <v>2929400</v>
       </c>
       <c r="G57" s="3">
-        <v>2700600</v>
+        <v>2570000</v>
       </c>
       <c r="H57" s="3">
-        <v>2195800</v>
+        <v>2699500</v>
       </c>
       <c r="I57" s="3">
-        <v>2049800</v>
+        <v>2194900</v>
       </c>
       <c r="J57" s="3">
+        <v>2049000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2795600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3185500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>165200</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>178200</v>
+        <v>95700</v>
       </c>
       <c r="E58" s="3">
-        <v>191600</v>
+        <v>178100</v>
       </c>
       <c r="F58" s="3">
-        <v>158600</v>
+        <v>191500</v>
       </c>
       <c r="G58" s="3">
-        <v>158600</v>
+        <v>158500</v>
       </c>
       <c r="H58" s="3">
-        <v>158600</v>
+        <v>158500</v>
       </c>
       <c r="I58" s="3">
-        <v>1532400</v>
+        <v>158500</v>
       </c>
       <c r="J58" s="3">
+        <v>1531800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1552800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1418800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3547100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3430900</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>346200</v>
+        <v>600300</v>
       </c>
       <c r="E59" s="3">
-        <v>485200</v>
+        <v>346100</v>
       </c>
       <c r="F59" s="3">
-        <v>375300</v>
+        <v>485000</v>
       </c>
       <c r="G59" s="3">
-        <v>387800</v>
+        <v>375100</v>
       </c>
       <c r="H59" s="3">
-        <v>694000</v>
+        <v>387700</v>
       </c>
       <c r="I59" s="3">
-        <v>651600</v>
+        <v>693700</v>
       </c>
       <c r="J59" s="3">
+        <v>651300</v>
+      </c>
+      <c r="K59" s="3">
         <v>347000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>852200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>891300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>974100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2653500</v>
+        <v>4358400</v>
       </c>
       <c r="E60" s="3">
-        <v>3607300</v>
+        <v>2652400</v>
       </c>
       <c r="F60" s="3">
-        <v>3104900</v>
+        <v>3605900</v>
       </c>
       <c r="G60" s="3">
-        <v>3247000</v>
+        <v>3103600</v>
       </c>
       <c r="H60" s="3">
-        <v>3048300</v>
+        <v>3245700</v>
       </c>
       <c r="I60" s="3">
-        <v>4233800</v>
+        <v>3047100</v>
       </c>
       <c r="J60" s="3">
+        <v>4232100</v>
+      </c>
+      <c r="K60" s="3">
         <v>4695400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5456500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4445200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4570200</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3891500</v>
+        <v>3966100</v>
       </c>
       <c r="E61" s="3">
-        <v>3894600</v>
+        <v>3890000</v>
       </c>
       <c r="F61" s="3">
-        <v>3908000</v>
+        <v>3893100</v>
       </c>
       <c r="G61" s="3">
-        <v>3929200</v>
+        <v>3906400</v>
       </c>
       <c r="H61" s="3">
-        <v>3950400</v>
+        <v>3927600</v>
       </c>
       <c r="I61" s="3">
-        <v>5153100</v>
+        <v>3948800</v>
       </c>
       <c r="J61" s="3">
+        <v>5151000</v>
+      </c>
+      <c r="K61" s="3">
         <v>3857000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3421100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>884500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>647600</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6497100</v>
+        <v>6622400</v>
       </c>
       <c r="E62" s="3">
-        <v>6559100</v>
+        <v>6494500</v>
       </c>
       <c r="F62" s="3">
-        <v>6307100</v>
+        <v>6556500</v>
       </c>
       <c r="G62" s="3">
-        <v>6300000</v>
+        <v>6304600</v>
       </c>
       <c r="H62" s="3">
-        <v>6059000</v>
+        <v>6297500</v>
       </c>
       <c r="I62" s="3">
-        <v>6114000</v>
+        <v>6056600</v>
       </c>
       <c r="J62" s="3">
+        <v>6111600</v>
+      </c>
+      <c r="K62" s="3">
         <v>5814100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4743600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4446700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4083900</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13042000</v>
+        <v>14946900</v>
       </c>
       <c r="E66" s="3">
-        <v>14061000</v>
+        <v>13036900</v>
       </c>
       <c r="F66" s="3">
-        <v>13319900</v>
+        <v>14055500</v>
       </c>
       <c r="G66" s="3">
-        <v>13476200</v>
+        <v>13314700</v>
       </c>
       <c r="H66" s="3">
-        <v>13057700</v>
+        <v>13470800</v>
       </c>
       <c r="I66" s="3">
-        <v>15500800</v>
+        <v>13052600</v>
       </c>
       <c r="J66" s="3">
+        <v>15494700</v>
+      </c>
+      <c r="K66" s="3">
         <v>14366400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13621200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9776500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9301700</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17310400</v>
+        <v>16997500</v>
       </c>
       <c r="E72" s="3">
-        <v>19478700</v>
+        <v>17303500</v>
       </c>
       <c r="F72" s="3">
-        <v>19280800</v>
+        <v>19471000</v>
       </c>
       <c r="G72" s="3">
-        <v>19401700</v>
+        <v>19273200</v>
       </c>
       <c r="H72" s="3">
-        <v>19902600</v>
+        <v>19394100</v>
       </c>
       <c r="I72" s="3">
-        <v>18595500</v>
+        <v>19894700</v>
       </c>
       <c r="J72" s="3">
+        <v>18588100</v>
+      </c>
+      <c r="K72" s="3">
         <v>18074200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15149300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12997700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10779000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16814200</v>
+        <v>17056300</v>
       </c>
       <c r="E76" s="3">
-        <v>19057900</v>
+        <v>16807600</v>
       </c>
       <c r="F76" s="3">
-        <v>19225100</v>
+        <v>19050300</v>
       </c>
       <c r="G76" s="3">
-        <v>19182700</v>
+        <v>19217500</v>
       </c>
       <c r="H76" s="3">
-        <v>19642700</v>
+        <v>19175100</v>
       </c>
       <c r="I76" s="3">
-        <v>18389800</v>
+        <v>19635000</v>
       </c>
       <c r="J76" s="3">
+        <v>18382500</v>
+      </c>
+      <c r="K76" s="3">
         <v>17687200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15030000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12328400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10233600</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-1457800</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1727100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1816600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>384700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1699600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>880800</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="3">
         <v>2971400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2177100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2835000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2589700</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2569500</v>
+        <v>1551400</v>
       </c>
       <c r="E83" s="3">
-        <v>1254500</v>
+        <v>2568500</v>
       </c>
       <c r="F83" s="3">
-        <v>1184600</v>
+        <v>1254000</v>
       </c>
       <c r="G83" s="3">
-        <v>1705100</v>
+        <v>1184200</v>
       </c>
       <c r="H83" s="3">
-        <v>1278100</v>
+        <v>1704500</v>
       </c>
       <c r="I83" s="3">
-        <v>1138300</v>
+        <v>1277600</v>
       </c>
       <c r="J83" s="3">
+        <v>1137900</v>
+      </c>
+      <c r="K83" s="3">
         <v>860400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>854500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N83" s="3">
         <v>586900</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>626500</v>
+        <v>4297200</v>
       </c>
       <c r="E89" s="3">
-        <v>3477000</v>
+        <v>626200</v>
       </c>
       <c r="F89" s="3">
-        <v>3079000</v>
+        <v>3475600</v>
       </c>
       <c r="G89" s="3">
-        <v>2169100</v>
+        <v>3077800</v>
       </c>
       <c r="H89" s="3">
-        <v>1581900</v>
+        <v>2168200</v>
       </c>
       <c r="I89" s="3">
-        <v>1701200</v>
+        <v>1581300</v>
       </c>
       <c r="J89" s="3">
+        <v>1700500</v>
+      </c>
+      <c r="K89" s="3">
         <v>3458100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2534200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3523100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3448600</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-681400</v>
+        <v>-869500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1284300</v>
+        <v>-681200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1170500</v>
+        <v>-1283800</v>
       </c>
       <c r="G91" s="3">
-        <v>-779600</v>
+        <v>-1170000</v>
       </c>
       <c r="H91" s="3">
-        <v>-842400</v>
+        <v>-779200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2350400</v>
+        <v>-842000</v>
       </c>
       <c r="J91" s="3">
+        <v>-2349500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4152900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4847600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4123800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3010700</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-629600</v>
+        <v>-794200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1337700</v>
+        <v>-629400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1223900</v>
+        <v>-1337200</v>
       </c>
       <c r="G94" s="3">
-        <v>-613100</v>
+        <v>-1223400</v>
       </c>
       <c r="H94" s="3">
-        <v>1528500</v>
+        <v>-612900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2264100</v>
+        <v>1527900</v>
       </c>
       <c r="J94" s="3">
+        <v>-2263200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3581400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5954600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2760300</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-509500</v>
+        <v>-554000</v>
       </c>
       <c r="E96" s="3">
-        <v>-495400</v>
+        <v>-509300</v>
       </c>
       <c r="F96" s="3">
-        <v>-449000</v>
+        <v>-495200</v>
       </c>
       <c r="G96" s="3">
-        <v>-411400</v>
+        <v>-448900</v>
       </c>
       <c r="H96" s="3">
-        <v>-386200</v>
+        <v>-411200</v>
       </c>
       <c r="I96" s="3">
-        <v>-352500</v>
+        <v>-386100</v>
       </c>
       <c r="J96" s="3">
+        <v>-352300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-346200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-313300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-299600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-286500</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,45 +3910,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-740300</v>
+        <v>-2418600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1566200</v>
+        <v>-740000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2017600</v>
+        <v>-1565600</v>
       </c>
       <c r="G100" s="3">
-        <v>-924800</v>
+        <v>-2016800</v>
       </c>
       <c r="H100" s="3">
-        <v>-2962800</v>
+        <v>-924400</v>
       </c>
       <c r="I100" s="3">
-        <v>553500</v>
+        <v>-2961600</v>
       </c>
       <c r="J100" s="3">
+        <v>553200</v>
+      </c>
+      <c r="K100" s="3">
         <v>78500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3258600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N100" s="3">
         <v>30000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3734,49 +3982,55 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-743400</v>
+        <v>1084500</v>
       </c>
       <c r="E102" s="3">
-        <v>573100</v>
+        <v>-743100</v>
       </c>
       <c r="F102" s="3">
-        <v>-162500</v>
+        <v>572900</v>
       </c>
       <c r="G102" s="3">
-        <v>631200</v>
+        <v>-162400</v>
       </c>
       <c r="H102" s="3">
-        <v>147600</v>
+        <v>630900</v>
       </c>
       <c r="I102" s="3">
+        <v>147500</v>
+      </c>
+      <c r="J102" s="3">
         <v>-9400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-44700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-161700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-542000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>718300</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>IMO</t>
   </si>
@@ -722,26 +722,26 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>17</v>
+      <c r="D8" s="3">
+        <v>37508000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>22284000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>34002000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>34964000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>29125000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>25446000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>26809000</v>
       </c>
       <c r="K8" s="3">
         <v>28607200</v>
@@ -761,26 +761,26 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>17</v>
+      <c r="D9" s="3">
+        <v>29490000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>18983000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>27466000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>27662000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>23843000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>20344000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>20718000</v>
       </c>
       <c r="K9" s="3">
         <v>22092100</v>
@@ -800,26 +800,26 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>17</v>
+      <c r="D10" s="3">
+        <v>8018000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3301000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6536000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>7302000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5282000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5102000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6091000</v>
       </c>
       <c r="K10" s="3">
         <v>6515100</v>
@@ -856,26 +856,26 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>17</v>
+      <c r="D12" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>47000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>19000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>183000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>94000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>73000</v>
       </c>
       <c r="K12" s="3">
         <v>52600</v>
@@ -937,8 +937,8 @@
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
+      <c r="E14" s="3">
+        <v>1396000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
@@ -973,26 +973,26 @@
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>17</v>
+      <c r="D15" s="3">
+        <v>1977000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1742000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1598000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1555000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2172000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1628000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1450000</v>
       </c>
       <c r="K15" s="3">
         <v>860400</v>
@@ -1026,26 +1026,26 @@
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>17</v>
+      <c r="D17" s="3">
+        <v>34253000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>24732000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>31962000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>31918000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>28764000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>24845000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>24926000</v>
       </c>
       <c r="K17" s="3">
         <v>25075300</v>
@@ -1065,26 +1065,26 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>17</v>
+      <c r="D18" s="3">
+        <v>3255000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2448000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2040000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3046000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>361000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>601000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1883000</v>
       </c>
       <c r="K18" s="3">
         <v>3531900</v>
@@ -1121,26 +1121,26 @@
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>17</v>
+      <c r="D20" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>101000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>96000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>132000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>286000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1915000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>74000</v>
       </c>
       <c r="K20" s="3">
         <v>409800</v>
@@ -1160,26 +1160,26 @@
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>17</v>
+      <c r="D21" s="3">
+        <v>5299000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>926000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3734000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4687000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2819000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>4144000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3407000</v>
       </c>
       <c r="K21" s="3">
         <v>4798900</v>
@@ -1199,26 +1199,26 @@
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>17</v>
+      <c r="D22" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>90000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>105000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>65000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>72000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>34000</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1238,26 +1238,26 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>17</v>
+      <c r="D23" s="3">
+        <v>3283000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2408000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2046000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3073000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>582000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2444000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1923000</v>
       </c>
       <c r="K23" s="3">
         <v>3941700</v>
@@ -1277,26 +1277,26 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>17</v>
+      <c r="D24" s="3">
+        <v>804000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-551000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-154000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>759000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>92000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>279000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>801000</v>
       </c>
       <c r="K24" s="3">
         <v>970300</v>
@@ -1355,26 +1355,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>17</v>
+      <c r="D26" s="3">
+        <v>2479000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1857000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2314000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>490000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2165000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1122000</v>
       </c>
       <c r="K26" s="3">
         <v>2971400</v>
@@ -1394,26 +1394,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>17</v>
+      <c r="D27" s="3">
+        <v>2479000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1857000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2314000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>490000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2165000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1122000</v>
       </c>
       <c r="K27" s="3">
         <v>2971400</v>
@@ -1472,26 +1472,26 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>17</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1589,26 +1589,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>17</v>
+      <c r="D32" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-286000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1915000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-74000</v>
       </c>
       <c r="K32" s="3">
         <v>-409800</v>
@@ -1628,26 +1628,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>17</v>
+      <c r="D33" s="3">
+        <v>2479000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1857000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2314000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>490000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2165000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1122000</v>
       </c>
       <c r="K33" s="3">
         <v>2971400</v>
@@ -1706,26 +1706,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>17</v>
+      <c r="D35" s="3">
+        <v>2479000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1857000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2314000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>490000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2165000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1122000</v>
       </c>
       <c r="K35" s="3">
         <v>2971400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1689500</v>
+        <v>2153000</v>
       </c>
       <c r="E41" s="3">
-        <v>605000</v>
+        <v>771000</v>
       </c>
       <c r="F41" s="3">
-        <v>1348200</v>
+        <v>1718000</v>
       </c>
       <c r="G41" s="3">
-        <v>775300</v>
+        <v>988000</v>
       </c>
       <c r="H41" s="3">
-        <v>937800</v>
+        <v>1195000</v>
       </c>
       <c r="I41" s="3">
-        <v>306800</v>
+        <v>391000</v>
       </c>
       <c r="J41" s="3">
-        <v>159300</v>
+        <v>203000</v>
       </c>
       <c r="K41" s="3">
         <v>168800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3036200</v>
+        <v>3869000</v>
       </c>
       <c r="E43" s="3">
-        <v>1505900</v>
+        <v>1919000</v>
       </c>
       <c r="F43" s="3">
-        <v>2118000</v>
+        <v>2699000</v>
       </c>
       <c r="G43" s="3">
-        <v>1984600</v>
+        <v>2529000</v>
       </c>
       <c r="H43" s="3">
-        <v>2128200</v>
+        <v>2712000</v>
       </c>
       <c r="I43" s="3">
-        <v>1587500</v>
+        <v>2023000</v>
       </c>
       <c r="J43" s="3">
-        <v>1240700</v>
+        <v>1581000</v>
       </c>
       <c r="K43" s="3">
         <v>1208200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>864800</v>
+        <v>1102000</v>
       </c>
       <c r="E44" s="3">
-        <v>911100</v>
+        <v>1161000</v>
       </c>
       <c r="F44" s="3">
-        <v>1017000</v>
+        <v>1296000</v>
       </c>
       <c r="G44" s="3">
-        <v>1017800</v>
+        <v>1297000</v>
       </c>
       <c r="H44" s="3">
-        <v>843600</v>
+        <v>1075000</v>
       </c>
       <c r="I44" s="3">
-        <v>744700</v>
+        <v>949000</v>
       </c>
       <c r="J44" s="3">
-        <v>933800</v>
+        <v>1190000</v>
       </c>
       <c r="K44" s="3">
         <v>880000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>540700</v>
+        <v>689000</v>
       </c>
       <c r="E45" s="3">
-        <v>528100</v>
+        <v>673000</v>
       </c>
       <c r="F45" s="3">
-        <v>483400</v>
+        <v>616000</v>
       </c>
       <c r="G45" s="3">
-        <v>424500</v>
+        <v>541000</v>
       </c>
       <c r="H45" s="3">
-        <v>333500</v>
+        <v>425000</v>
       </c>
       <c r="I45" s="3">
-        <v>367300</v>
+        <v>468000</v>
       </c>
       <c r="J45" s="3">
-        <v>546200</v>
+        <v>696000</v>
       </c>
       <c r="K45" s="3">
         <v>544800</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6131200</v>
+        <v>7813000</v>
       </c>
       <c r="E46" s="3">
-        <v>3550200</v>
+        <v>4524000</v>
       </c>
       <c r="F46" s="3">
-        <v>4966600</v>
+        <v>6329000</v>
       </c>
       <c r="G46" s="3">
-        <v>4202300</v>
+        <v>5355000</v>
       </c>
       <c r="H46" s="3">
-        <v>4243100</v>
+        <v>5407000</v>
       </c>
       <c r="I46" s="3">
-        <v>3006300</v>
+        <v>3831000</v>
       </c>
       <c r="J46" s="3">
-        <v>2880000</v>
+        <v>3670000</v>
       </c>
       <c r="K46" s="3">
         <v>2801800</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>594000</v>
+        <v>757000</v>
       </c>
       <c r="E47" s="3">
-        <v>612900</v>
+        <v>781000</v>
       </c>
       <c r="F47" s="3">
-        <v>699200</v>
+        <v>891000</v>
       </c>
       <c r="G47" s="3">
-        <v>672500</v>
+        <v>857000</v>
       </c>
       <c r="H47" s="3">
-        <v>678800</v>
+        <v>865000</v>
       </c>
       <c r="I47" s="3">
-        <v>808300</v>
+        <v>1030000</v>
       </c>
       <c r="J47" s="3">
-        <v>1109600</v>
+        <v>1414000</v>
       </c>
       <c r="K47" s="3">
         <v>1103800</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24707500</v>
+        <v>31485000</v>
       </c>
       <c r="E48" s="3">
-        <v>25285900</v>
+        <v>32222000</v>
       </c>
       <c r="F48" s="3">
-        <v>27044500</v>
+        <v>34463000</v>
       </c>
       <c r="G48" s="3">
-        <v>26857700</v>
+        <v>34225000</v>
       </c>
       <c r="H48" s="3">
-        <v>27052300</v>
+        <v>34473000</v>
       </c>
       <c r="I48" s="3">
-        <v>28512000</v>
+        <v>36333000</v>
       </c>
       <c r="J48" s="3">
-        <v>29662400</v>
+        <v>37799000</v>
       </c>
       <c r="K48" s="3">
         <v>27927400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>130300</v>
+        <v>166000</v>
       </c>
       <c r="E49" s="3">
-        <v>130300</v>
+        <v>166000</v>
       </c>
       <c r="F49" s="3">
-        <v>146000</v>
+        <v>186000</v>
       </c>
       <c r="G49" s="3">
-        <v>146000</v>
+        <v>186000</v>
       </c>
       <c r="H49" s="3">
-        <v>146000</v>
+        <v>186000</v>
       </c>
       <c r="I49" s="3">
-        <v>146000</v>
+        <v>186000</v>
       </c>
       <c r="J49" s="3">
-        <v>175800</v>
+        <v>224000</v>
       </c>
       <c r="K49" s="3">
         <v>175900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>440200</v>
+        <v>561000</v>
       </c>
       <c r="E52" s="3">
-        <v>265200</v>
+        <v>338000</v>
       </c>
       <c r="F52" s="3">
-        <v>249500</v>
+        <v>318000</v>
       </c>
       <c r="G52" s="3">
-        <v>653700</v>
+        <v>833000</v>
       </c>
       <c r="H52" s="3">
-        <v>525800</v>
+        <v>670000</v>
       </c>
       <c r="I52" s="3">
-        <v>215000</v>
+        <v>274000</v>
       </c>
       <c r="J52" s="3">
-        <v>49400</v>
+        <v>63000</v>
       </c>
       <c r="K52" s="3">
         <v>44700</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32003300</v>
+        <v>40782000</v>
       </c>
       <c r="E54" s="3">
-        <v>29844400</v>
+        <v>38031000</v>
       </c>
       <c r="F54" s="3">
-        <v>33105800</v>
+        <v>42187000</v>
       </c>
       <c r="G54" s="3">
-        <v>32532200</v>
+        <v>41456000</v>
       </c>
       <c r="H54" s="3">
-        <v>32646000</v>
+        <v>41601000</v>
       </c>
       <c r="I54" s="3">
-        <v>32687600</v>
+        <v>41654000</v>
       </c>
       <c r="J54" s="3">
-        <v>33877200</v>
+        <v>43170000</v>
       </c>
       <c r="K54" s="3">
         <v>32053600</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3662400</v>
+        <v>4667000</v>
       </c>
       <c r="E57" s="3">
-        <v>2128200</v>
+        <v>2712000</v>
       </c>
       <c r="F57" s="3">
-        <v>2929400</v>
+        <v>3733000</v>
       </c>
       <c r="G57" s="3">
-        <v>2570000</v>
+        <v>3275000</v>
       </c>
       <c r="H57" s="3">
-        <v>2699500</v>
+        <v>3440000</v>
       </c>
       <c r="I57" s="3">
-        <v>2194900</v>
+        <v>2797000</v>
       </c>
       <c r="J57" s="3">
-        <v>2049000</v>
+        <v>2611000</v>
       </c>
       <c r="K57" s="3">
         <v>2795600</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>95700</v>
+        <v>122000</v>
       </c>
       <c r="E58" s="3">
-        <v>178100</v>
+        <v>227000</v>
       </c>
       <c r="F58" s="3">
-        <v>191500</v>
+        <v>244000</v>
       </c>
       <c r="G58" s="3">
-        <v>158500</v>
+        <v>202000</v>
       </c>
       <c r="H58" s="3">
-        <v>158500</v>
+        <v>202000</v>
       </c>
       <c r="I58" s="3">
-        <v>158500</v>
+        <v>202000</v>
       </c>
       <c r="J58" s="3">
-        <v>1531800</v>
+        <v>1952000</v>
       </c>
       <c r="K58" s="3">
         <v>1552800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600300</v>
+        <v>765000</v>
       </c>
       <c r="E59" s="3">
-        <v>346100</v>
+        <v>441000</v>
       </c>
       <c r="F59" s="3">
-        <v>485000</v>
+        <v>618000</v>
       </c>
       <c r="G59" s="3">
-        <v>375100</v>
+        <v>478000</v>
       </c>
       <c r="H59" s="3">
-        <v>387700</v>
+        <v>494000</v>
       </c>
       <c r="I59" s="3">
-        <v>693700</v>
+        <v>884000</v>
       </c>
       <c r="J59" s="3">
-        <v>651300</v>
+        <v>830000</v>
       </c>
       <c r="K59" s="3">
         <v>347000</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4358400</v>
+        <v>5554000</v>
       </c>
       <c r="E60" s="3">
-        <v>2652400</v>
+        <v>3380000</v>
       </c>
       <c r="F60" s="3">
-        <v>3605900</v>
+        <v>4595000</v>
       </c>
       <c r="G60" s="3">
-        <v>3103600</v>
+        <v>3955000</v>
       </c>
       <c r="H60" s="3">
-        <v>3245700</v>
+        <v>4136000</v>
       </c>
       <c r="I60" s="3">
-        <v>3047100</v>
+        <v>3883000</v>
       </c>
       <c r="J60" s="3">
-        <v>4232100</v>
+        <v>5393000</v>
       </c>
       <c r="K60" s="3">
         <v>4695400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3966100</v>
+        <v>5054000</v>
       </c>
       <c r="E61" s="3">
-        <v>3890000</v>
+        <v>4957000</v>
       </c>
       <c r="F61" s="3">
-        <v>3893100</v>
+        <v>4961000</v>
       </c>
       <c r="G61" s="3">
-        <v>3906400</v>
+        <v>4978000</v>
       </c>
       <c r="H61" s="3">
-        <v>3927600</v>
+        <v>5005000</v>
       </c>
       <c r="I61" s="3">
-        <v>3948800</v>
+        <v>5032000</v>
       </c>
       <c r="J61" s="3">
-        <v>5151000</v>
+        <v>6564000</v>
       </c>
       <c r="K61" s="3">
         <v>3857000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6622400</v>
+        <v>8439000</v>
       </c>
       <c r="E62" s="3">
-        <v>6494500</v>
+        <v>8276000</v>
       </c>
       <c r="F62" s="3">
-        <v>6556500</v>
+        <v>8355000</v>
       </c>
       <c r="G62" s="3">
-        <v>6304600</v>
+        <v>8034000</v>
       </c>
       <c r="H62" s="3">
-        <v>6297500</v>
+        <v>8025000</v>
       </c>
       <c r="I62" s="3">
-        <v>6056600</v>
+        <v>7718000</v>
       </c>
       <c r="J62" s="3">
-        <v>6111600</v>
+        <v>7788000</v>
       </c>
       <c r="K62" s="3">
         <v>5814100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14946900</v>
+        <v>19047000</v>
       </c>
       <c r="E66" s="3">
-        <v>13036900</v>
+        <v>16613000</v>
       </c>
       <c r="F66" s="3">
-        <v>14055500</v>
+        <v>17911000</v>
       </c>
       <c r="G66" s="3">
-        <v>13314700</v>
+        <v>16967000</v>
       </c>
       <c r="H66" s="3">
-        <v>13470800</v>
+        <v>17166000</v>
       </c>
       <c r="I66" s="3">
-        <v>13052600</v>
+        <v>16633000</v>
       </c>
       <c r="J66" s="3">
-        <v>15494700</v>
+        <v>19745000</v>
       </c>
       <c r="K66" s="3">
         <v>14366400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16997500</v>
+        <v>21660000</v>
       </c>
       <c r="E72" s="3">
-        <v>17303500</v>
+        <v>22050000</v>
       </c>
       <c r="F72" s="3">
-        <v>19471000</v>
+        <v>24812000</v>
       </c>
       <c r="G72" s="3">
-        <v>19273200</v>
+        <v>24560000</v>
       </c>
       <c r="H72" s="3">
-        <v>19394100</v>
+        <v>24714000</v>
       </c>
       <c r="I72" s="3">
-        <v>19894700</v>
+        <v>25352000</v>
       </c>
       <c r="J72" s="3">
-        <v>18588100</v>
+        <v>23687000</v>
       </c>
       <c r="K72" s="3">
         <v>18074200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17056300</v>
+        <v>21735000</v>
       </c>
       <c r="E76" s="3">
-        <v>16807600</v>
+        <v>21418000</v>
       </c>
       <c r="F76" s="3">
-        <v>19050300</v>
+        <v>24276000</v>
       </c>
       <c r="G76" s="3">
-        <v>19217500</v>
+        <v>24489000</v>
       </c>
       <c r="H76" s="3">
-        <v>19175100</v>
+        <v>24435000</v>
       </c>
       <c r="I76" s="3">
-        <v>19635000</v>
+        <v>25021000</v>
       </c>
       <c r="J76" s="3">
-        <v>18382500</v>
+        <v>23425000</v>
       </c>
       <c r="K76" s="3">
         <v>17687200</v>
@@ -3244,26 +3244,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>17</v>
+      <c r="D81" s="3">
+        <v>2479000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1857000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>2314000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>490000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>2165000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1122000</v>
       </c>
       <c r="K81" s="3">
         <v>2971400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1551400</v>
+        <v>1977000</v>
       </c>
       <c r="E83" s="3">
-        <v>2568500</v>
+        <v>3273000</v>
       </c>
       <c r="F83" s="3">
-        <v>1254000</v>
+        <v>1598000</v>
       </c>
       <c r="G83" s="3">
-        <v>1184200</v>
+        <v>1509000</v>
       </c>
       <c r="H83" s="3">
-        <v>1704500</v>
+        <v>2172000</v>
       </c>
       <c r="I83" s="3">
-        <v>1277600</v>
+        <v>1628000</v>
       </c>
       <c r="J83" s="3">
-        <v>1137900</v>
+        <v>1450000</v>
       </c>
       <c r="K83" s="3">
         <v>860400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4297200</v>
+        <v>5476000</v>
       </c>
       <c r="E89" s="3">
-        <v>626200</v>
+        <v>798000</v>
       </c>
       <c r="F89" s="3">
-        <v>3475600</v>
+        <v>4429000</v>
       </c>
       <c r="G89" s="3">
-        <v>3077800</v>
+        <v>3922000</v>
       </c>
       <c r="H89" s="3">
-        <v>2168200</v>
+        <v>2763000</v>
       </c>
       <c r="I89" s="3">
-        <v>1581300</v>
+        <v>2015000</v>
       </c>
       <c r="J89" s="3">
-        <v>1700500</v>
+        <v>2167000</v>
       </c>
       <c r="K89" s="3">
         <v>3458100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-869500</v>
+        <v>-1108000</v>
       </c>
       <c r="E91" s="3">
-        <v>-681200</v>
+        <v>-868000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1283800</v>
+        <v>-1636000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1170000</v>
+        <v>-1491000</v>
       </c>
       <c r="H91" s="3">
-        <v>-779200</v>
+        <v>-993000</v>
       </c>
       <c r="I91" s="3">
-        <v>-842000</v>
+        <v>-1073000</v>
       </c>
       <c r="J91" s="3">
-        <v>-2349500</v>
+        <v>-2994000</v>
       </c>
       <c r="K91" s="3">
         <v>-4152900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-794200</v>
+        <v>-1012000</v>
       </c>
       <c r="E94" s="3">
-        <v>-629400</v>
+        <v>-802000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1337200</v>
+        <v>-1704000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1223400</v>
+        <v>-1559000</v>
       </c>
       <c r="H94" s="3">
-        <v>-612900</v>
+        <v>-781000</v>
       </c>
       <c r="I94" s="3">
-        <v>1527900</v>
+        <v>1947000</v>
       </c>
       <c r="J94" s="3">
-        <v>-2263200</v>
+        <v>-2884000</v>
       </c>
       <c r="K94" s="3">
         <v>-3581400</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-554000</v>
+        <v>-706000</v>
       </c>
       <c r="E96" s="3">
-        <v>-509300</v>
+        <v>-649000</v>
       </c>
       <c r="F96" s="3">
-        <v>-495200</v>
+        <v>-631000</v>
       </c>
       <c r="G96" s="3">
-        <v>-448900</v>
+        <v>-572000</v>
       </c>
       <c r="H96" s="3">
-        <v>-411200</v>
+        <v>-524000</v>
       </c>
       <c r="I96" s="3">
-        <v>-386100</v>
+        <v>-492000</v>
       </c>
       <c r="J96" s="3">
-        <v>-352300</v>
+        <v>-449000</v>
       </c>
       <c r="K96" s="3">
         <v>-346200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2418600</v>
+        <v>-3082000</v>
       </c>
       <c r="E100" s="3">
-        <v>-740000</v>
+        <v>-943000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1565600</v>
+        <v>-1995000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2016800</v>
+        <v>-2570000</v>
       </c>
       <c r="H100" s="3">
-        <v>-924400</v>
+        <v>-1178000</v>
       </c>
       <c r="I100" s="3">
-        <v>-2961600</v>
+        <v>-3774000</v>
       </c>
       <c r="J100" s="3">
-        <v>553200</v>
+        <v>705000</v>
       </c>
       <c r="K100" s="3">
         <v>78500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1084500</v>
+        <v>1382000</v>
       </c>
       <c r="E102" s="3">
-        <v>-743100</v>
+        <v>-947000</v>
       </c>
       <c r="F102" s="3">
-        <v>572900</v>
+        <v>730000</v>
       </c>
       <c r="G102" s="3">
-        <v>-162400</v>
+        <v>-207000</v>
       </c>
       <c r="H102" s="3">
-        <v>630900</v>
+        <v>804000</v>
       </c>
       <c r="I102" s="3">
-        <v>147500</v>
+        <v>188000</v>
       </c>
       <c r="J102" s="3">
-        <v>-9400</v>
+        <v>-12000</v>
       </c>
       <c r="K102" s="3">
         <v>-44700</v>

--- a/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>IMO</t>
   </si>
@@ -722,26 +722,26 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>37508000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>22284000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>34002000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>34964000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>29125000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>25446000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>26809000</v>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K8" s="3">
         <v>28607200</v>
@@ -761,26 +761,26 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>29490000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>18983000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>27466000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>27662000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>23843000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>20344000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>20718000</v>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K9" s="3">
         <v>22092100</v>
@@ -800,26 +800,26 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>8018000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3301000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>6536000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>7302000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>5282000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>5102000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>6091000</v>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K10" s="3">
         <v>6515100</v>
@@ -856,26 +856,26 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>32000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>13000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>47000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>19000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>183000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>94000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>73000</v>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K12" s="3">
         <v>52600</v>
@@ -937,8 +937,8 @@
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="3">
-        <v>1396000</v>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
@@ -973,26 +973,26 @@
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>1977000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1742000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1598000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1555000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2172000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1628000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1450000</v>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K15" s="3">
         <v>860400</v>
@@ -1026,26 +1026,26 @@
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
-        <v>34253000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>24732000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>31962000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>31918000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>28764000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>24845000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>24926000</v>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K17" s="3">
         <v>25075300</v>
@@ -1065,26 +1065,26 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
-        <v>3255000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-2448000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2040000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3046000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>361000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>601000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1883000</v>
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K18" s="3">
         <v>3531900</v>
@@ -1121,26 +1121,26 @@
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
-        <v>67000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>101000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>96000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>132000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>286000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1915000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>74000</v>
+      <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K20" s="3">
         <v>409800</v>
@@ -1160,26 +1160,26 @@
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>5299000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>926000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3734000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>4687000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>2819000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>4144000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3407000</v>
+      <c r="D21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K21" s="3">
         <v>4798900</v>
@@ -1199,26 +1199,26 @@
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
-        <v>39000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>61000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>90000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>105000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>65000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>72000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>34000</v>
+      <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1238,26 +1238,26 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>3283000</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-2408000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2046000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>3073000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>582000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2444000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1923000</v>
+      <c r="D23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K23" s="3">
         <v>3941700</v>
@@ -1277,26 +1277,26 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>804000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-551000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-154000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>759000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>92000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>279000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>801000</v>
+      <c r="D24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K24" s="3">
         <v>970300</v>
@@ -1355,26 +1355,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>2479000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-1857000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2200000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>2314000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>490000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2165000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1122000</v>
+      <c r="D26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K26" s="3">
         <v>2971400</v>
@@ -1394,26 +1394,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>2479000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1857000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2200000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>2314000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>490000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>2165000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1122000</v>
+      <c r="D27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K27" s="3">
         <v>2971400</v>
@@ -1472,26 +1472,26 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1589,26 +1589,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-67000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-101000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-96000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-132000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-286000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1915000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-74000</v>
+      <c r="D32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K32" s="3">
         <v>-409800</v>
@@ -1628,26 +1628,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>2479000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1857000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2200000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>2314000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>490000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>2165000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1122000</v>
+      <c r="D33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K33" s="3">
         <v>2971400</v>
@@ -1706,26 +1706,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>2479000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1857000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2200000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>2314000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>490000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>2165000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1122000</v>
+      <c r="D35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K35" s="3">
         <v>2971400</v>
@@ -3244,26 +3244,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>2479000</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1857000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>2200000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>2314000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>490000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>2165000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>1122000</v>
+      <c r="D81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K81" s="3">
         <v>2971400</v>

--- a/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>IMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,63 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,21 +746,24 @@
       <c r="J8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="3">
         <v>28607200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>25257000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23478000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23595400</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -782,21 +788,24 @@
       <c r="J9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="3">
         <v>22092100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19586500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17263700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17639300</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -821,21 +830,24 @@
       <c r="J10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="3">
         <v>6515100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5670500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6214300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5956100</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,21 +890,24 @@
       <c r="J12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="3">
         <v>52600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>94700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>62500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>70700</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -958,8 +977,8 @@
       <c r="K14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -967,9 +986,12 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -994,21 +1016,24 @@
       <c r="J15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="3">
         <v>860400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>854500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>572900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>586900</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,8 +1046,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1047,21 +1073,24 @@
       <c r="J17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="3">
         <v>25075300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22380200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19720100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20208300</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1086,21 +1115,24 @@
       <c r="J18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="3">
         <v>3531900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2876800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3757900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3387100</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1116,8 +1148,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,21 +1175,24 @@
       <c r="J20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="3">
         <v>409800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2300</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1181,21 +1217,24 @@
       <c r="J21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="3">
         <v>4798900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3729800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="3">
         <v>3974600</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1220,21 +1259,24 @@
       <c r="J22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1259,21 +1301,24 @@
       <c r="J23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="3">
         <v>3941700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2876800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3758700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3384800</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,21 +1343,24 @@
       <c r="J24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="3">
         <v>970300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>699800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>923700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>795100</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,9 +1397,12 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1376,21 +1427,24 @@
       <c r="J26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="3">
         <v>2971400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2177100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2835000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2589700</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1415,21 +1469,24 @@
       <c r="J27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="3">
         <v>2971400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2177100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2835000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2589700</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,8 +1553,8 @@
       <c r="J29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,9 +1649,12 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1610,21 +1679,24 @@
       <c r="J32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="3">
         <v>-409800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2300</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1649,21 +1721,24 @@
       <c r="J33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="3">
         <v>2971400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2177100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2835000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2589700</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,9 +1775,12 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1727,65 +1805,71 @@
       <c r="J35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="3">
         <v>2971400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2177100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2835000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2589700</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2153000</v>
+        <v>2711400</v>
       </c>
       <c r="E41" s="3">
-        <v>771000</v>
+        <v>1557100</v>
       </c>
       <c r="F41" s="3">
-        <v>1718000</v>
+        <v>557600</v>
       </c>
       <c r="G41" s="3">
-        <v>988000</v>
+        <v>1242500</v>
       </c>
       <c r="H41" s="3">
-        <v>1195000</v>
+        <v>714500</v>
       </c>
       <c r="I41" s="3">
-        <v>391000</v>
+        <v>864200</v>
       </c>
       <c r="J41" s="3">
+        <v>282800</v>
+      </c>
+      <c r="K41" s="3">
         <v>203000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>168800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>209400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>362800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>923400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1895,282 +1984,306 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3869000</v>
+        <v>3412900</v>
       </c>
       <c r="E43" s="3">
-        <v>1919000</v>
+        <v>2798100</v>
       </c>
       <c r="F43" s="3">
-        <v>2699000</v>
+        <v>1387900</v>
       </c>
       <c r="G43" s="3">
-        <v>2529000</v>
+        <v>1952000</v>
       </c>
       <c r="H43" s="3">
-        <v>2712000</v>
+        <v>1829000</v>
       </c>
       <c r="I43" s="3">
-        <v>2023000</v>
+        <v>1961400</v>
       </c>
       <c r="J43" s="3">
+        <v>1463100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1581000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1208200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1604300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1487500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1759200</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1102000</v>
+        <v>1095000</v>
       </c>
       <c r="E44" s="3">
-        <v>1161000</v>
+        <v>797000</v>
       </c>
       <c r="F44" s="3">
-        <v>1296000</v>
+        <v>839700</v>
       </c>
       <c r="G44" s="3">
-        <v>1297000</v>
+        <v>937300</v>
       </c>
       <c r="H44" s="3">
-        <v>1075000</v>
+        <v>938000</v>
       </c>
       <c r="I44" s="3">
-        <v>949000</v>
+        <v>777500</v>
       </c>
       <c r="J44" s="3">
+        <v>686300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1190000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>880000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>792900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>622600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>585400</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>689000</v>
+        <v>545300</v>
       </c>
       <c r="E45" s="3">
-        <v>673000</v>
+        <v>498300</v>
       </c>
       <c r="F45" s="3">
-        <v>616000</v>
+        <v>486700</v>
       </c>
       <c r="G45" s="3">
-        <v>541000</v>
+        <v>445500</v>
       </c>
       <c r="H45" s="3">
-        <v>425000</v>
+        <v>391300</v>
       </c>
       <c r="I45" s="3">
-        <v>468000</v>
+        <v>307400</v>
       </c>
       <c r="J45" s="3">
+        <v>338500</v>
+      </c>
+      <c r="K45" s="3">
         <v>696000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>544800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>693600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>607500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>636900</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7813000</v>
+        <v>7764500</v>
       </c>
       <c r="E46" s="3">
-        <v>4524000</v>
+        <v>5650500</v>
       </c>
       <c r="F46" s="3">
-        <v>6329000</v>
+        <v>3271800</v>
       </c>
       <c r="G46" s="3">
-        <v>5355000</v>
+        <v>4577300</v>
       </c>
       <c r="H46" s="3">
-        <v>5407000</v>
+        <v>3872800</v>
       </c>
       <c r="I46" s="3">
-        <v>3831000</v>
+        <v>3910500</v>
       </c>
       <c r="J46" s="3">
+        <v>2770700</v>
+      </c>
+      <c r="K46" s="3">
         <v>3670000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2801800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3300200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3080400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3904900</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>757000</v>
+        <v>645800</v>
       </c>
       <c r="E47" s="3">
-        <v>781000</v>
+        <v>547500</v>
       </c>
       <c r="F47" s="3">
-        <v>891000</v>
+        <v>564800</v>
       </c>
       <c r="G47" s="3">
-        <v>857000</v>
+        <v>644400</v>
       </c>
       <c r="H47" s="3">
-        <v>865000</v>
+        <v>619800</v>
       </c>
       <c r="I47" s="3">
-        <v>1030000</v>
+        <v>625600</v>
       </c>
       <c r="J47" s="3">
+        <v>744900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1414000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1103800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1025400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>820500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>706800</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31485000</v>
+        <v>22239700</v>
       </c>
       <c r="E48" s="3">
-        <v>32222000</v>
+        <v>22770600</v>
       </c>
       <c r="F48" s="3">
-        <v>34463000</v>
+        <v>23303600</v>
       </c>
       <c r="G48" s="3">
-        <v>34225000</v>
+        <v>24924300</v>
       </c>
       <c r="H48" s="3">
-        <v>34473000</v>
+        <v>24752200</v>
       </c>
       <c r="I48" s="3">
-        <v>36333000</v>
+        <v>24931600</v>
       </c>
       <c r="J48" s="3">
+        <v>26276800</v>
+      </c>
+      <c r="K48" s="3">
         <v>37799000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27927400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24110800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18008200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14720800</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>166000</v>
+        <v>120100</v>
       </c>
       <c r="E49" s="3">
-        <v>166000</v>
+        <v>120100</v>
       </c>
       <c r="F49" s="3">
-        <v>186000</v>
+        <v>120100</v>
       </c>
       <c r="G49" s="3">
-        <v>186000</v>
+        <v>134500</v>
       </c>
       <c r="H49" s="3">
-        <v>186000</v>
+        <v>134500</v>
       </c>
       <c r="I49" s="3">
-        <v>186000</v>
+        <v>134500</v>
       </c>
       <c r="J49" s="3">
+        <v>134500</v>
+      </c>
+      <c r="K49" s="3">
         <v>224000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>175900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>172400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>195700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>202800</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>561000</v>
+        <v>707300</v>
       </c>
       <c r="E52" s="3">
-        <v>338000</v>
+        <v>405700</v>
       </c>
       <c r="F52" s="3">
-        <v>318000</v>
+        <v>244400</v>
       </c>
       <c r="G52" s="3">
-        <v>833000</v>
+        <v>230000</v>
       </c>
       <c r="H52" s="3">
-        <v>670000</v>
+        <v>602400</v>
       </c>
       <c r="I52" s="3">
-        <v>274000</v>
+        <v>484600</v>
       </c>
       <c r="J52" s="3">
+        <v>198200</v>
+      </c>
+      <c r="K52" s="3">
         <v>63000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>44700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>42300</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>40782000</v>
+        <v>31477400</v>
       </c>
       <c r="E54" s="3">
-        <v>38031000</v>
+        <v>29494400</v>
       </c>
       <c r="F54" s="3">
-        <v>42187000</v>
+        <v>27504800</v>
       </c>
       <c r="G54" s="3">
-        <v>41456000</v>
+        <v>30510500</v>
       </c>
       <c r="H54" s="3">
-        <v>41601000</v>
+        <v>29981800</v>
       </c>
       <c r="I54" s="3">
-        <v>41654000</v>
+        <v>30086700</v>
       </c>
       <c r="J54" s="3">
+        <v>30125000</v>
+      </c>
+      <c r="K54" s="3">
         <v>43170000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32053600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28651200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22104900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19535300</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4667000</v>
+        <v>4076100</v>
       </c>
       <c r="E57" s="3">
-        <v>2712000</v>
+        <v>3375300</v>
       </c>
       <c r="F57" s="3">
-        <v>3733000</v>
+        <v>1961400</v>
       </c>
       <c r="G57" s="3">
-        <v>3275000</v>
+        <v>2699800</v>
       </c>
       <c r="H57" s="3">
-        <v>3440000</v>
+        <v>2368500</v>
       </c>
       <c r="I57" s="3">
-        <v>2797000</v>
+        <v>2487900</v>
       </c>
       <c r="J57" s="3">
+        <v>2022800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2611000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2795600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3185500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>165200</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>122000</v>
+        <v>88200</v>
       </c>
       <c r="E58" s="3">
-        <v>227000</v>
+        <v>88200</v>
       </c>
       <c r="F58" s="3">
-        <v>244000</v>
+        <v>164200</v>
       </c>
       <c r="G58" s="3">
-        <v>202000</v>
+        <v>176500</v>
       </c>
       <c r="H58" s="3">
-        <v>202000</v>
+        <v>146100</v>
       </c>
       <c r="I58" s="3">
-        <v>202000</v>
+        <v>146100</v>
       </c>
       <c r="J58" s="3">
+        <v>146100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1952000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1552800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1418800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3547100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3430900</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>765000</v>
+        <v>2270900</v>
       </c>
       <c r="E59" s="3">
-        <v>441000</v>
+        <v>553300</v>
       </c>
       <c r="F59" s="3">
-        <v>618000</v>
+        <v>318900</v>
       </c>
       <c r="G59" s="3">
-        <v>478000</v>
+        <v>446900</v>
       </c>
       <c r="H59" s="3">
-        <v>494000</v>
+        <v>345700</v>
       </c>
       <c r="I59" s="3">
-        <v>884000</v>
+        <v>357300</v>
       </c>
       <c r="J59" s="3">
+        <v>639300</v>
+      </c>
+      <c r="K59" s="3">
         <v>830000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>347000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>852200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>891300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>974100</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5554000</v>
+        <v>6435200</v>
       </c>
       <c r="E60" s="3">
-        <v>3380000</v>
+        <v>4016800</v>
       </c>
       <c r="F60" s="3">
-        <v>4595000</v>
+        <v>2444500</v>
       </c>
       <c r="G60" s="3">
-        <v>3955000</v>
+        <v>3323200</v>
       </c>
       <c r="H60" s="3">
-        <v>4136000</v>
+        <v>2860300</v>
       </c>
       <c r="I60" s="3">
-        <v>3883000</v>
+        <v>2991200</v>
       </c>
       <c r="J60" s="3">
+        <v>2808300</v>
+      </c>
+      <c r="K60" s="3">
         <v>5393000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4695400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5456500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4445200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4570200</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5054000</v>
+        <v>2916700</v>
       </c>
       <c r="E61" s="3">
-        <v>4957000</v>
+        <v>3655200</v>
       </c>
       <c r="F61" s="3">
-        <v>4961000</v>
+        <v>3585000</v>
       </c>
       <c r="G61" s="3">
-        <v>4978000</v>
+        <v>3587900</v>
       </c>
       <c r="H61" s="3">
-        <v>5005000</v>
+        <v>3600200</v>
       </c>
       <c r="I61" s="3">
-        <v>5032000</v>
+        <v>3619700</v>
       </c>
       <c r="J61" s="3">
+        <v>3639200</v>
+      </c>
+      <c r="K61" s="3">
         <v>6564000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3857000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3421100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>884500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>647600</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8439000</v>
+        <v>5915900</v>
       </c>
       <c r="E62" s="3">
-        <v>8276000</v>
+        <v>6103300</v>
       </c>
       <c r="F62" s="3">
-        <v>8355000</v>
+        <v>5985400</v>
       </c>
       <c r="G62" s="3">
-        <v>8034000</v>
+        <v>6042500</v>
       </c>
       <c r="H62" s="3">
-        <v>8025000</v>
+        <v>5810300</v>
       </c>
       <c r="I62" s="3">
-        <v>7718000</v>
+        <v>5803800</v>
       </c>
       <c r="J62" s="3">
+        <v>5581800</v>
+      </c>
+      <c r="K62" s="3">
         <v>7788000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5814100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4743600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4446700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4083900</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19047000</v>
+        <v>15267900</v>
       </c>
       <c r="E66" s="3">
-        <v>16613000</v>
+        <v>13775200</v>
       </c>
       <c r="F66" s="3">
-        <v>17911000</v>
+        <v>12014900</v>
       </c>
       <c r="G66" s="3">
-        <v>16967000</v>
+        <v>12953600</v>
       </c>
       <c r="H66" s="3">
-        <v>17166000</v>
+        <v>12270900</v>
       </c>
       <c r="I66" s="3">
-        <v>16633000</v>
+        <v>12414800</v>
       </c>
       <c r="J66" s="3">
+        <v>12029300</v>
+      </c>
+      <c r="K66" s="3">
         <v>19745000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14366400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13621200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9776500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9301700</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21660000</v>
+        <v>15799500</v>
       </c>
       <c r="E72" s="3">
-        <v>22050000</v>
+        <v>15664900</v>
       </c>
       <c r="F72" s="3">
-        <v>24812000</v>
+        <v>15947000</v>
       </c>
       <c r="G72" s="3">
-        <v>24560000</v>
+        <v>17944500</v>
       </c>
       <c r="H72" s="3">
-        <v>24714000</v>
+        <v>17762300</v>
       </c>
       <c r="I72" s="3">
-        <v>25352000</v>
+        <v>17873700</v>
       </c>
       <c r="J72" s="3">
+        <v>18335100</v>
+      </c>
+      <c r="K72" s="3">
         <v>23687000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18074200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15149300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12997700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10779000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21735000</v>
+        <v>16209500</v>
       </c>
       <c r="E76" s="3">
-        <v>21418000</v>
+        <v>15719200</v>
       </c>
       <c r="F76" s="3">
-        <v>24276000</v>
+        <v>15489900</v>
       </c>
       <c r="G76" s="3">
-        <v>24489000</v>
+        <v>17556900</v>
       </c>
       <c r="H76" s="3">
-        <v>24435000</v>
+        <v>17710900</v>
       </c>
       <c r="I76" s="3">
-        <v>25021000</v>
+        <v>17671900</v>
       </c>
       <c r="J76" s="3">
+        <v>18095700</v>
+      </c>
+      <c r="K76" s="3">
         <v>23425000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17687200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15030000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12328400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10233600</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,53 +3382,59 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3265,21 +3459,24 @@
       <c r="J81" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" s="3">
         <v>2971400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2177100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2835000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2589700</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1977000</v>
+        <v>1371900</v>
       </c>
       <c r="E83" s="3">
-        <v>3273000</v>
+        <v>1429800</v>
       </c>
       <c r="F83" s="3">
-        <v>1598000</v>
+        <v>2367100</v>
       </c>
       <c r="G83" s="3">
-        <v>1509000</v>
+        <v>1155700</v>
       </c>
       <c r="H83" s="3">
-        <v>2172000</v>
+        <v>1091300</v>
       </c>
       <c r="I83" s="3">
-        <v>1628000</v>
+        <v>1570800</v>
       </c>
       <c r="J83" s="3">
+        <v>1177400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1450000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>860400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>854500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O83" s="3">
         <v>586900</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5476000</v>
+        <v>7580800</v>
       </c>
       <c r="E89" s="3">
-        <v>798000</v>
+        <v>3960400</v>
       </c>
       <c r="F89" s="3">
-        <v>4429000</v>
+        <v>577100</v>
       </c>
       <c r="G89" s="3">
-        <v>3922000</v>
+        <v>3203100</v>
       </c>
       <c r="H89" s="3">
-        <v>2763000</v>
+        <v>2836500</v>
       </c>
       <c r="I89" s="3">
-        <v>2015000</v>
+        <v>1998300</v>
       </c>
       <c r="J89" s="3">
+        <v>1457300</v>
+      </c>
+      <c r="K89" s="3">
         <v>2167000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3458100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2534200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3523100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3448600</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1108000</v>
+        <v>-1103600</v>
       </c>
       <c r="E91" s="3">
-        <v>-868000</v>
+        <v>-801300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1636000</v>
+        <v>-627800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1491000</v>
+        <v>-1183200</v>
       </c>
       <c r="H91" s="3">
-        <v>-993000</v>
+        <v>-1078300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1073000</v>
+        <v>-718200</v>
       </c>
       <c r="J91" s="3">
+        <v>-776000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2994000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4152900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4847600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4123800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3010700</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1012000</v>
+        <v>-446900</v>
       </c>
       <c r="E94" s="3">
-        <v>-802000</v>
+        <v>-731900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1704000</v>
+        <v>-580000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1559000</v>
+        <v>-1232400</v>
       </c>
       <c r="H94" s="3">
-        <v>-781000</v>
+        <v>-1127500</v>
       </c>
       <c r="I94" s="3">
-        <v>1947000</v>
+        <v>-564800</v>
       </c>
       <c r="J94" s="3">
+        <v>1408100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2884000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3581400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5954600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O94" s="3">
         <v>-2760300</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-706000</v>
+        <v>-615500</v>
       </c>
       <c r="E96" s="3">
-        <v>-649000</v>
+        <v>-510600</v>
       </c>
       <c r="F96" s="3">
-        <v>-631000</v>
+        <v>-469400</v>
       </c>
       <c r="G96" s="3">
-        <v>-572000</v>
+        <v>-456400</v>
       </c>
       <c r="H96" s="3">
-        <v>-524000</v>
+        <v>-413700</v>
       </c>
       <c r="I96" s="3">
-        <v>-492000</v>
+        <v>-379000</v>
       </c>
       <c r="J96" s="3">
+        <v>-355800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-449000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-346200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-313300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-299600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-286500</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,48 +4155,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3082000</v>
+        <v>-5979600</v>
       </c>
       <c r="E100" s="3">
-        <v>-943000</v>
+        <v>-2229000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1995000</v>
+        <v>-682000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2570000</v>
+        <v>-1442800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1178000</v>
+        <v>-1858700</v>
       </c>
       <c r="I100" s="3">
-        <v>-3774000</v>
+        <v>-852000</v>
       </c>
       <c r="J100" s="3">
+        <v>-2729400</v>
+      </c>
+      <c r="K100" s="3">
         <v>705000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>78500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3258600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O100" s="3">
         <v>30000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3985,52 +4233,58 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1382000</v>
+        <v>1154300</v>
       </c>
       <c r="E102" s="3">
-        <v>-947000</v>
+        <v>999500</v>
       </c>
       <c r="F102" s="3">
-        <v>730000</v>
+        <v>-684900</v>
       </c>
       <c r="G102" s="3">
-        <v>-207000</v>
+        <v>528000</v>
       </c>
       <c r="H102" s="3">
-        <v>804000</v>
+        <v>-149700</v>
       </c>
       <c r="I102" s="3">
-        <v>188000</v>
+        <v>581500</v>
       </c>
       <c r="J102" s="3">
+        <v>136000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-12000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-44700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-161700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-542000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>718300</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2711400</v>
+        <v>2777000</v>
       </c>
       <c r="E41" s="3">
-        <v>1557100</v>
+        <v>1594800</v>
       </c>
       <c r="F41" s="3">
-        <v>557600</v>
+        <v>571100</v>
       </c>
       <c r="G41" s="3">
-        <v>1242500</v>
+        <v>1272600</v>
       </c>
       <c r="H41" s="3">
-        <v>714500</v>
+        <v>731900</v>
       </c>
       <c r="I41" s="3">
-        <v>864200</v>
+        <v>885200</v>
       </c>
       <c r="J41" s="3">
-        <v>282800</v>
+        <v>289600</v>
       </c>
       <c r="K41" s="3">
         <v>203000</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3412900</v>
+        <v>3495600</v>
       </c>
       <c r="E43" s="3">
-        <v>2798100</v>
+        <v>2865900</v>
       </c>
       <c r="F43" s="3">
-        <v>1387900</v>
+        <v>1421500</v>
       </c>
       <c r="G43" s="3">
-        <v>1952000</v>
+        <v>1999300</v>
       </c>
       <c r="H43" s="3">
-        <v>1829000</v>
+        <v>1873300</v>
       </c>
       <c r="I43" s="3">
-        <v>1961400</v>
+        <v>2008900</v>
       </c>
       <c r="J43" s="3">
-        <v>1463100</v>
+        <v>1498500</v>
       </c>
       <c r="K43" s="3">
         <v>1581000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1095000</v>
+        <v>1121500</v>
       </c>
       <c r="E44" s="3">
-        <v>797000</v>
+        <v>816300</v>
       </c>
       <c r="F44" s="3">
-        <v>839700</v>
+        <v>860000</v>
       </c>
       <c r="G44" s="3">
-        <v>937300</v>
+        <v>960000</v>
       </c>
       <c r="H44" s="3">
-        <v>938000</v>
+        <v>960700</v>
       </c>
       <c r="I44" s="3">
-        <v>777500</v>
+        <v>796300</v>
       </c>
       <c r="J44" s="3">
-        <v>686300</v>
+        <v>703000</v>
       </c>
       <c r="K44" s="3">
         <v>1190000</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>545300</v>
+        <v>558500</v>
       </c>
       <c r="E45" s="3">
-        <v>498300</v>
+        <v>510400</v>
       </c>
       <c r="F45" s="3">
-        <v>486700</v>
+        <v>498500</v>
       </c>
       <c r="G45" s="3">
-        <v>445500</v>
+        <v>456300</v>
       </c>
       <c r="H45" s="3">
-        <v>391300</v>
+        <v>400700</v>
       </c>
       <c r="I45" s="3">
-        <v>307400</v>
+        <v>314800</v>
       </c>
       <c r="J45" s="3">
-        <v>338500</v>
+        <v>346700</v>
       </c>
       <c r="K45" s="3">
         <v>696000</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7764500</v>
+        <v>7952600</v>
       </c>
       <c r="E46" s="3">
-        <v>5650500</v>
+        <v>5787400</v>
       </c>
       <c r="F46" s="3">
-        <v>3271800</v>
+        <v>3351100</v>
       </c>
       <c r="G46" s="3">
-        <v>4577300</v>
+        <v>4688100</v>
       </c>
       <c r="H46" s="3">
-        <v>3872800</v>
+        <v>3966700</v>
       </c>
       <c r="I46" s="3">
-        <v>3910500</v>
+        <v>4005200</v>
       </c>
       <c r="J46" s="3">
-        <v>2770700</v>
+        <v>2837800</v>
       </c>
       <c r="K46" s="3">
         <v>3670000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>645800</v>
+        <v>661500</v>
       </c>
       <c r="E47" s="3">
-        <v>547500</v>
+        <v>560700</v>
       </c>
       <c r="F47" s="3">
-        <v>564800</v>
+        <v>578500</v>
       </c>
       <c r="G47" s="3">
-        <v>644400</v>
+        <v>660000</v>
       </c>
       <c r="H47" s="3">
-        <v>619800</v>
+        <v>634800</v>
       </c>
       <c r="I47" s="3">
-        <v>625600</v>
+        <v>640700</v>
       </c>
       <c r="J47" s="3">
-        <v>744900</v>
+        <v>763000</v>
       </c>
       <c r="K47" s="3">
         <v>1414000</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22239700</v>
+        <v>22778500</v>
       </c>
       <c r="E48" s="3">
-        <v>22770600</v>
+        <v>23322200</v>
       </c>
       <c r="F48" s="3">
-        <v>23303600</v>
+        <v>23868100</v>
       </c>
       <c r="G48" s="3">
-        <v>24924300</v>
+        <v>25528100</v>
       </c>
       <c r="H48" s="3">
-        <v>24752200</v>
+        <v>25351800</v>
       </c>
       <c r="I48" s="3">
-        <v>24931600</v>
+        <v>25535500</v>
       </c>
       <c r="J48" s="3">
-        <v>26276800</v>
+        <v>26913300</v>
       </c>
       <c r="K48" s="3">
         <v>37799000</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>120100</v>
+        <v>123000</v>
       </c>
       <c r="E49" s="3">
-        <v>120100</v>
+        <v>123000</v>
       </c>
       <c r="F49" s="3">
-        <v>120100</v>
+        <v>123000</v>
       </c>
       <c r="G49" s="3">
-        <v>134500</v>
+        <v>137800</v>
       </c>
       <c r="H49" s="3">
-        <v>134500</v>
+        <v>137800</v>
       </c>
       <c r="I49" s="3">
-        <v>134500</v>
+        <v>137800</v>
       </c>
       <c r="J49" s="3">
-        <v>134500</v>
+        <v>137800</v>
       </c>
       <c r="K49" s="3">
         <v>224000</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>707300</v>
+        <v>724400</v>
       </c>
       <c r="E52" s="3">
-        <v>405700</v>
+        <v>415600</v>
       </c>
       <c r="F52" s="3">
-        <v>244400</v>
+        <v>250400</v>
       </c>
       <c r="G52" s="3">
-        <v>230000</v>
+        <v>235600</v>
       </c>
       <c r="H52" s="3">
-        <v>602400</v>
+        <v>617000</v>
       </c>
       <c r="I52" s="3">
-        <v>484600</v>
+        <v>496300</v>
       </c>
       <c r="J52" s="3">
-        <v>198200</v>
+        <v>203000</v>
       </c>
       <c r="K52" s="3">
         <v>63000</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31477400</v>
+        <v>32240000</v>
       </c>
       <c r="E54" s="3">
-        <v>29494400</v>
+        <v>30208900</v>
       </c>
       <c r="F54" s="3">
-        <v>27504800</v>
+        <v>28171100</v>
       </c>
       <c r="G54" s="3">
-        <v>30510500</v>
+        <v>31249600</v>
       </c>
       <c r="H54" s="3">
-        <v>29981800</v>
+        <v>30708100</v>
       </c>
       <c r="I54" s="3">
-        <v>30086700</v>
+        <v>30815500</v>
       </c>
       <c r="J54" s="3">
-        <v>30125000</v>
+        <v>30854800</v>
       </c>
       <c r="K54" s="3">
         <v>43170000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4076100</v>
+        <v>4174800</v>
       </c>
       <c r="E57" s="3">
-        <v>3375300</v>
+        <v>3457000</v>
       </c>
       <c r="F57" s="3">
-        <v>1961400</v>
+        <v>2008900</v>
       </c>
       <c r="G57" s="3">
-        <v>2699800</v>
+        <v>2765200</v>
       </c>
       <c r="H57" s="3">
-        <v>2368500</v>
+        <v>2425900</v>
       </c>
       <c r="I57" s="3">
-        <v>2487900</v>
+        <v>2548100</v>
       </c>
       <c r="J57" s="3">
-        <v>2022800</v>
+        <v>2071800</v>
       </c>
       <c r="K57" s="3">
         <v>2611000</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>88200</v>
+        <v>90400</v>
       </c>
       <c r="E58" s="3">
-        <v>88200</v>
+        <v>90400</v>
       </c>
       <c r="F58" s="3">
-        <v>164200</v>
+        <v>168100</v>
       </c>
       <c r="G58" s="3">
-        <v>176500</v>
+        <v>180700</v>
       </c>
       <c r="H58" s="3">
-        <v>146100</v>
+        <v>149600</v>
       </c>
       <c r="I58" s="3">
-        <v>146100</v>
+        <v>149600</v>
       </c>
       <c r="J58" s="3">
-        <v>146100</v>
+        <v>149600</v>
       </c>
       <c r="K58" s="3">
         <v>1952000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2270900</v>
+        <v>2325900</v>
       </c>
       <c r="E59" s="3">
-        <v>553300</v>
+        <v>566700</v>
       </c>
       <c r="F59" s="3">
-        <v>318900</v>
+        <v>326700</v>
       </c>
       <c r="G59" s="3">
-        <v>446900</v>
+        <v>457800</v>
       </c>
       <c r="H59" s="3">
-        <v>345700</v>
+        <v>354100</v>
       </c>
       <c r="I59" s="3">
-        <v>357300</v>
+        <v>365900</v>
       </c>
       <c r="J59" s="3">
-        <v>639300</v>
+        <v>654800</v>
       </c>
       <c r="K59" s="3">
         <v>830000</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6435200</v>
+        <v>6591100</v>
       </c>
       <c r="E60" s="3">
-        <v>4016800</v>
+        <v>4114100</v>
       </c>
       <c r="F60" s="3">
-        <v>2444500</v>
+        <v>2503700</v>
       </c>
       <c r="G60" s="3">
-        <v>3323200</v>
+        <v>3403700</v>
       </c>
       <c r="H60" s="3">
-        <v>2860300</v>
+        <v>2929600</v>
       </c>
       <c r="I60" s="3">
-        <v>2991200</v>
+        <v>3063700</v>
       </c>
       <c r="J60" s="3">
-        <v>2808300</v>
+        <v>2876300</v>
       </c>
       <c r="K60" s="3">
         <v>5393000</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2916700</v>
+        <v>2987400</v>
       </c>
       <c r="E61" s="3">
-        <v>3655200</v>
+        <v>3743700</v>
       </c>
       <c r="F61" s="3">
-        <v>3585000</v>
+        <v>3671800</v>
       </c>
       <c r="G61" s="3">
-        <v>3587900</v>
+        <v>3674800</v>
       </c>
       <c r="H61" s="3">
-        <v>3600200</v>
+        <v>3687400</v>
       </c>
       <c r="I61" s="3">
-        <v>3619700</v>
+        <v>3707400</v>
       </c>
       <c r="J61" s="3">
-        <v>3639200</v>
+        <v>3727400</v>
       </c>
       <c r="K61" s="3">
         <v>6564000</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5915900</v>
+        <v>6059300</v>
       </c>
       <c r="E62" s="3">
-        <v>6103300</v>
+        <v>6251100</v>
       </c>
       <c r="F62" s="3">
-        <v>5985400</v>
+        <v>6130400</v>
       </c>
       <c r="G62" s="3">
-        <v>6042500</v>
+        <v>6188900</v>
       </c>
       <c r="H62" s="3">
-        <v>5810300</v>
+        <v>5951100</v>
       </c>
       <c r="I62" s="3">
-        <v>5803800</v>
+        <v>5944400</v>
       </c>
       <c r="J62" s="3">
-        <v>5581800</v>
+        <v>5717000</v>
       </c>
       <c r="K62" s="3">
         <v>7788000</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15267900</v>
+        <v>15637800</v>
       </c>
       <c r="E66" s="3">
-        <v>13775200</v>
+        <v>14108900</v>
       </c>
       <c r="F66" s="3">
-        <v>12014900</v>
+        <v>12305900</v>
       </c>
       <c r="G66" s="3">
-        <v>12953600</v>
+        <v>13267400</v>
       </c>
       <c r="H66" s="3">
-        <v>12270900</v>
+        <v>12568100</v>
       </c>
       <c r="I66" s="3">
-        <v>12414800</v>
+        <v>12715500</v>
       </c>
       <c r="J66" s="3">
-        <v>12029300</v>
+        <v>12320700</v>
       </c>
       <c r="K66" s="3">
         <v>19745000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15799500</v>
+        <v>16182200</v>
       </c>
       <c r="E72" s="3">
-        <v>15664900</v>
+        <v>16044400</v>
       </c>
       <c r="F72" s="3">
-        <v>15947000</v>
+        <v>16333300</v>
       </c>
       <c r="G72" s="3">
-        <v>17944500</v>
+        <v>18379200</v>
       </c>
       <c r="H72" s="3">
-        <v>17762300</v>
+        <v>18192600</v>
       </c>
       <c r="I72" s="3">
-        <v>17873700</v>
+        <v>18306600</v>
       </c>
       <c r="J72" s="3">
-        <v>18335100</v>
+        <v>18779200</v>
       </c>
       <c r="K72" s="3">
         <v>23687000</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16209500</v>
+        <v>16602200</v>
       </c>
       <c r="E76" s="3">
-        <v>15719200</v>
+        <v>16100000</v>
       </c>
       <c r="F76" s="3">
-        <v>15489900</v>
+        <v>15865200</v>
       </c>
       <c r="G76" s="3">
-        <v>17556900</v>
+        <v>17982200</v>
       </c>
       <c r="H76" s="3">
-        <v>17710900</v>
+        <v>18140000</v>
       </c>
       <c r="I76" s="3">
-        <v>17671900</v>
+        <v>18100000</v>
       </c>
       <c r="J76" s="3">
-        <v>18095700</v>
+        <v>18534100</v>
       </c>
       <c r="K76" s="3">
         <v>23425000</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1371900</v>
+        <v>1405200</v>
       </c>
       <c r="E83" s="3">
-        <v>1429800</v>
+        <v>1464400</v>
       </c>
       <c r="F83" s="3">
-        <v>2367100</v>
+        <v>2424400</v>
       </c>
       <c r="G83" s="3">
-        <v>1155700</v>
+        <v>1183700</v>
       </c>
       <c r="H83" s="3">
-        <v>1091300</v>
+        <v>1117800</v>
       </c>
       <c r="I83" s="3">
-        <v>1570800</v>
+        <v>1608900</v>
       </c>
       <c r="J83" s="3">
-        <v>1177400</v>
+        <v>1205900</v>
       </c>
       <c r="K83" s="3">
         <v>1450000</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7580800</v>
+        <v>7764400</v>
       </c>
       <c r="E89" s="3">
-        <v>3960400</v>
+        <v>4056300</v>
       </c>
       <c r="F89" s="3">
-        <v>577100</v>
+        <v>591100</v>
       </c>
       <c r="G89" s="3">
-        <v>3203100</v>
+        <v>3280700</v>
       </c>
       <c r="H89" s="3">
-        <v>2836500</v>
+        <v>2905200</v>
       </c>
       <c r="I89" s="3">
-        <v>1998300</v>
+        <v>2046700</v>
       </c>
       <c r="J89" s="3">
-        <v>1457300</v>
+        <v>1492600</v>
       </c>
       <c r="K89" s="3">
         <v>2167000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1103600</v>
+        <v>-1130400</v>
       </c>
       <c r="E91" s="3">
-        <v>-801300</v>
+        <v>-820700</v>
       </c>
       <c r="F91" s="3">
-        <v>-627800</v>
+        <v>-643000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1183200</v>
+        <v>-1211900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1078300</v>
+        <v>-1104400</v>
       </c>
       <c r="I91" s="3">
-        <v>-718200</v>
+        <v>-735600</v>
       </c>
       <c r="J91" s="3">
-        <v>-776000</v>
+        <v>-794800</v>
       </c>
       <c r="K91" s="3">
         <v>-2994000</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-446900</v>
+        <v>-457800</v>
       </c>
       <c r="E94" s="3">
-        <v>-731900</v>
+        <v>-749600</v>
       </c>
       <c r="F94" s="3">
-        <v>-580000</v>
+        <v>-594100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1232400</v>
+        <v>-1262200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1127500</v>
+        <v>-1154800</v>
       </c>
       <c r="I94" s="3">
-        <v>-564800</v>
+        <v>-578500</v>
       </c>
       <c r="J94" s="3">
-        <v>1408100</v>
+        <v>1442200</v>
       </c>
       <c r="K94" s="3">
         <v>-2884000</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-615500</v>
+        <v>-630400</v>
       </c>
       <c r="E96" s="3">
-        <v>-510600</v>
+        <v>-523000</v>
       </c>
       <c r="F96" s="3">
-        <v>-469400</v>
+        <v>-480700</v>
       </c>
       <c r="G96" s="3">
-        <v>-456400</v>
+        <v>-467400</v>
       </c>
       <c r="H96" s="3">
-        <v>-413700</v>
+        <v>-423700</v>
       </c>
       <c r="I96" s="3">
-        <v>-379000</v>
+        <v>-388100</v>
       </c>
       <c r="J96" s="3">
-        <v>-355800</v>
+        <v>-364400</v>
       </c>
       <c r="K96" s="3">
         <v>-449000</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5979600</v>
+        <v>-6124400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2229000</v>
+        <v>-2283000</v>
       </c>
       <c r="F100" s="3">
-        <v>-682000</v>
+        <v>-698500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1442800</v>
+        <v>-1477800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1858700</v>
+        <v>-1903700</v>
       </c>
       <c r="I100" s="3">
-        <v>-852000</v>
+        <v>-872600</v>
       </c>
       <c r="J100" s="3">
-        <v>-2729400</v>
+        <v>-2795600</v>
       </c>
       <c r="K100" s="3">
         <v>705000</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1154300</v>
+        <v>1182200</v>
       </c>
       <c r="E102" s="3">
-        <v>999500</v>
+        <v>1023700</v>
       </c>
       <c r="F102" s="3">
-        <v>-684900</v>
+        <v>-701500</v>
       </c>
       <c r="G102" s="3">
-        <v>528000</v>
+        <v>540700</v>
       </c>
       <c r="H102" s="3">
-        <v>-149700</v>
+        <v>-153300</v>
       </c>
       <c r="I102" s="3">
-        <v>581500</v>
+        <v>595600</v>
       </c>
       <c r="J102" s="3">
-        <v>136000</v>
+        <v>139300</v>
       </c>
       <c r="K102" s="3">
         <v>-12000</v>

--- a/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>IMO</t>
   </si>
@@ -725,26 +725,26 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>17</v>
+      <c r="D8" s="3">
+        <v>59413000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>37508000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>22284000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>34002000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>34964000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>29125000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>25446000</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>17</v>
@@ -767,26 +767,26 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>17</v>
+      <c r="D9" s="3">
+        <v>45146000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>29490000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>18983000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>27466000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>27662000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>23843000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>20344000</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>17</v>
@@ -809,26 +809,26 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>17</v>
+      <c r="D10" s="3">
+        <v>14267000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8018000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3301000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6536000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>7302000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5282000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5102000</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>17</v>
@@ -869,26 +869,26 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>17</v>
+      <c r="D12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>47000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>183000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>94000</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>17</v>
@@ -959,8 +959,8 @@
       <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>17</v>
+      <c r="F14" s="3">
+        <v>1396000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>17</v>
@@ -995,26 +995,26 @@
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>17</v>
+      <c r="D15" s="3">
+        <v>1897000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1977000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1742000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1598000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1555000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2172000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1628000</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>17</v>
@@ -1052,26 +1052,26 @@
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>17</v>
+      <c r="D17" s="3">
+        <v>50126000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>34253000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>24732000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>31962000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>31918000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>28764000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>24845000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>17</v>
@@ -1094,26 +1094,26 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>17</v>
+      <c r="D18" s="3">
+        <v>9287000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3255000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2448000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2040000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3046000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>361000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>601000</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>17</v>
@@ -1154,26 +1154,26 @@
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>17</v>
+      <c r="D20" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>67000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>101000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>96000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>132000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>286000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1915000</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>17</v>
@@ -1196,26 +1196,26 @@
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>17</v>
+      <c r="D21" s="3">
+        <v>11435000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5299000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>926000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3734000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4687000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2819000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4144000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>17</v>
@@ -1238,26 +1238,26 @@
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>17</v>
+      <c r="D22" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>90000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>105000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>65000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>72000</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>17</v>
@@ -1280,26 +1280,26 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>17</v>
+      <c r="D23" s="3">
+        <v>9484000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3283000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2408000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2046000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3073000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>582000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2444000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>17</v>
@@ -1322,26 +1322,26 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>17</v>
+      <c r="D24" s="3">
+        <v>2144000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>804000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-551000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-154000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>759000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>92000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>279000</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>17</v>
@@ -1406,26 +1406,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>17</v>
+      <c r="D26" s="3">
+        <v>7340000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2479000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1857000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2314000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>490000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2165000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>17</v>
@@ -1448,26 +1448,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>17</v>
+      <c r="D27" s="3">
+        <v>7340000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2479000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1857000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2314000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>490000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2165000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>17</v>
@@ -1532,26 +1532,26 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>17</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>17</v>
@@ -1658,26 +1658,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>17</v>
+      <c r="D32" s="3">
+        <v>-251000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-286000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1915000</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>17</v>
@@ -1700,26 +1700,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>17</v>
+      <c r="D33" s="3">
+        <v>7340000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2479000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1857000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2314000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>490000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2165000</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>17</v>
@@ -1784,26 +1784,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>17</v>
+      <c r="D35" s="3">
+        <v>7340000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2479000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1857000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2314000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>490000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2165000</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>17</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2777000</v>
+        <v>3749000</v>
       </c>
       <c r="E41" s="3">
-        <v>1594800</v>
+        <v>2153000</v>
       </c>
       <c r="F41" s="3">
-        <v>571100</v>
+        <v>771000</v>
       </c>
       <c r="G41" s="3">
-        <v>1272600</v>
+        <v>1718000</v>
       </c>
       <c r="H41" s="3">
-        <v>731900</v>
+        <v>988000</v>
       </c>
       <c r="I41" s="3">
-        <v>885200</v>
+        <v>1195000</v>
       </c>
       <c r="J41" s="3">
-        <v>289600</v>
+        <v>391000</v>
       </c>
       <c r="K41" s="3">
         <v>203000</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3495600</v>
+        <v>4719000</v>
       </c>
       <c r="E43" s="3">
-        <v>2865900</v>
+        <v>3869000</v>
       </c>
       <c r="F43" s="3">
-        <v>1421500</v>
+        <v>1919000</v>
       </c>
       <c r="G43" s="3">
-        <v>1999300</v>
+        <v>2699000</v>
       </c>
       <c r="H43" s="3">
-        <v>1873300</v>
+        <v>2529000</v>
       </c>
       <c r="I43" s="3">
-        <v>2008900</v>
+        <v>2712000</v>
       </c>
       <c r="J43" s="3">
-        <v>1498500</v>
+        <v>2023000</v>
       </c>
       <c r="K43" s="3">
         <v>1581000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1121500</v>
+        <v>1514000</v>
       </c>
       <c r="E44" s="3">
-        <v>816300</v>
+        <v>1102000</v>
       </c>
       <c r="F44" s="3">
-        <v>860000</v>
+        <v>1161000</v>
       </c>
       <c r="G44" s="3">
-        <v>960000</v>
+        <v>1296000</v>
       </c>
       <c r="H44" s="3">
-        <v>960700</v>
+        <v>1297000</v>
       </c>
       <c r="I44" s="3">
-        <v>796300</v>
+        <v>1075000</v>
       </c>
       <c r="J44" s="3">
-        <v>703000</v>
+        <v>949000</v>
       </c>
       <c r="K44" s="3">
         <v>1190000</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>558500</v>
+        <v>754000</v>
       </c>
       <c r="E45" s="3">
-        <v>510400</v>
+        <v>689000</v>
       </c>
       <c r="F45" s="3">
-        <v>498500</v>
+        <v>673000</v>
       </c>
       <c r="G45" s="3">
-        <v>456300</v>
+        <v>616000</v>
       </c>
       <c r="H45" s="3">
-        <v>400700</v>
+        <v>541000</v>
       </c>
       <c r="I45" s="3">
-        <v>314800</v>
+        <v>425000</v>
       </c>
       <c r="J45" s="3">
-        <v>346700</v>
+        <v>468000</v>
       </c>
       <c r="K45" s="3">
         <v>696000</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7952600</v>
+        <v>10736000</v>
       </c>
       <c r="E46" s="3">
-        <v>5787400</v>
+        <v>7813000</v>
       </c>
       <c r="F46" s="3">
-        <v>3351100</v>
+        <v>4524000</v>
       </c>
       <c r="G46" s="3">
-        <v>4688100</v>
+        <v>6329000</v>
       </c>
       <c r="H46" s="3">
-        <v>3966700</v>
+        <v>5355000</v>
       </c>
       <c r="I46" s="3">
-        <v>4005200</v>
+        <v>5407000</v>
       </c>
       <c r="J46" s="3">
-        <v>2837800</v>
+        <v>3831000</v>
       </c>
       <c r="K46" s="3">
         <v>3670000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>661500</v>
+        <v>893000</v>
       </c>
       <c r="E47" s="3">
-        <v>560700</v>
+        <v>757000</v>
       </c>
       <c r="F47" s="3">
-        <v>578500</v>
+        <v>781000</v>
       </c>
       <c r="G47" s="3">
-        <v>660000</v>
+        <v>891000</v>
       </c>
       <c r="H47" s="3">
-        <v>634800</v>
+        <v>857000</v>
       </c>
       <c r="I47" s="3">
-        <v>640700</v>
+        <v>865000</v>
       </c>
       <c r="J47" s="3">
-        <v>763000</v>
+        <v>1030000</v>
       </c>
       <c r="K47" s="3">
         <v>1414000</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22778500</v>
+        <v>30751000</v>
       </c>
       <c r="E48" s="3">
-        <v>23322200</v>
+        <v>31485000</v>
       </c>
       <c r="F48" s="3">
-        <v>23868100</v>
+        <v>32222000</v>
       </c>
       <c r="G48" s="3">
-        <v>25528100</v>
+        <v>34463000</v>
       </c>
       <c r="H48" s="3">
-        <v>25351800</v>
+        <v>34225000</v>
       </c>
       <c r="I48" s="3">
-        <v>25535500</v>
+        <v>34473000</v>
       </c>
       <c r="J48" s="3">
-        <v>26913300</v>
+        <v>36333000</v>
       </c>
       <c r="K48" s="3">
         <v>37799000</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>123000</v>
+        <v>166000</v>
       </c>
       <c r="E49" s="3">
-        <v>123000</v>
+        <v>166000</v>
       </c>
       <c r="F49" s="3">
-        <v>123000</v>
+        <v>166000</v>
       </c>
       <c r="G49" s="3">
-        <v>137800</v>
+        <v>186000</v>
       </c>
       <c r="H49" s="3">
-        <v>137800</v>
+        <v>186000</v>
       </c>
       <c r="I49" s="3">
-        <v>137800</v>
+        <v>186000</v>
       </c>
       <c r="J49" s="3">
-        <v>137800</v>
+        <v>186000</v>
       </c>
       <c r="K49" s="3">
         <v>224000</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>724400</v>
+        <v>978000</v>
       </c>
       <c r="E52" s="3">
-        <v>415600</v>
+        <v>561000</v>
       </c>
       <c r="F52" s="3">
-        <v>250400</v>
+        <v>338000</v>
       </c>
       <c r="G52" s="3">
-        <v>235600</v>
+        <v>318000</v>
       </c>
       <c r="H52" s="3">
-        <v>617000</v>
+        <v>833000</v>
       </c>
       <c r="I52" s="3">
-        <v>496300</v>
+        <v>670000</v>
       </c>
       <c r="J52" s="3">
-        <v>203000</v>
+        <v>274000</v>
       </c>
       <c r="K52" s="3">
         <v>63000</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32240000</v>
+        <v>43524000</v>
       </c>
       <c r="E54" s="3">
-        <v>30208900</v>
+        <v>40782000</v>
       </c>
       <c r="F54" s="3">
-        <v>28171100</v>
+        <v>38031000</v>
       </c>
       <c r="G54" s="3">
-        <v>31249600</v>
+        <v>42187000</v>
       </c>
       <c r="H54" s="3">
-        <v>30708100</v>
+        <v>41456000</v>
       </c>
       <c r="I54" s="3">
-        <v>30815500</v>
+        <v>41601000</v>
       </c>
       <c r="J54" s="3">
-        <v>30854800</v>
+        <v>41654000</v>
       </c>
       <c r="K54" s="3">
         <v>43170000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4174800</v>
+        <v>5636000</v>
       </c>
       <c r="E57" s="3">
-        <v>3457000</v>
+        <v>4667000</v>
       </c>
       <c r="F57" s="3">
-        <v>2008900</v>
+        <v>2712000</v>
       </c>
       <c r="G57" s="3">
-        <v>2765200</v>
+        <v>3733000</v>
       </c>
       <c r="H57" s="3">
-        <v>2425900</v>
+        <v>3275000</v>
       </c>
       <c r="I57" s="3">
-        <v>2548100</v>
+        <v>3440000</v>
       </c>
       <c r="J57" s="3">
-        <v>2071800</v>
+        <v>2797000</v>
       </c>
       <c r="K57" s="3">
         <v>2611000</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>90400</v>
+        <v>122000</v>
       </c>
       <c r="E58" s="3">
-        <v>90400</v>
+        <v>122000</v>
       </c>
       <c r="F58" s="3">
-        <v>168100</v>
+        <v>227000</v>
       </c>
       <c r="G58" s="3">
-        <v>180700</v>
+        <v>244000</v>
       </c>
       <c r="H58" s="3">
-        <v>149600</v>
+        <v>202000</v>
       </c>
       <c r="I58" s="3">
-        <v>149600</v>
+        <v>202000</v>
       </c>
       <c r="J58" s="3">
-        <v>149600</v>
+        <v>202000</v>
       </c>
       <c r="K58" s="3">
         <v>1952000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2325900</v>
+        <v>3140000</v>
       </c>
       <c r="E59" s="3">
-        <v>566700</v>
+        <v>765000</v>
       </c>
       <c r="F59" s="3">
-        <v>326700</v>
+        <v>441000</v>
       </c>
       <c r="G59" s="3">
-        <v>457800</v>
+        <v>618000</v>
       </c>
       <c r="H59" s="3">
-        <v>354100</v>
+        <v>478000</v>
       </c>
       <c r="I59" s="3">
-        <v>365900</v>
+        <v>494000</v>
       </c>
       <c r="J59" s="3">
-        <v>654800</v>
+        <v>884000</v>
       </c>
       <c r="K59" s="3">
         <v>830000</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6591100</v>
+        <v>8898000</v>
       </c>
       <c r="E60" s="3">
-        <v>4114100</v>
+        <v>5554000</v>
       </c>
       <c r="F60" s="3">
-        <v>2503700</v>
+        <v>3380000</v>
       </c>
       <c r="G60" s="3">
-        <v>3403700</v>
+        <v>4595000</v>
       </c>
       <c r="H60" s="3">
-        <v>2929600</v>
+        <v>3955000</v>
       </c>
       <c r="I60" s="3">
-        <v>3063700</v>
+        <v>4136000</v>
       </c>
       <c r="J60" s="3">
-        <v>2876300</v>
+        <v>3883000</v>
       </c>
       <c r="K60" s="3">
         <v>5393000</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2987400</v>
+        <v>4033000</v>
       </c>
       <c r="E61" s="3">
-        <v>3743700</v>
+        <v>5054000</v>
       </c>
       <c r="F61" s="3">
-        <v>3671800</v>
+        <v>4957000</v>
       </c>
       <c r="G61" s="3">
-        <v>3674800</v>
+        <v>4961000</v>
       </c>
       <c r="H61" s="3">
-        <v>3687400</v>
+        <v>4978000</v>
       </c>
       <c r="I61" s="3">
-        <v>3707400</v>
+        <v>5005000</v>
       </c>
       <c r="J61" s="3">
-        <v>3727400</v>
+        <v>5032000</v>
       </c>
       <c r="K61" s="3">
         <v>6564000</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6059300</v>
+        <v>8180000</v>
       </c>
       <c r="E62" s="3">
-        <v>6251100</v>
+        <v>8439000</v>
       </c>
       <c r="F62" s="3">
-        <v>6130400</v>
+        <v>8276000</v>
       </c>
       <c r="G62" s="3">
-        <v>6188900</v>
+        <v>8355000</v>
       </c>
       <c r="H62" s="3">
-        <v>5951100</v>
+        <v>8034000</v>
       </c>
       <c r="I62" s="3">
-        <v>5944400</v>
+        <v>8025000</v>
       </c>
       <c r="J62" s="3">
-        <v>5717000</v>
+        <v>7718000</v>
       </c>
       <c r="K62" s="3">
         <v>7788000</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15637800</v>
+        <v>21111000</v>
       </c>
       <c r="E66" s="3">
-        <v>14108900</v>
+        <v>19047000</v>
       </c>
       <c r="F66" s="3">
-        <v>12305900</v>
+        <v>16613000</v>
       </c>
       <c r="G66" s="3">
-        <v>13267400</v>
+        <v>17911000</v>
       </c>
       <c r="H66" s="3">
-        <v>12568100</v>
+        <v>16967000</v>
       </c>
       <c r="I66" s="3">
-        <v>12715500</v>
+        <v>17166000</v>
       </c>
       <c r="J66" s="3">
-        <v>12320700</v>
+        <v>16633000</v>
       </c>
       <c r="K66" s="3">
         <v>19745000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16182200</v>
+        <v>21846000</v>
       </c>
       <c r="E72" s="3">
-        <v>16044400</v>
+        <v>21660000</v>
       </c>
       <c r="F72" s="3">
-        <v>16333300</v>
+        <v>22050000</v>
       </c>
       <c r="G72" s="3">
-        <v>18379200</v>
+        <v>24812000</v>
       </c>
       <c r="H72" s="3">
-        <v>18192600</v>
+        <v>24560000</v>
       </c>
       <c r="I72" s="3">
-        <v>18306600</v>
+        <v>24714000</v>
       </c>
       <c r="J72" s="3">
-        <v>18779200</v>
+        <v>25352000</v>
       </c>
       <c r="K72" s="3">
         <v>23687000</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16602200</v>
+        <v>22413000</v>
       </c>
       <c r="E76" s="3">
-        <v>16100000</v>
+        <v>21735000</v>
       </c>
       <c r="F76" s="3">
-        <v>15865200</v>
+        <v>21418000</v>
       </c>
       <c r="G76" s="3">
-        <v>17982200</v>
+        <v>24276000</v>
       </c>
       <c r="H76" s="3">
-        <v>18140000</v>
+        <v>24489000</v>
       </c>
       <c r="I76" s="3">
-        <v>18100000</v>
+        <v>24435000</v>
       </c>
       <c r="J76" s="3">
-        <v>18534100</v>
+        <v>25021000</v>
       </c>
       <c r="K76" s="3">
         <v>23425000</v>
@@ -3438,26 +3438,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>17</v>
+      <c r="D81" s="3">
+        <v>7340000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2479000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1857000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>2314000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>490000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2165000</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>17</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1405200</v>
+        <v>1897000</v>
       </c>
       <c r="E83" s="3">
-        <v>1464400</v>
+        <v>1977000</v>
       </c>
       <c r="F83" s="3">
-        <v>2424400</v>
+        <v>3273000</v>
       </c>
       <c r="G83" s="3">
-        <v>1183700</v>
+        <v>1598000</v>
       </c>
       <c r="H83" s="3">
-        <v>1117800</v>
+        <v>1509000</v>
       </c>
       <c r="I83" s="3">
-        <v>1608900</v>
+        <v>2172000</v>
       </c>
       <c r="J83" s="3">
-        <v>1205900</v>
+        <v>1628000</v>
       </c>
       <c r="K83" s="3">
         <v>1450000</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7764400</v>
+        <v>10482000</v>
       </c>
       <c r="E89" s="3">
-        <v>4056300</v>
+        <v>5476000</v>
       </c>
       <c r="F89" s="3">
-        <v>591100</v>
+        <v>798000</v>
       </c>
       <c r="G89" s="3">
-        <v>3280700</v>
+        <v>4429000</v>
       </c>
       <c r="H89" s="3">
-        <v>2905200</v>
+        <v>3922000</v>
       </c>
       <c r="I89" s="3">
-        <v>2046700</v>
+        <v>2763000</v>
       </c>
       <c r="J89" s="3">
-        <v>1492600</v>
+        <v>2015000</v>
       </c>
       <c r="K89" s="3">
         <v>2167000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1130400</v>
+        <v>-1526000</v>
       </c>
       <c r="E91" s="3">
-        <v>-820700</v>
+        <v>-1108000</v>
       </c>
       <c r="F91" s="3">
-        <v>-643000</v>
+        <v>-868000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1211900</v>
+        <v>-1636000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1104400</v>
+        <v>-1491000</v>
       </c>
       <c r="I91" s="3">
-        <v>-735600</v>
+        <v>-993000</v>
       </c>
       <c r="J91" s="3">
-        <v>-794800</v>
+        <v>-1073000</v>
       </c>
       <c r="K91" s="3">
         <v>-2994000</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-457800</v>
+        <v>-618000</v>
       </c>
       <c r="E94" s="3">
-        <v>-749600</v>
+        <v>-1012000</v>
       </c>
       <c r="F94" s="3">
-        <v>-594100</v>
+        <v>-802000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1262200</v>
+        <v>-1704000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1154800</v>
+        <v>-1559000</v>
       </c>
       <c r="I94" s="3">
-        <v>-578500</v>
+        <v>-781000</v>
       </c>
       <c r="J94" s="3">
-        <v>1442200</v>
+        <v>1947000</v>
       </c>
       <c r="K94" s="3">
         <v>-2884000</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-630400</v>
+        <v>-851000</v>
       </c>
       <c r="E96" s="3">
-        <v>-523000</v>
+        <v>-706000</v>
       </c>
       <c r="F96" s="3">
-        <v>-480700</v>
+        <v>-649000</v>
       </c>
       <c r="G96" s="3">
-        <v>-467400</v>
+        <v>-631000</v>
       </c>
       <c r="H96" s="3">
-        <v>-423700</v>
+        <v>-572000</v>
       </c>
       <c r="I96" s="3">
-        <v>-388100</v>
+        <v>-524000</v>
       </c>
       <c r="J96" s="3">
-        <v>-364400</v>
+        <v>-492000</v>
       </c>
       <c r="K96" s="3">
         <v>-449000</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6124400</v>
+        <v>-8268000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2283000</v>
+        <v>-3082000</v>
       </c>
       <c r="F100" s="3">
-        <v>-698500</v>
+        <v>-943000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1477800</v>
+        <v>-1995000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1903700</v>
+        <v>-2570000</v>
       </c>
       <c r="I100" s="3">
-        <v>-872600</v>
+        <v>-1178000</v>
       </c>
       <c r="J100" s="3">
-        <v>-2795600</v>
+        <v>-3774000</v>
       </c>
       <c r="K100" s="3">
         <v>705000</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1182200</v>
+        <v>1596000</v>
       </c>
       <c r="E102" s="3">
-        <v>1023700</v>
+        <v>1382000</v>
       </c>
       <c r="F102" s="3">
-        <v>-701500</v>
+        <v>-947000</v>
       </c>
       <c r="G102" s="3">
-        <v>540700</v>
+        <v>730000</v>
       </c>
       <c r="H102" s="3">
-        <v>-153300</v>
+        <v>-207000</v>
       </c>
       <c r="I102" s="3">
-        <v>595600</v>
+        <v>804000</v>
       </c>
       <c r="J102" s="3">
-        <v>139300</v>
+        <v>188000</v>
       </c>
       <c r="K102" s="3">
         <v>-12000</v>
